--- a/Portfolio/scripts/output/201911/全家/全家整体资产配置.xlsx
+++ b/Portfolio/scripts/output/201911/全家/全家整体资产配置.xlsx
@@ -621,16 +621,16 @@
         <v>90010</v>
       </c>
       <c r="C4" s="9" t="n">
-        <v>1.6544</v>
+        <v>1.6535</v>
       </c>
       <c r="D4" s="10" t="n">
-        <v>2139.86</v>
+        <v>2211.21</v>
       </c>
       <c r="E4" s="10" t="n">
-        <v>3588.93</v>
+        <v>3588.79</v>
       </c>
       <c r="F4" s="10" t="n">
-        <v>-67.26000000000001</v>
+        <v>-67.40000000000001</v>
       </c>
       <c r="G4" s="11" t="inlineStr">
         <is>
@@ -668,16 +668,16 @@
         <v>519671</v>
       </c>
       <c r="C5" s="9" t="n">
-        <v>1.425</v>
+        <v>1.4258</v>
       </c>
       <c r="D5" s="10" t="n">
-        <v>2381.52</v>
+        <v>2462.53</v>
       </c>
       <c r="E5" s="10" t="n">
-        <v>3568.34</v>
+        <v>3568.21</v>
       </c>
       <c r="F5" s="10" t="n">
-        <v>57.2</v>
+        <v>57.07</v>
       </c>
       <c r="G5" s="11" t="inlineStr">
         <is>
@@ -762,16 +762,16 @@
         <v>3318</v>
       </c>
       <c r="C7" s="9" t="n">
-        <v>0.9348</v>
+        <v>0.9344</v>
       </c>
       <c r="D7" s="10" t="n">
-        <v>3153.28</v>
+        <v>3272.2</v>
       </c>
       <c r="E7" s="10" t="n">
-        <v>3020.05</v>
+        <v>3019.91</v>
       </c>
       <c r="F7" s="10" t="n">
-        <v>-37.51</v>
+        <v>-37.65</v>
       </c>
       <c r="G7" s="11" t="inlineStr">
         <is>
@@ -809,16 +809,16 @@
         <v>70023</v>
       </c>
       <c r="C8" s="9" t="n">
-        <v>1.7912</v>
+        <v>1.7941</v>
       </c>
       <c r="D8" s="10" t="n">
-        <v>1219.16</v>
+        <v>1266.95</v>
       </c>
       <c r="E8" s="10" t="n">
-        <v>2364.49</v>
+        <v>2364.38</v>
       </c>
       <c r="F8" s="10" t="n">
-        <v>91.41</v>
+        <v>91.3</v>
       </c>
       <c r="G8" s="11" t="inlineStr">
         <is>
@@ -856,16 +856,16 @@
         <v>530015</v>
       </c>
       <c r="C9" s="9" t="n">
-        <v>2.1171</v>
+        <v>2.1197</v>
       </c>
       <c r="D9" s="10" t="n">
-        <v>886.95</v>
+        <v>930.7</v>
       </c>
       <c r="E9" s="10" t="n">
-        <v>2018.65</v>
+        <v>2018.5</v>
       </c>
       <c r="F9" s="10" t="n">
-        <v>45.89</v>
+        <v>45.74</v>
       </c>
       <c r="G9" s="11" t="inlineStr">
         <is>
@@ -903,16 +903,16 @@
         <v>968</v>
       </c>
       <c r="C10" s="9" t="n">
-        <v>0.9583</v>
+        <v>0.9608</v>
       </c>
       <c r="D10" s="10" t="n">
-        <v>712.84</v>
+        <v>797.84</v>
       </c>
       <c r="E10" s="10" t="n">
-        <v>782.7</v>
+        <v>782.6</v>
       </c>
       <c r="F10" s="10" t="n">
-        <v>16.13</v>
+        <v>16.03</v>
       </c>
       <c r="G10" s="11" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>531.87</v>
       </c>
       <c r="E12" s="10" t="n">
-        <v>431.56</v>
+        <v>432.2</v>
       </c>
       <c r="F12" s="10" t="n">
         <v>74.78</v>

--- a/Portfolio/scripts/output/201911/全家/全家整体资产配置.xlsx
+++ b/Portfolio/scripts/output/201911/全家/全家整体资产配置.xlsx
@@ -627,10 +627,10 @@
         <v>2211.21</v>
       </c>
       <c r="E4" s="10" t="n">
-        <v>3588.79</v>
+        <v>3562.26</v>
       </c>
       <c r="F4" s="10" t="n">
-        <v>-67.40000000000001</v>
+        <v>-93.93000000000001</v>
       </c>
       <c r="G4" s="11" t="inlineStr">
         <is>
@@ -674,10 +674,10 @@
         <v>2462.53</v>
       </c>
       <c r="E5" s="10" t="n">
-        <v>3568.21</v>
+        <v>3526.34</v>
       </c>
       <c r="F5" s="10" t="n">
-        <v>57.07</v>
+        <v>15.2</v>
       </c>
       <c r="G5" s="11" t="inlineStr">
         <is>
@@ -721,10 +721,10 @@
         <v>2260.14</v>
       </c>
       <c r="E6" s="10" t="n">
-        <v>3317.89</v>
+        <v>3297.09</v>
       </c>
       <c r="F6" s="10" t="n">
-        <v>270.95</v>
+        <v>250.15</v>
       </c>
       <c r="G6" s="11" t="inlineStr">
         <is>
@@ -768,10 +768,10 @@
         <v>3272.2</v>
       </c>
       <c r="E7" s="10" t="n">
-        <v>3019.91</v>
+        <v>3003.23</v>
       </c>
       <c r="F7" s="10" t="n">
-        <v>-37.65</v>
+        <v>-54.33</v>
       </c>
       <c r="G7" s="11" t="inlineStr">
         <is>
@@ -815,10 +815,10 @@
         <v>1266.95</v>
       </c>
       <c r="E8" s="10" t="n">
-        <v>2364.38</v>
+        <v>2340.18</v>
       </c>
       <c r="F8" s="10" t="n">
-        <v>91.3</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="G8" s="11" t="inlineStr">
         <is>
@@ -862,10 +862,10 @@
         <v>930.7</v>
       </c>
       <c r="E9" s="10" t="n">
-        <v>2018.5</v>
+        <v>1998.03</v>
       </c>
       <c r="F9" s="10" t="n">
-        <v>45.74</v>
+        <v>25.27</v>
       </c>
       <c r="G9" s="11" t="inlineStr">
         <is>
@@ -909,10 +909,10 @@
         <v>797.84</v>
       </c>
       <c r="E10" s="10" t="n">
-        <v>782.6</v>
+        <v>778.77</v>
       </c>
       <c r="F10" s="10" t="n">
-        <v>16.03</v>
+        <v>12.2</v>
       </c>
       <c r="G10" s="11" t="inlineStr">
         <is>
@@ -956,10 +956,10 @@
         <v>550.4</v>
       </c>
       <c r="E11" s="10" t="n">
-        <v>515.89</v>
+        <v>513.08</v>
       </c>
       <c r="F11" s="10" t="n">
-        <v>-25</v>
+        <v>-27.81</v>
       </c>
       <c r="G11" s="11" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>432.2</v>
       </c>
       <c r="F12" s="10" t="n">
-        <v>74.78</v>
+        <v>75.42</v>
       </c>
       <c r="G12" s="11" t="inlineStr">
         <is>
@@ -1050,10 +1050,10 @@
         <v>247.91</v>
       </c>
       <c r="E13" s="10" t="n">
-        <v>332.2</v>
+        <v>329.72</v>
       </c>
       <c r="F13" s="10" t="n">
-        <v>18.94</v>
+        <v>16.46</v>
       </c>
       <c r="G13" s="11" t="inlineStr">
         <is>
@@ -1097,10 +1097,10 @@
         <v>60.61</v>
       </c>
       <c r="E14" s="10" t="n">
-        <v>88.39</v>
+        <v>87.38</v>
       </c>
       <c r="F14" s="10" t="n">
-        <v>-4.32</v>
+        <v>-5.33</v>
       </c>
       <c r="G14" s="11" t="inlineStr">
         <is>
@@ -1285,10 +1285,10 @@
         <v>16731.88</v>
       </c>
       <c r="E18" s="20" t="n">
-        <v>9083.73</v>
+        <v>9016.809999999999</v>
       </c>
       <c r="F18" s="20" t="n">
-        <v>-2916.26</v>
+        <v>-2983.19</v>
       </c>
       <c r="G18" s="21" t="inlineStr">
         <is>
@@ -1332,10 +1332,10 @@
         <v>2700</v>
       </c>
       <c r="E19" s="25" t="n">
-        <v>8224.200000000001</v>
+        <v>8135.1</v>
       </c>
       <c r="F19" s="25" t="n">
-        <v>1914.3</v>
+        <v>1825.2</v>
       </c>
       <c r="G19" s="26" t="inlineStr">
         <is>
@@ -1379,10 +1379,10 @@
         <v>9100</v>
       </c>
       <c r="E20" s="25" t="n">
-        <v>36500.1</v>
+        <v>36127</v>
       </c>
       <c r="F20" s="25" t="n">
-        <v>5132.4</v>
+        <v>4759.3</v>
       </c>
       <c r="G20" s="26" t="inlineStr">
         <is>
@@ -1426,10 +1426,10 @@
         <v>38800</v>
       </c>
       <c r="E21" s="25" t="n">
-        <v>208394.8</v>
+        <v>207075.6</v>
       </c>
       <c r="F21" s="25" t="n">
-        <v>-8924</v>
+        <v>-10243.2</v>
       </c>
       <c r="G21" s="26" t="inlineStr">
         <is>
@@ -1473,10 +1473,10 @@
         <v>33800</v>
       </c>
       <c r="E22" s="25" t="n">
-        <v>24369.8</v>
+        <v>24200.8</v>
       </c>
       <c r="F22" s="25" t="n">
-        <v>-5272.8</v>
+        <v>-5441.8</v>
       </c>
       <c r="G22" s="26" t="inlineStr">
         <is>
@@ -1520,10 +1520,10 @@
         <v>32700</v>
       </c>
       <c r="E23" s="25" t="n">
-        <v>29887.8</v>
+        <v>29430</v>
       </c>
       <c r="F23" s="25" t="n">
-        <v>4283.7</v>
+        <v>3825.9</v>
       </c>
       <c r="G23" s="26" t="inlineStr">
         <is>
@@ -1567,10 +1567,10 @@
         <v>34100</v>
       </c>
       <c r="E24" s="25" t="n">
-        <v>26393.4</v>
+        <v>26188.8</v>
       </c>
       <c r="F24" s="25" t="n">
-        <v>-3239.5</v>
+        <v>-3444.1</v>
       </c>
       <c r="G24" s="26" t="inlineStr">
         <is>
@@ -1614,10 +1614,10 @@
         <v>4500</v>
       </c>
       <c r="E25" s="25" t="n">
-        <v>14805</v>
+        <v>14854.5</v>
       </c>
       <c r="F25" s="25" t="n">
-        <v>1953</v>
+        <v>2002.5</v>
       </c>
       <c r="G25" s="26" t="inlineStr">
         <is>
@@ -1661,10 +1661,10 @@
         <v>9200</v>
       </c>
       <c r="E26" s="25" t="n">
-        <v>15327.2</v>
+        <v>15226</v>
       </c>
       <c r="F26" s="25" t="n">
-        <v>2456.4</v>
+        <v>2355.2</v>
       </c>
       <c r="G26" s="26" t="inlineStr">
         <is>
@@ -1708,10 +1708,10 @@
         <v>14400</v>
       </c>
       <c r="E27" s="25" t="n">
-        <v>20635.2</v>
+        <v>20606.4</v>
       </c>
       <c r="F27" s="25" t="n">
-        <v>2332.8</v>
+        <v>2304</v>
       </c>
       <c r="G27" s="26" t="inlineStr">
         <is>
@@ -1755,10 +1755,10 @@
         <v>3813.64</v>
       </c>
       <c r="E28" s="30" t="n">
-        <v>7486.18</v>
+        <v>7443.84</v>
       </c>
       <c r="F28" s="30" t="n">
-        <v>149.18</v>
+        <v>106.84</v>
       </c>
       <c r="G28" s="31" t="inlineStr">
         <is>
@@ -1802,10 +1802,10 @@
         <v>9722</v>
       </c>
       <c r="E29" s="30" t="n">
-        <v>5278.07</v>
+        <v>5239.19</v>
       </c>
       <c r="F29" s="30" t="n">
-        <v>-57.93</v>
+        <v>-96.81</v>
       </c>
       <c r="G29" s="31" t="inlineStr">
         <is>
@@ -1849,10 +1849,10 @@
         <v>4943.96</v>
       </c>
       <c r="E30" s="30" t="n">
-        <v>4849.53</v>
+        <v>4825.8</v>
       </c>
       <c r="F30" s="30" t="n">
-        <v>180.53</v>
+        <v>156.8</v>
       </c>
       <c r="G30" s="31" t="inlineStr">
         <is>
@@ -1896,10 +1896,10 @@
         <v>7379.54</v>
       </c>
       <c r="E31" s="30" t="n">
-        <v>4080.89</v>
+        <v>4058.75</v>
       </c>
       <c r="F31" s="30" t="n">
-        <v>78.89</v>
+        <v>56.75</v>
       </c>
       <c r="G31" s="31" t="inlineStr">
         <is>
@@ -1943,10 +1943,10 @@
         <v>3665.01</v>
       </c>
       <c r="E32" s="30" t="n">
-        <v>4046.17</v>
+        <v>4013.19</v>
       </c>
       <c r="F32" s="30" t="n">
-        <v>44.17</v>
+        <v>11.19</v>
       </c>
       <c r="G32" s="31" t="inlineStr">
         <is>
@@ -1990,10 +1990,10 @@
         <v>4550.55</v>
       </c>
       <c r="E33" s="30" t="n">
-        <v>3542.6</v>
+        <v>3516.21</v>
       </c>
       <c r="F33" s="30" t="n">
-        <v>207.6</v>
+        <v>181.21</v>
       </c>
       <c r="G33" s="31" t="inlineStr">
         <is>
@@ -2037,10 +2037,10 @@
         <v>400.63</v>
       </c>
       <c r="E34" s="30" t="n">
-        <v>716.29</v>
+        <v>712.6</v>
       </c>
       <c r="F34" s="30" t="n">
-        <v>49.29</v>
+        <v>45.6</v>
       </c>
       <c r="G34" s="31" t="inlineStr">
         <is>
@@ -2084,10 +2084,10 @@
         <v>736.3</v>
       </c>
       <c r="E35" s="30" t="n">
-        <v>715.3200000000001</v>
+        <v>711.49</v>
       </c>
       <c r="F35" s="30" t="n">
-        <v>48.32</v>
+        <v>44.49</v>
       </c>
       <c r="G35" s="31" t="inlineStr">
         <is>
@@ -2131,10 +2131,10 @@
         <v>377.37</v>
       </c>
       <c r="E36" s="30" t="n">
-        <v>370.46</v>
+        <v>364.88</v>
       </c>
       <c r="F36" s="30" t="n">
-        <v>-3.06</v>
+        <v>-8.640000000000001</v>
       </c>
       <c r="G36" s="31" t="inlineStr">
         <is>
@@ -2178,10 +2178,10 @@
         <v>5299.96</v>
       </c>
       <c r="E37" s="30" t="n">
-        <v>2003.38</v>
+        <v>1945.09</v>
       </c>
       <c r="F37" s="30" t="n">
-        <v>2.38</v>
+        <v>-55.91</v>
       </c>
       <c r="G37" s="31" t="inlineStr">
         <is>
@@ -2272,10 +2272,10 @@
         <v>459.67</v>
       </c>
       <c r="E39" s="30" t="n">
-        <v>694.5599999999999</v>
+        <v>690.15</v>
       </c>
       <c r="F39" s="30" t="n">
-        <v>27.56</v>
+        <v>23.15</v>
       </c>
       <c r="G39" s="31" t="inlineStr">
         <is>
@@ -2319,10 +2319,10 @@
         <v>611.75</v>
       </c>
       <c r="E40" s="30" t="n">
-        <v>734.71</v>
+        <v>737.16</v>
       </c>
       <c r="F40" s="30" t="n">
-        <v>67.70999999999999</v>
+        <v>70.16</v>
       </c>
       <c r="G40" s="31" t="inlineStr">
         <is>
@@ -2366,10 +2366,10 @@
         <v>1046.73</v>
       </c>
       <c r="E41" s="30" t="n">
-        <v>2054.73</v>
+        <v>2043.11</v>
       </c>
       <c r="F41" s="30" t="n">
-        <v>54.73</v>
+        <v>43.11</v>
       </c>
       <c r="G41" s="31" t="inlineStr">
         <is>
@@ -2413,10 +2413,10 @@
         <v>1825.9</v>
       </c>
       <c r="E42" s="30" t="n">
-        <v>2015.79</v>
+        <v>1999.36</v>
       </c>
       <c r="F42" s="30" t="n">
-        <v>15.79</v>
+        <v>-0.64</v>
       </c>
       <c r="G42" s="31" t="inlineStr">
         <is>
@@ -2460,10 +2460,10 @@
         <v>1059.17</v>
       </c>
       <c r="E43" s="30" t="n">
-        <v>1087.77</v>
+        <v>1076.12</v>
       </c>
       <c r="F43" s="30" t="n">
-        <v>87.77</v>
+        <v>76.12</v>
       </c>
       <c r="G43" s="31" t="inlineStr">
         <is>
@@ -2507,10 +2507,10 @@
         <v>1812.7</v>
       </c>
       <c r="E44" s="30" t="n">
-        <v>1002.42</v>
+        <v>996.99</v>
       </c>
       <c r="F44" s="30" t="n">
-        <v>2.42</v>
+        <v>-3.02</v>
       </c>
       <c r="G44" s="31" t="inlineStr">
         <is>
@@ -2554,10 +2554,10 @@
         <v>1227.03</v>
       </c>
       <c r="E45" s="30" t="n">
-        <v>955.24</v>
+        <v>948.13</v>
       </c>
       <c r="F45" s="30" t="n">
-        <v>-44.76</v>
+        <v>-51.87</v>
       </c>
       <c r="G45" s="31" t="inlineStr">
         <is>
@@ -2601,10 +2601,10 @@
         <v>1834.47</v>
       </c>
       <c r="E46" s="30" t="n">
-        <v>2231.63</v>
+        <v>2239.34</v>
       </c>
       <c r="F46" s="30" t="n">
-        <v>231.63</v>
+        <v>239.34</v>
       </c>
       <c r="G46" s="31" t="inlineStr">
         <is>
@@ -2695,10 +2695,10 @@
         <v>689.02</v>
       </c>
       <c r="E48" s="30" t="n">
-        <v>1041.11</v>
+        <v>1034.49</v>
       </c>
       <c r="F48" s="30" t="n">
-        <v>41.11</v>
+        <v>34.49</v>
       </c>
       <c r="G48" s="31" t="inlineStr">
         <is>
@@ -2742,10 +2742,10 @@
         <v>4757.9</v>
       </c>
       <c r="E49" s="30" t="n">
-        <v>1798.49</v>
+        <v>1746.15</v>
       </c>
       <c r="F49" s="30" t="n">
-        <v>-201.51</v>
+        <v>-253.85</v>
       </c>
       <c r="G49" s="31" t="inlineStr">
         <is>
@@ -2789,10 +2789,10 @@
         <v>953.96</v>
       </c>
       <c r="E50" s="30" t="n">
-        <v>1145.71</v>
+        <v>1149.52</v>
       </c>
       <c r="F50" s="30" t="n">
-        <v>145.71</v>
+        <v>149.52</v>
       </c>
       <c r="G50" s="31" t="inlineStr">
         <is>
@@ -2836,10 +2836,10 @@
         <v>65064.33</v>
       </c>
       <c r="E51" s="35" t="n">
-        <v>71831.02</v>
+        <v>71245.44</v>
       </c>
       <c r="F51" s="35" t="n">
-        <v>5511.02</v>
+        <v>4925.44</v>
       </c>
       <c r="G51" s="36" t="inlineStr">
         <is>
@@ -2883,10 +2883,10 @@
         <v>63490</v>
       </c>
       <c r="E52" s="35" t="n">
-        <v>62277.34</v>
+        <v>61972.58</v>
       </c>
       <c r="F52" s="35" t="n">
-        <v>4077.34</v>
+        <v>3772.58</v>
       </c>
       <c r="G52" s="36" t="inlineStr">
         <is>
@@ -2930,10 +2930,10 @@
         <v>32370.29</v>
       </c>
       <c r="E53" s="35" t="n">
-        <v>37420.05</v>
+        <v>37297.04</v>
       </c>
       <c r="F53" s="35" t="n">
-        <v>5420.05</v>
+        <v>5297.04</v>
       </c>
       <c r="G53" s="36" t="inlineStr">
         <is>
@@ -2977,10 +2977,10 @@
         <v>41014.88</v>
       </c>
       <c r="E54" s="35" t="n">
-        <v>36548.35</v>
+        <v>36507.34</v>
       </c>
       <c r="F54" s="35" t="n">
-        <v>5988.35</v>
+        <v>5947.34</v>
       </c>
       <c r="G54" s="36" t="inlineStr">
         <is>
@@ -3024,10 +3024,10 @@
         <v>20086.63</v>
       </c>
       <c r="E55" s="35" t="n">
-        <v>34107.09</v>
+        <v>34006.66</v>
       </c>
       <c r="F55" s="35" t="n">
-        <v>2107.09</v>
+        <v>2006.66</v>
       </c>
       <c r="G55" s="36" t="inlineStr">
         <is>
@@ -3071,10 +3071,10 @@
         <v>20716.63</v>
       </c>
       <c r="E56" s="35" t="n">
-        <v>24880.67</v>
+        <v>24963.53</v>
       </c>
       <c r="F56" s="35" t="n">
-        <v>2280.67</v>
+        <v>2363.53</v>
       </c>
       <c r="G56" s="36" t="inlineStr">
         <is>
@@ -3118,10 +3118,10 @@
         <v>14624.61</v>
       </c>
       <c r="E57" s="35" t="n">
-        <v>24115.98</v>
+        <v>23867.36</v>
       </c>
       <c r="F57" s="35" t="n">
-        <v>4915.98</v>
+        <v>4667.36</v>
       </c>
       <c r="G57" s="36" t="inlineStr">
         <is>
@@ -3165,10 +3165,10 @@
         <v>21163.93</v>
       </c>
       <c r="E58" s="35" t="n">
-        <v>23314.18</v>
+        <v>22992.49</v>
       </c>
       <c r="F58" s="35" t="n">
-        <v>4114.18</v>
+        <v>3792.49</v>
       </c>
       <c r="G58" s="36" t="inlineStr">
         <is>
@@ -3259,10 +3259,10 @@
         <v>9529.809999999999</v>
       </c>
       <c r="E60" s="35" t="n">
-        <v>15381.11</v>
+        <v>15295.34</v>
       </c>
       <c r="F60" s="35" t="n">
-        <v>2581.11</v>
+        <v>2495.34</v>
       </c>
       <c r="G60" s="36" t="inlineStr">
         <is>
@@ -3306,10 +3306,10 @@
         <v>37267.45</v>
       </c>
       <c r="E61" s="35" t="n">
-        <v>14087.09</v>
+        <v>13677.15</v>
       </c>
       <c r="F61" s="35" t="n">
-        <v>-5112.91</v>
+        <v>-5522.85</v>
       </c>
       <c r="G61" s="36" t="inlineStr">
         <is>
@@ -3353,10 +3353,10 @@
         <v>6798.52</v>
       </c>
       <c r="E62" s="35" t="n">
-        <v>10272.56</v>
+        <v>10207.29</v>
       </c>
       <c r="F62" s="35" t="n">
-        <v>372.56</v>
+        <v>307.29</v>
       </c>
       <c r="G62" s="36" t="inlineStr">
         <is>
@@ -3400,10 +3400,10 @@
         <v>4791.13</v>
       </c>
       <c r="E63" s="35" t="n">
-        <v>8566.059999999999</v>
+        <v>8521.98</v>
       </c>
       <c r="F63" s="35" t="n">
-        <v>2166.06</v>
+        <v>2121.98</v>
       </c>
       <c r="G63" s="36" t="inlineStr">
         <is>
@@ -3447,10 +3447,10 @@
         <v>5609.79</v>
       </c>
       <c r="E64" s="35" t="n">
-        <v>7522.72</v>
+        <v>7517.11</v>
       </c>
       <c r="F64" s="35" t="n">
-        <v>2377.6</v>
+        <v>2371.99</v>
       </c>
       <c r="G64" s="36" t="inlineStr">
         <is>
@@ -3481,42 +3481,42 @@
     <row r="65">
       <c r="A65" s="32" t="inlineStr">
         <is>
-          <t>广发中证环保ETF联接A</t>
+          <t>长信可转债债券A</t>
         </is>
       </c>
       <c r="B65" s="33" t="n">
-        <v>1064</v>
+        <v>519977</v>
       </c>
       <c r="C65" s="34" t="n">
-        <v>0.4775</v>
+        <v>1.2011</v>
       </c>
       <c r="D65" s="35" t="n">
-        <v>13403.92</v>
+        <v>5328.62</v>
       </c>
       <c r="E65" s="35" t="n">
-        <v>7276.98</v>
+        <v>7255.98</v>
       </c>
       <c r="F65" s="35" t="n">
-        <v>876.98</v>
+        <v>855.98</v>
       </c>
       <c r="G65" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="H65" s="36" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="I65" s="36" t="inlineStr">
         <is>
-          <t>中证环保</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="J65" s="36" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>411</t>
         </is>
       </c>
       <c r="K65" s="36" t="inlineStr">
@@ -3528,42 +3528,42 @@
     <row r="66">
       <c r="A66" s="32" t="inlineStr">
         <is>
-          <t>长信可转债债券A</t>
+          <t>广发中证环保ETF联接A</t>
         </is>
       </c>
       <c r="B66" s="33" t="n">
-        <v>519977</v>
+        <v>1064</v>
       </c>
       <c r="C66" s="34" t="n">
-        <v>1.2011</v>
+        <v>0.4775</v>
       </c>
       <c r="D66" s="35" t="n">
-        <v>5328.62</v>
+        <v>13403.92</v>
       </c>
       <c r="E66" s="35" t="n">
-        <v>7271.96</v>
+        <v>7223.37</v>
       </c>
       <c r="F66" s="35" t="n">
-        <v>871.96</v>
+        <v>823.37</v>
       </c>
       <c r="G66" s="36" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H66" s="36" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I66" s="36" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>中证环保</t>
         </is>
       </c>
       <c r="J66" s="36" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>143</t>
         </is>
       </c>
       <c r="K66" s="36" t="inlineStr">
@@ -3588,10 +3588,10 @@
         <v>7778.64</v>
       </c>
       <c r="E67" s="35" t="n">
-        <v>6793.86</v>
+        <v>6757.3</v>
       </c>
       <c r="F67" s="35" t="n">
-        <v>-206.14</v>
+        <v>-242.7</v>
       </c>
       <c r="G67" s="36" t="inlineStr">
         <is>
@@ -3635,10 +3635,10 @@
         <v>7852.99</v>
       </c>
       <c r="E68" s="35" t="n">
-        <v>6113.55</v>
+        <v>6068</v>
       </c>
       <c r="F68" s="35" t="n">
-        <v>-286.45</v>
+        <v>-332</v>
       </c>
       <c r="G68" s="36" t="inlineStr">
         <is>
@@ -3682,10 +3682,10 @@
         <v>3580.2</v>
       </c>
       <c r="E69" s="35" t="n">
-        <v>3394.02</v>
+        <v>3373.62</v>
       </c>
       <c r="F69" s="35" t="n">
-        <v>-105.98</v>
+        <v>-126.38</v>
       </c>
       <c r="G69" s="36" t="inlineStr">
         <is>
@@ -3817,16 +3817,16 @@
         <v>519671</v>
       </c>
       <c r="C72" s="9" t="n">
-        <v>1.4255</v>
+        <v>1.4259</v>
       </c>
       <c r="D72" s="10" t="n">
-        <v>981.52</v>
+        <v>997.72</v>
       </c>
       <c r="E72" s="10" t="n">
-        <v>1445.72</v>
+        <v>1428.74</v>
       </c>
       <c r="F72" s="10" t="n">
-        <v>23.07</v>
+        <v>6.08</v>
       </c>
       <c r="G72" s="11" t="inlineStr">
         <is>
@@ -3864,16 +3864,16 @@
         <v>90010</v>
       </c>
       <c r="C73" s="9" t="n">
-        <v>1.6538</v>
+        <v>1.6533</v>
       </c>
       <c r="D73" s="10" t="n">
-        <v>831.6799999999999</v>
+        <v>845.95</v>
       </c>
       <c r="E73" s="10" t="n">
-        <v>1373.01</v>
+        <v>1362.83</v>
       </c>
       <c r="F73" s="10" t="n">
-        <v>-25.59</v>
+        <v>-35.77</v>
       </c>
       <c r="G73" s="11" t="inlineStr">
         <is>
@@ -3917,10 +3917,10 @@
         <v>898.04</v>
       </c>
       <c r="E74" s="10" t="n">
-        <v>1318.32</v>
+        <v>1310.06</v>
       </c>
       <c r="F74" s="10" t="n">
-        <v>107.35</v>
+        <v>99.09</v>
       </c>
       <c r="G74" s="11" t="inlineStr">
         <is>
@@ -3958,16 +3958,16 @@
         <v>3318</v>
       </c>
       <c r="C75" s="9" t="n">
-        <v>0.9337</v>
+        <v>0.9335</v>
       </c>
       <c r="D75" s="10" t="n">
-        <v>1265.09</v>
+        <v>1288.86</v>
       </c>
       <c r="E75" s="10" t="n">
-        <v>1189.52</v>
+        <v>1182.92</v>
       </c>
       <c r="F75" s="10" t="n">
-        <v>-13.62</v>
+        <v>-20.22</v>
       </c>
       <c r="G75" s="11" t="inlineStr">
         <is>
@@ -4005,16 +4005,16 @@
         <v>70023</v>
       </c>
       <c r="C76" s="9" t="n">
-        <v>1.7925</v>
+        <v>1.794</v>
       </c>
       <c r="D76" s="10" t="n">
-        <v>463.76</v>
+        <v>473.31</v>
       </c>
       <c r="E76" s="10" t="n">
-        <v>883.33</v>
+        <v>874.25</v>
       </c>
       <c r="F76" s="10" t="n">
-        <v>34.19</v>
+        <v>25.11</v>
       </c>
       <c r="G76" s="11" t="inlineStr">
         <is>
@@ -4052,16 +4052,16 @@
         <v>530015</v>
       </c>
       <c r="C77" s="9" t="n">
-        <v>2.1175</v>
+        <v>2.1188</v>
       </c>
       <c r="D77" s="10" t="n">
-        <v>372.46</v>
+        <v>381.21</v>
       </c>
       <c r="E77" s="10" t="n">
-        <v>826.8</v>
+        <v>818.38</v>
       </c>
       <c r="F77" s="10" t="n">
-        <v>19.11</v>
+        <v>10.69</v>
       </c>
       <c r="G77" s="11" t="inlineStr">
         <is>
@@ -4099,16 +4099,16 @@
         <v>968</v>
       </c>
       <c r="C78" s="9" t="n">
-        <v>0.9599</v>
+        <v>0.961</v>
       </c>
       <c r="D78" s="10" t="n">
-        <v>319.9</v>
+        <v>336.9</v>
       </c>
       <c r="E78" s="10" t="n">
-        <v>330.49</v>
+        <v>328.85</v>
       </c>
       <c r="F78" s="10" t="n">
-        <v>6.73</v>
+        <v>5.09</v>
       </c>
       <c r="G78" s="11" t="inlineStr">
         <is>
@@ -4152,10 +4152,10 @@
         <v>214.89</v>
       </c>
       <c r="E79" s="10" t="n">
-        <v>201.42</v>
+        <v>200.32</v>
       </c>
       <c r="F79" s="10" t="n">
-        <v>-9.800000000000001</v>
+        <v>-10.9</v>
       </c>
       <c r="G79" s="11" t="inlineStr">
         <is>
@@ -4199,10 +4199,10 @@
         <v>212.74</v>
       </c>
       <c r="E80" s="10" t="n">
-        <v>172.62</v>
+        <v>172.87</v>
       </c>
       <c r="F80" s="10" t="n">
-        <v>29.92</v>
+        <v>30.17</v>
       </c>
       <c r="G80" s="11" t="inlineStr">
         <is>
@@ -4246,10 +4246,10 @@
         <v>62.09</v>
       </c>
       <c r="E81" s="10" t="n">
-        <v>83.2</v>
+        <v>82.58</v>
       </c>
       <c r="F81" s="10" t="n">
-        <v>3.16</v>
+        <v>2.54</v>
       </c>
       <c r="G81" s="11" t="inlineStr">
         <is>
@@ -4293,10 +4293,10 @@
         <v>24.24</v>
       </c>
       <c r="E82" s="10" t="n">
-        <v>35.35</v>
+        <v>34.95</v>
       </c>
       <c r="F82" s="10" t="n">
-        <v>-1.73</v>
+        <v>-2.13</v>
       </c>
       <c r="G82" s="11" t="inlineStr">
         <is>
@@ -4381,16 +4381,16 @@
         <v>90010</v>
       </c>
       <c r="C84" s="9" t="n">
-        <v>1.6604</v>
+        <v>1.6593</v>
       </c>
       <c r="D84" s="10" t="n">
-        <v>861.49</v>
+        <v>890.02</v>
       </c>
       <c r="E84" s="10" t="n">
-        <v>1444.57</v>
+        <v>1433.82</v>
       </c>
       <c r="F84" s="10" t="n">
-        <v>-32.2</v>
+        <v>-42.95</v>
       </c>
       <c r="G84" s="11" t="inlineStr">
         <is>
@@ -4428,16 +4428,16 @@
         <v>519671</v>
       </c>
       <c r="C85" s="9" t="n">
-        <v>1.4229</v>
+        <v>1.4239</v>
       </c>
       <c r="D85" s="10" t="n">
-        <v>930.05</v>
+        <v>962.45</v>
       </c>
       <c r="E85" s="10" t="n">
-        <v>1394.65</v>
+        <v>1378.23</v>
       </c>
       <c r="F85" s="10" t="n">
-        <v>24.24</v>
+        <v>7.82</v>
       </c>
       <c r="G85" s="11" t="inlineStr">
         <is>
@@ -4481,10 +4481,10 @@
         <v>915.97</v>
       </c>
       <c r="E86" s="10" t="n">
-        <v>1344.64</v>
+        <v>1336.22</v>
       </c>
       <c r="F86" s="10" t="n">
-        <v>106.8</v>
+        <v>98.38</v>
       </c>
       <c r="G86" s="11" t="inlineStr">
         <is>
@@ -4522,16 +4522,16 @@
         <v>3318</v>
       </c>
       <c r="C87" s="9" t="n">
-        <v>0.9352</v>
+        <v>0.9348</v>
       </c>
       <c r="D87" s="10" t="n">
-        <v>1225.39</v>
+        <v>1272.96</v>
       </c>
       <c r="E87" s="10" t="n">
-        <v>1174.87</v>
+        <v>1168.32</v>
       </c>
       <c r="F87" s="10" t="n">
-        <v>-15.1</v>
+        <v>-21.65</v>
       </c>
       <c r="G87" s="11" t="inlineStr">
         <is>
@@ -4569,16 +4569,16 @@
         <v>70023</v>
       </c>
       <c r="C88" s="9" t="n">
-        <v>1.7915</v>
+        <v>1.7945</v>
       </c>
       <c r="D88" s="10" t="n">
-        <v>471.32</v>
+        <v>490.43</v>
       </c>
       <c r="E88" s="10" t="n">
-        <v>915.3</v>
+        <v>905.87</v>
       </c>
       <c r="F88" s="10" t="n">
-        <v>35.23</v>
+        <v>25.8</v>
       </c>
       <c r="G88" s="11" t="inlineStr">
         <is>
@@ -4616,16 +4616,16 @@
         <v>530015</v>
       </c>
       <c r="C89" s="9" t="n">
-        <v>2.1157</v>
+        <v>2.1185</v>
       </c>
       <c r="D89" s="10" t="n">
-        <v>337.88</v>
+        <v>355.38</v>
       </c>
       <c r="E89" s="10" t="n">
-        <v>770.8</v>
+        <v>762.9299999999999</v>
       </c>
       <c r="F89" s="10" t="n">
-        <v>17.94</v>
+        <v>10.07</v>
       </c>
       <c r="G89" s="11" t="inlineStr">
         <is>
@@ -4663,16 +4663,16 @@
         <v>968</v>
       </c>
       <c r="C90" s="9" t="n">
-        <v>0.9582000000000001</v>
+        <v>0.9608</v>
       </c>
       <c r="D90" s="10" t="n">
-        <v>285.14</v>
+        <v>319.14</v>
       </c>
       <c r="E90" s="10" t="n">
-        <v>313.08</v>
+        <v>311.51</v>
       </c>
       <c r="F90" s="10" t="n">
-        <v>6.46</v>
+        <v>4.89</v>
       </c>
       <c r="G90" s="11" t="inlineStr">
         <is>
@@ -4716,10 +4716,10 @@
         <v>227.52</v>
       </c>
       <c r="E91" s="10" t="n">
-        <v>213.25</v>
+        <v>212.09</v>
       </c>
       <c r="F91" s="10" t="n">
-        <v>-10.26</v>
+        <v>-11.42</v>
       </c>
       <c r="G91" s="11" t="inlineStr">
         <is>
@@ -4763,10 +4763,10 @@
         <v>142.1</v>
       </c>
       <c r="E92" s="10" t="n">
-        <v>190.41</v>
+        <v>188.99</v>
       </c>
       <c r="F92" s="10" t="n">
-        <v>7.96</v>
+        <v>6.54</v>
       </c>
       <c r="G92" s="11" t="inlineStr">
         <is>
@@ -4810,10 +4810,10 @@
         <v>212.74</v>
       </c>
       <c r="E93" s="10" t="n">
-        <v>172.62</v>
+        <v>172.87</v>
       </c>
       <c r="F93" s="10" t="n">
-        <v>29.92</v>
+        <v>30.17</v>
       </c>
       <c r="G93" s="11" t="inlineStr">
         <is>
@@ -4857,10 +4857,10 @@
         <v>24.24</v>
       </c>
       <c r="E94" s="10" t="n">
-        <v>35.35</v>
+        <v>34.95</v>
       </c>
       <c r="F94" s="10" t="n">
-        <v>-1.73</v>
+        <v>-2.13</v>
       </c>
       <c r="G94" s="11" t="inlineStr">
         <is>
@@ -4951,10 +4951,10 @@
         <v>9697.57</v>
       </c>
       <c r="E96" s="35" t="n">
-        <v>10600.41</v>
+        <v>10544.16</v>
       </c>
       <c r="F96" s="35" t="n">
-        <v>400.41</v>
+        <v>344.16</v>
       </c>
       <c r="G96" s="36" t="inlineStr">
         <is>
@@ -4998,10 +4998,10 @@
         <v>8677.6</v>
       </c>
       <c r="E97" s="35" t="n">
-        <v>9580.07</v>
+        <v>9501.969999999999</v>
       </c>
       <c r="F97" s="35" t="n">
-        <v>780.0700000000001</v>
+        <v>701.97</v>
       </c>
       <c r="G97" s="36" t="inlineStr">
         <is>
@@ -5045,10 +5045,10 @@
         <v>6750.28</v>
       </c>
       <c r="E98" s="35" t="n">
-        <v>6015.17</v>
+        <v>6008.42</v>
       </c>
       <c r="F98" s="35" t="n">
-        <v>1215.17</v>
+        <v>1208.42</v>
       </c>
       <c r="G98" s="36" t="inlineStr">
         <is>
@@ -5092,10 +5092,10 @@
         <v>6096.21</v>
       </c>
       <c r="E99" s="35" t="n">
-        <v>5979.77</v>
+        <v>5950.51</v>
       </c>
       <c r="F99" s="35" t="n">
-        <v>779.77</v>
+        <v>750.51</v>
       </c>
       <c r="G99" s="36" t="inlineStr">
         <is>
@@ -5139,10 +5139,10 @@
         <v>2760.12</v>
       </c>
       <c r="E100" s="35" t="n">
-        <v>4551.43</v>
+        <v>4504.51</v>
       </c>
       <c r="F100" s="35" t="n">
-        <v>951.4299999999999</v>
+        <v>904.51</v>
       </c>
       <c r="G100" s="36" t="inlineStr">
         <is>
@@ -5186,10 +5186,10 @@
         <v>4423.48</v>
       </c>
       <c r="E101" s="35" t="n">
-        <v>3443.67</v>
+        <v>3418.02</v>
       </c>
       <c r="F101" s="35" t="n">
-        <v>243.67</v>
+        <v>218.02</v>
       </c>
       <c r="G101" s="36" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>2046.97</v>
       </c>
       <c r="E102" s="35" t="n">
-        <v>3303.8</v>
+        <v>3285.38</v>
       </c>
       <c r="F102" s="35" t="n">
-        <v>591.6900000000001</v>
+        <v>573.27</v>
       </c>
       <c r="G102" s="36" t="inlineStr">
         <is>
@@ -5280,10 +5280,10 @@
         <v>5949.77</v>
       </c>
       <c r="E103" s="35" t="n">
-        <v>3230.13</v>
+        <v>3206.33</v>
       </c>
       <c r="F103" s="35" t="n">
-        <v>30.13</v>
+        <v>6.33</v>
       </c>
       <c r="G103" s="36" t="inlineStr">
         <is>
@@ -5327,10 +5327,10 @@
         <v>1743.65</v>
       </c>
       <c r="E104" s="35" t="n">
-        <v>2960.71</v>
+        <v>2951.99</v>
       </c>
       <c r="F104" s="35" t="n">
-        <v>169.71</v>
+        <v>160.99</v>
       </c>
       <c r="G104" s="36" t="inlineStr">
         <is>
@@ -5374,10 +5374,10 @@
         <v>1884.74</v>
       </c>
       <c r="E105" s="35" t="n">
-        <v>2263.57</v>
+        <v>2271.11</v>
       </c>
       <c r="F105" s="35" t="n">
-        <v>263.57</v>
+        <v>271.11</v>
       </c>
       <c r="G105" s="36" t="inlineStr">
         <is>
@@ -5421,10 +5421,10 @@
         <v>1213.09</v>
       </c>
       <c r="E106" s="35" t="n">
-        <v>2168.88</v>
+        <v>2157.72</v>
       </c>
       <c r="F106" s="35" t="n">
-        <v>568.88</v>
+        <v>557.72</v>
       </c>
       <c r="G106" s="36" t="inlineStr">
         <is>
@@ -5468,10 +5468,10 @@
         <v>1630.08</v>
       </c>
       <c r="E107" s="35" t="n">
-        <v>1884.37</v>
+        <v>1878.17</v>
       </c>
       <c r="F107" s="35" t="n">
-        <v>284.37</v>
+        <v>278.17</v>
       </c>
       <c r="G107" s="36" t="inlineStr">
         <is>
@@ -5562,10 +5562,10 @@
         <v>1338.46</v>
       </c>
       <c r="E109" s="35" t="n">
-        <v>1374.59</v>
+        <v>1359.87</v>
       </c>
       <c r="F109" s="35" t="n">
-        <v>174.59</v>
+        <v>159.87</v>
       </c>
       <c r="G109" s="36" t="inlineStr">
         <is>
@@ -5609,10 +5609,10 @@
         <v>3350.7</v>
       </c>
       <c r="E110" s="35" t="n">
-        <v>1266.56</v>
+        <v>1229.7</v>
       </c>
       <c r="F110" s="35" t="n">
-        <v>-333.44</v>
+        <v>-370.3</v>
       </c>
       <c r="G110" s="36" t="inlineStr">
         <is>
@@ -5656,10 +5656,10 @@
         <v>1495.03</v>
       </c>
       <c r="E111" s="35" t="n">
-        <v>1211.87</v>
+        <v>1206.33</v>
       </c>
       <c r="F111" s="35" t="n">
-        <v>11.87</v>
+        <v>6.33</v>
       </c>
       <c r="G111" s="36" t="inlineStr">
         <is>
@@ -5703,10 +5703,10 @@
         <v>900.35</v>
       </c>
       <c r="E112" s="35" t="n">
-        <v>991.8200000000001</v>
+        <v>978.14</v>
       </c>
       <c r="F112" s="35" t="n">
-        <v>191.82</v>
+        <v>178.14</v>
       </c>
       <c r="G112" s="36" t="inlineStr">
         <is>
@@ -5750,10 +5750,10 @@
         <v>733.79</v>
       </c>
       <c r="E113" s="35" t="n">
-        <v>892.65</v>
+        <v>895.73</v>
       </c>
       <c r="F113" s="35" t="n">
-        <v>92.65000000000001</v>
+        <v>95.73</v>
       </c>
       <c r="G113" s="36" t="inlineStr">
         <is>
@@ -5797,10 +5797,10 @@
         <v>496.13</v>
       </c>
       <c r="E114" s="35" t="n">
-        <v>487.05</v>
+        <v>479.7</v>
       </c>
       <c r="F114" s="35" t="n">
-        <v>87.05</v>
+        <v>79.7</v>
       </c>
       <c r="G114" s="36" t="inlineStr">
         <is>
@@ -5844,10 +5844,10 @@
         <v>492.57</v>
       </c>
       <c r="E115" s="35" t="n">
-        <v>478.53</v>
+        <v>475.97</v>
       </c>
       <c r="F115" s="35" t="n">
-        <v>78.53</v>
+        <v>75.97</v>
       </c>
       <c r="G115" s="36" t="inlineStr">
         <is>
@@ -5891,10 +5891,10 @@
         <v>333.04</v>
       </c>
       <c r="E116" s="35" t="n">
-        <v>454.49</v>
+        <v>453.5</v>
       </c>
       <c r="F116" s="35" t="n">
-        <v>54.49</v>
+        <v>53.5</v>
       </c>
       <c r="G116" s="36" t="inlineStr">
         <is>
@@ -5938,10 +5938,10 @@
         <v>325.61</v>
       </c>
       <c r="E117" s="35" t="n">
-        <v>430.45</v>
+        <v>426.22</v>
       </c>
       <c r="F117" s="35" t="n">
-        <v>30.45</v>
+        <v>26.22</v>
       </c>
       <c r="G117" s="36" t="inlineStr">
         <is>
@@ -5985,10 +5985,10 @@
         <v>275.49</v>
       </c>
       <c r="E118" s="35" t="n">
-        <v>416.26</v>
+        <v>413.62</v>
       </c>
       <c r="F118" s="35" t="n">
-        <v>16.26</v>
+        <v>13.62</v>
       </c>
       <c r="G118" s="36" t="inlineStr">
         <is>
@@ -6032,10 +6032,10 @@
         <v>275.96</v>
       </c>
       <c r="E119" s="35" t="n">
-        <v>241.02</v>
+        <v>239.72</v>
       </c>
       <c r="F119" s="35" t="n">
-        <v>12.26</v>
+        <v>10.96</v>
       </c>
       <c r="G119" s="36" t="inlineStr">
         <is>

--- a/Portfolio/scripts/output/201911/全家/全家整体资产配置.xlsx
+++ b/Portfolio/scripts/output/201911/全家/全家整体资产配置.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="资产配置情况" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="000000" numFmtId="164"/>
-    <numFmt formatCode="0.0000" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -87,67 +87,67 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="37">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -448,16 +448,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="29.25"/>
-    <col customWidth="1" max="2" min="2" width="9"/>
-    <col customWidth="1" max="3" min="3" width="9"/>
-    <col customWidth="1" max="4" min="4" width="9"/>
-    <col customWidth="1" max="5" min="5" width="9"/>
-    <col customWidth="1" max="6" min="6" width="9"/>
-    <col customWidth="1" max="7" min="7" width="9"/>
-    <col customWidth="1" max="8" min="8" width="13.5"/>
-    <col customWidth="1" max="9" min="9" width="11.25"/>
-    <col customWidth="1" max="11" min="11" width="15"/>
+    <col width="29.25" customWidth="1" min="1" max="1"/>
+    <col width="9" customWidth="1" min="2" max="2"/>
+    <col width="9" customWidth="1" min="3" max="3"/>
+    <col width="9" customWidth="1" min="4" max="4"/>
+    <col width="9" customWidth="1" min="5" max="5"/>
+    <col width="9" customWidth="1" min="6" max="6"/>
+    <col width="9" customWidth="1" min="7" max="7"/>
+    <col width="13.5" customWidth="1" min="8" max="8"/>
+    <col width="11.25" customWidth="1" min="9" max="9"/>
+    <col width="15" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -530,13 +530,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>144837.41</v>
+        <v>148153.22</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>144837.41</v>
+        <v>148153.22</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>5409.19</v>
+        <v>5695.51</v>
       </c>
       <c r="G2" s="6" t="inlineStr">
         <is>
@@ -1332,10 +1332,10 @@
         <v>2700</v>
       </c>
       <c r="E19" s="25" t="n">
-        <v>8135.1</v>
+        <v>8086.5</v>
       </c>
       <c r="F19" s="25" t="n">
-        <v>1825.2</v>
+        <v>1776.6</v>
       </c>
       <c r="G19" s="26" t="inlineStr">
         <is>
@@ -1379,10 +1379,10 @@
         <v>9100</v>
       </c>
       <c r="E20" s="25" t="n">
-        <v>36127</v>
+        <v>35945</v>
       </c>
       <c r="F20" s="25" t="n">
-        <v>4759.3</v>
+        <v>4577.3</v>
       </c>
       <c r="G20" s="26" t="inlineStr">
         <is>
@@ -1426,10 +1426,10 @@
         <v>38800</v>
       </c>
       <c r="E21" s="25" t="n">
-        <v>207075.6</v>
+        <v>207386</v>
       </c>
       <c r="F21" s="25" t="n">
-        <v>-10243.2</v>
+        <v>-9932.799999999999</v>
       </c>
       <c r="G21" s="26" t="inlineStr">
         <is>
@@ -1614,10 +1614,10 @@
         <v>4500</v>
       </c>
       <c r="E25" s="25" t="n">
-        <v>14854.5</v>
+        <v>14823</v>
       </c>
       <c r="F25" s="25" t="n">
-        <v>2002.5</v>
+        <v>1971</v>
       </c>
       <c r="G25" s="26" t="inlineStr">
         <is>
@@ -1661,10 +1661,10 @@
         <v>9200</v>
       </c>
       <c r="E26" s="25" t="n">
-        <v>15226</v>
+        <v>15180</v>
       </c>
       <c r="F26" s="25" t="n">
-        <v>2355.2</v>
+        <v>2309.2</v>
       </c>
       <c r="G26" s="26" t="inlineStr">
         <is>
@@ -1708,10 +1708,10 @@
         <v>14400</v>
       </c>
       <c r="E27" s="25" t="n">
-        <v>20606.4</v>
+        <v>20361.6</v>
       </c>
       <c r="F27" s="25" t="n">
-        <v>2304</v>
+        <v>2059.2</v>
       </c>
       <c r="G27" s="26" t="inlineStr">
         <is>
@@ -2125,16 +2125,16 @@
         <v>502010</v>
       </c>
       <c r="C36" s="29" t="n">
-        <v>0.9898</v>
+        <v>0.9853</v>
       </c>
       <c r="D36" s="30" t="n">
-        <v>377.37</v>
+        <v>473.85</v>
       </c>
       <c r="E36" s="30" t="n">
-        <v>364.88</v>
+        <v>458.17</v>
       </c>
       <c r="F36" s="30" t="n">
-        <v>-8.640000000000001</v>
+        <v>-8.73</v>
       </c>
       <c r="G36" s="31" t="inlineStr">
         <is>
@@ -3726,13 +3726,13 @@
         <v>1</v>
       </c>
       <c r="D70" s="5" t="n">
-        <v>152413.55</v>
+        <v>160436.86</v>
       </c>
       <c r="E70" s="5" t="n">
-        <v>152413.55</v>
+        <v>160436.86</v>
       </c>
       <c r="F70" s="5" t="n">
-        <v>5051.51</v>
+        <v>5063.27</v>
       </c>
       <c r="G70" s="6" t="inlineStr">
         <is>
@@ -3773,13 +3773,13 @@
         <v>1</v>
       </c>
       <c r="D71" s="5" t="n">
-        <v>627273.3</v>
+        <v>626367.55</v>
       </c>
       <c r="E71" s="5" t="n">
-        <v>627273.3</v>
+        <v>626367.55</v>
       </c>
       <c r="F71" s="5" t="n">
-        <v>29470.81</v>
+        <v>29519.02</v>
       </c>
       <c r="G71" s="6" t="inlineStr">
         <is>
@@ -6064,6 +6064,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Portfolio/scripts/output/201911/全家/全家整体资产配置.xlsx
+++ b/Portfolio/scripts/output/201911/全家/全家整体资产配置.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="资产配置情况" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="000000"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt formatCode="000000" numFmtId="164"/>
+    <numFmt formatCode="0.0000" numFmtId="165"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -87,67 +87,67 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="37">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -448,16 +448,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="29.25" customWidth="1" min="1" max="1"/>
-    <col width="9" customWidth="1" min="2" max="2"/>
-    <col width="9" customWidth="1" min="3" max="3"/>
-    <col width="9" customWidth="1" min="4" max="4"/>
-    <col width="9" customWidth="1" min="5" max="5"/>
-    <col width="9" customWidth="1" min="6" max="6"/>
-    <col width="9" customWidth="1" min="7" max="7"/>
-    <col width="13.5" customWidth="1" min="8" max="8"/>
-    <col width="11.25" customWidth="1" min="9" max="9"/>
-    <col width="15" customWidth="1" min="11" max="11"/>
+    <col customWidth="1" max="1" min="1" width="29.25"/>
+    <col customWidth="1" max="2" min="2" width="9"/>
+    <col customWidth="1" max="3" min="3" width="9"/>
+    <col customWidth="1" max="4" min="4" width="9"/>
+    <col customWidth="1" max="5" min="5" width="9"/>
+    <col customWidth="1" max="6" min="6" width="9"/>
+    <col customWidth="1" max="7" min="7" width="9"/>
+    <col customWidth="1" max="8" min="8" width="13.5"/>
+    <col customWidth="1" max="9" min="9" width="11.25"/>
+    <col customWidth="1" max="11" min="11" width="15"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -530,13 +530,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>148153.22</v>
+        <v>148201.27</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>148153.22</v>
+        <v>148201.27</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>5695.51</v>
+        <v>5748.69</v>
       </c>
       <c r="G2" s="6" t="inlineStr">
         <is>
@@ -627,10 +627,10 @@
         <v>2211.21</v>
       </c>
       <c r="E4" s="10" t="n">
-        <v>3562.26</v>
+        <v>3546.78</v>
       </c>
       <c r="F4" s="10" t="n">
-        <v>-93.93000000000001</v>
+        <v>-109.41</v>
       </c>
       <c r="G4" s="11" t="inlineStr">
         <is>
@@ -674,10 +674,10 @@
         <v>2462.53</v>
       </c>
       <c r="E5" s="10" t="n">
-        <v>3526.34</v>
+        <v>3499.26</v>
       </c>
       <c r="F5" s="10" t="n">
-        <v>15.2</v>
+        <v>-11.88</v>
       </c>
       <c r="G5" s="11" t="inlineStr">
         <is>
@@ -721,10 +721,10 @@
         <v>2260.14</v>
       </c>
       <c r="E6" s="10" t="n">
-        <v>3297.09</v>
+        <v>3269.52</v>
       </c>
       <c r="F6" s="10" t="n">
-        <v>250.15</v>
+        <v>222.58</v>
       </c>
       <c r="G6" s="11" t="inlineStr">
         <is>
@@ -768,10 +768,10 @@
         <v>3272.2</v>
       </c>
       <c r="E7" s="10" t="n">
-        <v>3003.23</v>
+        <v>2985.56</v>
       </c>
       <c r="F7" s="10" t="n">
-        <v>-54.33</v>
+        <v>-72</v>
       </c>
       <c r="G7" s="11" t="inlineStr">
         <is>
@@ -815,10 +815,10 @@
         <v>1266.95</v>
       </c>
       <c r="E8" s="10" t="n">
-        <v>2340.18</v>
+        <v>2311.93</v>
       </c>
       <c r="F8" s="10" t="n">
-        <v>67.09999999999999</v>
+        <v>38.85</v>
       </c>
       <c r="G8" s="11" t="inlineStr">
         <is>
@@ -862,10 +862,10 @@
         <v>930.7</v>
       </c>
       <c r="E9" s="10" t="n">
-        <v>1998.03</v>
+        <v>1973.83</v>
       </c>
       <c r="F9" s="10" t="n">
-        <v>25.27</v>
+        <v>1.07</v>
       </c>
       <c r="G9" s="11" t="inlineStr">
         <is>
@@ -909,10 +909,10 @@
         <v>797.84</v>
       </c>
       <c r="E10" s="10" t="n">
-        <v>778.77</v>
+        <v>762.58</v>
       </c>
       <c r="F10" s="10" t="n">
-        <v>12.2</v>
+        <v>-3.99</v>
       </c>
       <c r="G10" s="11" t="inlineStr">
         <is>
@@ -956,10 +956,10 @@
         <v>550.4</v>
       </c>
       <c r="E11" s="10" t="n">
-        <v>513.08</v>
+        <v>512.48</v>
       </c>
       <c r="F11" s="10" t="n">
-        <v>-27.81</v>
+        <v>-28.41</v>
       </c>
       <c r="G11" s="11" t="inlineStr">
         <is>
@@ -1003,10 +1003,10 @@
         <v>531.87</v>
       </c>
       <c r="E12" s="10" t="n">
-        <v>432.2</v>
+        <v>415.39</v>
       </c>
       <c r="F12" s="10" t="n">
-        <v>75.42</v>
+        <v>58.61</v>
       </c>
       <c r="G12" s="11" t="inlineStr">
         <is>
@@ -1050,10 +1050,10 @@
         <v>247.91</v>
       </c>
       <c r="E13" s="10" t="n">
-        <v>329.72</v>
+        <v>325.75</v>
       </c>
       <c r="F13" s="10" t="n">
-        <v>16.46</v>
+        <v>12.49</v>
       </c>
       <c r="G13" s="11" t="inlineStr">
         <is>
@@ -1097,10 +1097,10 @@
         <v>60.61</v>
       </c>
       <c r="E14" s="10" t="n">
-        <v>87.38</v>
+        <v>86.81</v>
       </c>
       <c r="F14" s="10" t="n">
-        <v>-5.33</v>
+        <v>-5.9</v>
       </c>
       <c r="G14" s="11" t="inlineStr">
         <is>
@@ -1285,10 +1285,10 @@
         <v>16731.88</v>
       </c>
       <c r="E18" s="20" t="n">
-        <v>9016.809999999999</v>
+        <v>9011.790000000001</v>
       </c>
       <c r="F18" s="20" t="n">
-        <v>-2983.19</v>
+        <v>-2988.21</v>
       </c>
       <c r="G18" s="21" t="inlineStr">
         <is>
@@ -1332,10 +1332,10 @@
         <v>2700</v>
       </c>
       <c r="E19" s="25" t="n">
-        <v>8086.5</v>
+        <v>8010.9</v>
       </c>
       <c r="F19" s="25" t="n">
-        <v>1776.6</v>
+        <v>1701</v>
       </c>
       <c r="G19" s="26" t="inlineStr">
         <is>
@@ -1379,10 +1379,10 @@
         <v>9100</v>
       </c>
       <c r="E20" s="25" t="n">
-        <v>35945</v>
+        <v>35562.8</v>
       </c>
       <c r="F20" s="25" t="n">
-        <v>4577.3</v>
+        <v>4195.1</v>
       </c>
       <c r="G20" s="26" t="inlineStr">
         <is>
@@ -1426,10 +1426,10 @@
         <v>38800</v>
       </c>
       <c r="E21" s="25" t="n">
-        <v>207386</v>
+        <v>205252</v>
       </c>
       <c r="F21" s="25" t="n">
-        <v>-9932.799999999999</v>
+        <v>-12066.8</v>
       </c>
       <c r="G21" s="26" t="inlineStr">
         <is>
@@ -1473,10 +1473,10 @@
         <v>33800</v>
       </c>
       <c r="E22" s="25" t="n">
-        <v>24200.8</v>
+        <v>24167</v>
       </c>
       <c r="F22" s="25" t="n">
-        <v>-5441.8</v>
+        <v>-5475.6</v>
       </c>
       <c r="G22" s="26" t="inlineStr">
         <is>
@@ -1520,10 +1520,10 @@
         <v>32700</v>
       </c>
       <c r="E23" s="25" t="n">
-        <v>29430</v>
+        <v>29397.3</v>
       </c>
       <c r="F23" s="25" t="n">
-        <v>3825.9</v>
+        <v>3793.2</v>
       </c>
       <c r="G23" s="26" t="inlineStr">
         <is>
@@ -1567,10 +1567,10 @@
         <v>34100</v>
       </c>
       <c r="E24" s="25" t="n">
-        <v>26188.8</v>
+        <v>26052.4</v>
       </c>
       <c r="F24" s="25" t="n">
-        <v>-3444.1</v>
+        <v>-3580.5</v>
       </c>
       <c r="G24" s="26" t="inlineStr">
         <is>
@@ -1614,10 +1614,10 @@
         <v>4500</v>
       </c>
       <c r="E25" s="25" t="n">
-        <v>14823</v>
+        <v>14791.5</v>
       </c>
       <c r="F25" s="25" t="n">
-        <v>1971</v>
+        <v>1939.5</v>
       </c>
       <c r="G25" s="26" t="inlineStr">
         <is>
@@ -1661,10 +1661,10 @@
         <v>9200</v>
       </c>
       <c r="E26" s="25" t="n">
-        <v>15180</v>
+        <v>14848.8</v>
       </c>
       <c r="F26" s="25" t="n">
-        <v>2309.2</v>
+        <v>1978</v>
       </c>
       <c r="G26" s="26" t="inlineStr">
         <is>
@@ -1708,10 +1708,10 @@
         <v>14400</v>
       </c>
       <c r="E27" s="25" t="n">
-        <v>20361.6</v>
+        <v>19713.6</v>
       </c>
       <c r="F27" s="25" t="n">
-        <v>2059.2</v>
+        <v>1411.2</v>
       </c>
       <c r="G27" s="26" t="inlineStr">
         <is>
@@ -1755,10 +1755,10 @@
         <v>3813.64</v>
       </c>
       <c r="E28" s="30" t="n">
-        <v>7443.84</v>
+        <v>7382.44</v>
       </c>
       <c r="F28" s="30" t="n">
-        <v>106.84</v>
+        <v>45.44</v>
       </c>
       <c r="G28" s="31" t="inlineStr">
         <is>
@@ -1802,10 +1802,10 @@
         <v>9722</v>
       </c>
       <c r="E29" s="30" t="n">
-        <v>5239.19</v>
+        <v>5236.27</v>
       </c>
       <c r="F29" s="30" t="n">
-        <v>-96.81</v>
+        <v>-99.73</v>
       </c>
       <c r="G29" s="31" t="inlineStr">
         <is>
@@ -1849,10 +1849,10 @@
         <v>4943.96</v>
       </c>
       <c r="E30" s="30" t="n">
-        <v>4825.8</v>
+        <v>4725.44</v>
       </c>
       <c r="F30" s="30" t="n">
-        <v>156.8</v>
+        <v>56.44</v>
       </c>
       <c r="G30" s="31" t="inlineStr">
         <is>
@@ -1896,10 +1896,10 @@
         <v>7379.54</v>
       </c>
       <c r="E31" s="30" t="n">
-        <v>4058.75</v>
+        <v>4021.85</v>
       </c>
       <c r="F31" s="30" t="n">
-        <v>56.75</v>
+        <v>19.85</v>
       </c>
       <c r="G31" s="31" t="inlineStr">
         <is>
@@ -1943,10 +1943,10 @@
         <v>3665.01</v>
       </c>
       <c r="E32" s="30" t="n">
-        <v>4013.19</v>
+        <v>3991.2</v>
       </c>
       <c r="F32" s="30" t="n">
-        <v>11.19</v>
+        <v>-10.8</v>
       </c>
       <c r="G32" s="31" t="inlineStr">
         <is>
@@ -1990,10 +1990,10 @@
         <v>4550.55</v>
       </c>
       <c r="E33" s="30" t="n">
-        <v>3516.21</v>
+        <v>3477.99</v>
       </c>
       <c r="F33" s="30" t="n">
-        <v>181.21</v>
+        <v>142.99</v>
       </c>
       <c r="G33" s="31" t="inlineStr">
         <is>
@@ -2037,10 +2037,10 @@
         <v>400.63</v>
       </c>
       <c r="E34" s="30" t="n">
-        <v>712.6</v>
+        <v>696.98</v>
       </c>
       <c r="F34" s="30" t="n">
-        <v>45.6</v>
+        <v>29.98</v>
       </c>
       <c r="G34" s="31" t="inlineStr">
         <is>
@@ -2084,10 +2084,10 @@
         <v>736.3</v>
       </c>
       <c r="E35" s="30" t="n">
-        <v>711.49</v>
+        <v>696.25</v>
       </c>
       <c r="F35" s="30" t="n">
-        <v>44.49</v>
+        <v>29.25</v>
       </c>
       <c r="G35" s="31" t="inlineStr">
         <is>
@@ -2131,10 +2131,10 @@
         <v>473.85</v>
       </c>
       <c r="E36" s="30" t="n">
-        <v>458.17</v>
+        <v>456.79</v>
       </c>
       <c r="F36" s="30" t="n">
-        <v>-8.73</v>
+        <v>-10.11</v>
       </c>
       <c r="G36" s="31" t="inlineStr">
         <is>
@@ -2178,10 +2178,10 @@
         <v>5299.96</v>
       </c>
       <c r="E37" s="30" t="n">
-        <v>1945.09</v>
+        <v>1982.18</v>
       </c>
       <c r="F37" s="30" t="n">
-        <v>-55.91</v>
+        <v>-18.81</v>
       </c>
       <c r="G37" s="31" t="inlineStr">
         <is>
@@ -2225,10 +2225,10 @@
         <v>576.8</v>
       </c>
       <c r="E38" s="30" t="n">
-        <v>736</v>
+        <v>718.12</v>
       </c>
       <c r="F38" s="30" t="n">
-        <v>69</v>
+        <v>51.12</v>
       </c>
       <c r="G38" s="31" t="inlineStr">
         <is>
@@ -2272,10 +2272,10 @@
         <v>459.67</v>
       </c>
       <c r="E39" s="30" t="n">
-        <v>690.15</v>
+        <v>685.46</v>
       </c>
       <c r="F39" s="30" t="n">
-        <v>23.15</v>
+        <v>18.46</v>
       </c>
       <c r="G39" s="31" t="inlineStr">
         <is>
@@ -2319,10 +2319,10 @@
         <v>611.75</v>
       </c>
       <c r="E40" s="30" t="n">
-        <v>737.16</v>
+        <v>734.71</v>
       </c>
       <c r="F40" s="30" t="n">
-        <v>70.16</v>
+        <v>67.70999999999999</v>
       </c>
       <c r="G40" s="31" t="inlineStr">
         <is>
@@ -2366,10 +2366,10 @@
         <v>1046.73</v>
       </c>
       <c r="E41" s="30" t="n">
-        <v>2043.11</v>
+        <v>2026.26</v>
       </c>
       <c r="F41" s="30" t="n">
-        <v>43.11</v>
+        <v>26.26</v>
       </c>
       <c r="G41" s="31" t="inlineStr">
         <is>
@@ -2413,10 +2413,10 @@
         <v>1825.9</v>
       </c>
       <c r="E42" s="30" t="n">
-        <v>1999.36</v>
+        <v>1988.41</v>
       </c>
       <c r="F42" s="30" t="n">
-        <v>-0.64</v>
+        <v>-11.59</v>
       </c>
       <c r="G42" s="31" t="inlineStr">
         <is>
@@ -2460,10 +2460,10 @@
         <v>1059.17</v>
       </c>
       <c r="E43" s="30" t="n">
-        <v>1076.12</v>
+        <v>1060.23</v>
       </c>
       <c r="F43" s="30" t="n">
-        <v>76.12</v>
+        <v>60.23</v>
       </c>
       <c r="G43" s="31" t="inlineStr">
         <is>
@@ -2507,10 +2507,10 @@
         <v>1812.7</v>
       </c>
       <c r="E44" s="30" t="n">
-        <v>996.99</v>
+        <v>987.92</v>
       </c>
       <c r="F44" s="30" t="n">
-        <v>-3.02</v>
+        <v>-12.08</v>
       </c>
       <c r="G44" s="31" t="inlineStr">
         <is>
@@ -2554,10 +2554,10 @@
         <v>1227.03</v>
       </c>
       <c r="E45" s="30" t="n">
-        <v>948.13</v>
+        <v>937.8200000000001</v>
       </c>
       <c r="F45" s="30" t="n">
-        <v>-51.87</v>
+        <v>-62.18</v>
       </c>
       <c r="G45" s="31" t="inlineStr">
         <is>
@@ -2601,10 +2601,10 @@
         <v>1834.47</v>
       </c>
       <c r="E46" s="30" t="n">
-        <v>2239.34</v>
+        <v>2240.44</v>
       </c>
       <c r="F46" s="30" t="n">
-        <v>239.34</v>
+        <v>240.44</v>
       </c>
       <c r="G46" s="31" t="inlineStr">
         <is>
@@ -2648,10 +2648,10 @@
         <v>899.8200000000001</v>
       </c>
       <c r="E47" s="30" t="n">
-        <v>1148.17</v>
+        <v>1120.28</v>
       </c>
       <c r="F47" s="30" t="n">
-        <v>148.17</v>
+        <v>120.28</v>
       </c>
       <c r="G47" s="31" t="inlineStr">
         <is>
@@ -2695,10 +2695,10 @@
         <v>689.02</v>
       </c>
       <c r="E48" s="30" t="n">
-        <v>1034.49</v>
+        <v>1027.47</v>
       </c>
       <c r="F48" s="30" t="n">
-        <v>34.49</v>
+        <v>27.47</v>
       </c>
       <c r="G48" s="31" t="inlineStr">
         <is>
@@ -2742,10 +2742,10 @@
         <v>4757.9</v>
       </c>
       <c r="E49" s="30" t="n">
-        <v>1746.15</v>
+        <v>1779.45</v>
       </c>
       <c r="F49" s="30" t="n">
-        <v>-253.85</v>
+        <v>-220.55</v>
       </c>
       <c r="G49" s="31" t="inlineStr">
         <is>
@@ -2789,10 +2789,10 @@
         <v>953.96</v>
       </c>
       <c r="E50" s="30" t="n">
-        <v>1149.52</v>
+        <v>1145.71</v>
       </c>
       <c r="F50" s="30" t="n">
-        <v>149.52</v>
+        <v>145.71</v>
       </c>
       <c r="G50" s="31" t="inlineStr">
         <is>
@@ -2836,10 +2836,10 @@
         <v>65064.33</v>
       </c>
       <c r="E51" s="35" t="n">
-        <v>71245.44</v>
+        <v>70855.05</v>
       </c>
       <c r="F51" s="35" t="n">
-        <v>4925.44</v>
+        <v>4535.05</v>
       </c>
       <c r="G51" s="36" t="inlineStr">
         <is>
@@ -2883,10 +2883,10 @@
         <v>63490</v>
       </c>
       <c r="E52" s="35" t="n">
-        <v>61972.58</v>
+        <v>60683.74</v>
       </c>
       <c r="F52" s="35" t="n">
-        <v>3772.58</v>
+        <v>2483.74</v>
       </c>
       <c r="G52" s="36" t="inlineStr">
         <is>
@@ -2930,10 +2930,10 @@
         <v>32370.29</v>
       </c>
       <c r="E53" s="35" t="n">
-        <v>37297.04</v>
+        <v>37054.27</v>
       </c>
       <c r="F53" s="35" t="n">
-        <v>5297.04</v>
+        <v>5054.27</v>
       </c>
       <c r="G53" s="36" t="inlineStr">
         <is>
@@ -2977,10 +2977,10 @@
         <v>41014.88</v>
       </c>
       <c r="E54" s="35" t="n">
-        <v>36507.34</v>
+        <v>35051.31</v>
       </c>
       <c r="F54" s="35" t="n">
-        <v>5947.34</v>
+        <v>4491.31</v>
       </c>
       <c r="G54" s="36" t="inlineStr">
         <is>
@@ -3024,10 +3024,10 @@
         <v>20086.63</v>
       </c>
       <c r="E55" s="35" t="n">
-        <v>34006.66</v>
+        <v>33765.62</v>
       </c>
       <c r="F55" s="35" t="n">
-        <v>2006.66</v>
+        <v>1765.62</v>
       </c>
       <c r="G55" s="36" t="inlineStr">
         <is>
@@ -3071,10 +3071,10 @@
         <v>20716.63</v>
       </c>
       <c r="E56" s="35" t="n">
-        <v>24963.53</v>
+        <v>24880.67</v>
       </c>
       <c r="F56" s="35" t="n">
-        <v>2363.53</v>
+        <v>2280.67</v>
       </c>
       <c r="G56" s="36" t="inlineStr">
         <is>
@@ -3118,10 +3118,10 @@
         <v>14624.61</v>
       </c>
       <c r="E57" s="35" t="n">
-        <v>23867.36</v>
+        <v>23501.74</v>
       </c>
       <c r="F57" s="35" t="n">
-        <v>4667.36</v>
+        <v>4301.74</v>
       </c>
       <c r="G57" s="36" t="inlineStr">
         <is>
@@ -3165,10 +3165,10 @@
         <v>21163.93</v>
       </c>
       <c r="E58" s="35" t="n">
-        <v>22992.49</v>
+        <v>22810.48</v>
       </c>
       <c r="F58" s="35" t="n">
-        <v>3792.49</v>
+        <v>3610.48</v>
       </c>
       <c r="G58" s="36" t="inlineStr">
         <is>
@@ -3212,10 +3212,10 @@
         <v>16778.47</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>21409.32</v>
+        <v>20889.19</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>2209.32</v>
+        <v>1689.19</v>
       </c>
       <c r="G59" s="36" t="inlineStr">
         <is>
@@ -3259,10 +3259,10 @@
         <v>9529.809999999999</v>
       </c>
       <c r="E60" s="35" t="n">
-        <v>15295.34</v>
+        <v>15133.33</v>
       </c>
       <c r="F60" s="35" t="n">
-        <v>2495.34</v>
+        <v>2333.33</v>
       </c>
       <c r="G60" s="36" t="inlineStr">
         <is>
@@ -3306,10 +3306,10 @@
         <v>37267.45</v>
       </c>
       <c r="E61" s="35" t="n">
-        <v>13677.15</v>
+        <v>13938.02</v>
       </c>
       <c r="F61" s="35" t="n">
-        <v>-5522.85</v>
+        <v>-5261.98</v>
       </c>
       <c r="G61" s="36" t="inlineStr">
         <is>
@@ -3353,10 +3353,10 @@
         <v>6798.52</v>
       </c>
       <c r="E62" s="35" t="n">
-        <v>10207.29</v>
+        <v>10137.95</v>
       </c>
       <c r="F62" s="35" t="n">
-        <v>307.29</v>
+        <v>237.95</v>
       </c>
       <c r="G62" s="36" t="inlineStr">
         <is>
@@ -3400,10 +3400,10 @@
         <v>4791.13</v>
       </c>
       <c r="E63" s="35" t="n">
-        <v>8521.98</v>
+        <v>8335.120000000001</v>
       </c>
       <c r="F63" s="35" t="n">
-        <v>2121.98</v>
+        <v>1935.12</v>
       </c>
       <c r="G63" s="36" t="inlineStr">
         <is>
@@ -3447,10 +3447,10 @@
         <v>5609.79</v>
       </c>
       <c r="E64" s="35" t="n">
-        <v>7517.11</v>
+        <v>7533.94</v>
       </c>
       <c r="F64" s="35" t="n">
-        <v>2371.99</v>
+        <v>2388.82</v>
       </c>
       <c r="G64" s="36" t="inlineStr">
         <is>
@@ -3494,10 +3494,10 @@
         <v>5328.62</v>
       </c>
       <c r="E65" s="35" t="n">
-        <v>7255.98</v>
+        <v>7232</v>
       </c>
       <c r="F65" s="35" t="n">
-        <v>855.98</v>
+        <v>832</v>
       </c>
       <c r="G65" s="36" t="inlineStr">
         <is>
@@ -3541,10 +3541,10 @@
         <v>13403.92</v>
       </c>
       <c r="E66" s="35" t="n">
-        <v>7223.37</v>
+        <v>7219.35</v>
       </c>
       <c r="F66" s="35" t="n">
-        <v>823.37</v>
+        <v>819.35</v>
       </c>
       <c r="G66" s="36" t="inlineStr">
         <is>
@@ -3588,10 +3588,10 @@
         <v>7778.64</v>
       </c>
       <c r="E67" s="35" t="n">
-        <v>6757.3</v>
+        <v>6700.52</v>
       </c>
       <c r="F67" s="35" t="n">
-        <v>-242.7</v>
+        <v>-299.48</v>
       </c>
       <c r="G67" s="36" t="inlineStr">
         <is>
@@ -3635,10 +3635,10 @@
         <v>7852.99</v>
       </c>
       <c r="E68" s="35" t="n">
-        <v>6068</v>
+        <v>6002.04</v>
       </c>
       <c r="F68" s="35" t="n">
-        <v>-332</v>
+        <v>-397.96</v>
       </c>
       <c r="G68" s="36" t="inlineStr">
         <is>
@@ -3682,10 +3682,10 @@
         <v>3580.2</v>
       </c>
       <c r="E69" s="35" t="n">
-        <v>3373.62</v>
+        <v>3327.79</v>
       </c>
       <c r="F69" s="35" t="n">
-        <v>-126.38</v>
+        <v>-172.21</v>
       </c>
       <c r="G69" s="36" t="inlineStr">
         <is>
@@ -3726,13 +3726,13 @@
         <v>1</v>
       </c>
       <c r="D70" s="5" t="n">
-        <v>160436.86</v>
+        <v>160449.17</v>
       </c>
       <c r="E70" s="5" t="n">
-        <v>160436.86</v>
+        <v>160449.17</v>
       </c>
       <c r="F70" s="5" t="n">
-        <v>5063.27</v>
+        <v>5088.18</v>
       </c>
       <c r="G70" s="6" t="inlineStr">
         <is>
@@ -3773,13 +3773,13 @@
         <v>1</v>
       </c>
       <c r="D71" s="5" t="n">
-        <v>626367.55</v>
+        <v>626414.8100000001</v>
       </c>
       <c r="E71" s="5" t="n">
-        <v>626367.55</v>
+        <v>626414.8100000001</v>
       </c>
       <c r="F71" s="5" t="n">
-        <v>29519.02</v>
+        <v>29616.07</v>
       </c>
       <c r="G71" s="6" t="inlineStr">
         <is>
@@ -3823,10 +3823,10 @@
         <v>997.72</v>
       </c>
       <c r="E72" s="10" t="n">
-        <v>1428.74</v>
+        <v>1417.76</v>
       </c>
       <c r="F72" s="10" t="n">
-        <v>6.08</v>
+        <v>-4.89</v>
       </c>
       <c r="G72" s="11" t="inlineStr">
         <is>
@@ -3870,10 +3870,10 @@
         <v>845.95</v>
       </c>
       <c r="E73" s="10" t="n">
-        <v>1362.83</v>
+        <v>1356.9</v>
       </c>
       <c r="F73" s="10" t="n">
-        <v>-35.77</v>
+        <v>-41.7</v>
       </c>
       <c r="G73" s="11" t="inlineStr">
         <is>
@@ -3917,10 +3917,10 @@
         <v>898.04</v>
       </c>
       <c r="E74" s="10" t="n">
-        <v>1310.06</v>
+        <v>1299.1</v>
       </c>
       <c r="F74" s="10" t="n">
-        <v>99.09</v>
+        <v>88.13</v>
       </c>
       <c r="G74" s="11" t="inlineStr">
         <is>
@@ -3964,10 +3964,10 @@
         <v>1288.86</v>
       </c>
       <c r="E75" s="10" t="n">
-        <v>1182.92</v>
+        <v>1175.96</v>
       </c>
       <c r="F75" s="10" t="n">
-        <v>-20.22</v>
+        <v>-27.18</v>
       </c>
       <c r="G75" s="11" t="inlineStr">
         <is>
@@ -4011,10 +4011,10 @@
         <v>473.31</v>
       </c>
       <c r="E76" s="10" t="n">
-        <v>874.25</v>
+        <v>863.7</v>
       </c>
       <c r="F76" s="10" t="n">
-        <v>25.11</v>
+        <v>14.56</v>
       </c>
       <c r="G76" s="11" t="inlineStr">
         <is>
@@ -4058,10 +4058,10 @@
         <v>381.21</v>
       </c>
       <c r="E77" s="10" t="n">
-        <v>818.38</v>
+        <v>808.47</v>
       </c>
       <c r="F77" s="10" t="n">
-        <v>10.69</v>
+        <v>0.78</v>
       </c>
       <c r="G77" s="11" t="inlineStr">
         <is>
@@ -4105,10 +4105,10 @@
         <v>336.9</v>
       </c>
       <c r="E78" s="10" t="n">
-        <v>328.85</v>
+        <v>322.01</v>
       </c>
       <c r="F78" s="10" t="n">
-        <v>5.09</v>
+        <v>-1.75</v>
       </c>
       <c r="G78" s="11" t="inlineStr">
         <is>
@@ -4152,10 +4152,10 @@
         <v>214.89</v>
       </c>
       <c r="E79" s="10" t="n">
-        <v>200.32</v>
+        <v>200.08</v>
       </c>
       <c r="F79" s="10" t="n">
-        <v>-10.9</v>
+        <v>-11.14</v>
       </c>
       <c r="G79" s="11" t="inlineStr">
         <is>
@@ -4199,10 +4199,10 @@
         <v>212.74</v>
       </c>
       <c r="E80" s="10" t="n">
-        <v>172.87</v>
+        <v>166.15</v>
       </c>
       <c r="F80" s="10" t="n">
-        <v>30.17</v>
+        <v>23.45</v>
       </c>
       <c r="G80" s="11" t="inlineStr">
         <is>
@@ -4246,10 +4246,10 @@
         <v>62.09</v>
       </c>
       <c r="E81" s="10" t="n">
-        <v>82.58</v>
+        <v>81.59</v>
       </c>
       <c r="F81" s="10" t="n">
-        <v>2.54</v>
+        <v>1.55</v>
       </c>
       <c r="G81" s="11" t="inlineStr">
         <is>
@@ -4293,10 +4293,10 @@
         <v>24.24</v>
       </c>
       <c r="E82" s="10" t="n">
-        <v>34.95</v>
+        <v>34.72</v>
       </c>
       <c r="F82" s="10" t="n">
-        <v>-2.13</v>
+        <v>-2.36</v>
       </c>
       <c r="G82" s="11" t="inlineStr">
         <is>
@@ -4387,10 +4387,10 @@
         <v>890.02</v>
       </c>
       <c r="E84" s="10" t="n">
-        <v>1433.82</v>
+        <v>1427.59</v>
       </c>
       <c r="F84" s="10" t="n">
-        <v>-42.95</v>
+        <v>-49.18</v>
       </c>
       <c r="G84" s="11" t="inlineStr">
         <is>
@@ -4434,10 +4434,10 @@
         <v>962.45</v>
       </c>
       <c r="E85" s="10" t="n">
-        <v>1378.23</v>
+        <v>1367.64</v>
       </c>
       <c r="F85" s="10" t="n">
-        <v>7.82</v>
+        <v>-2.77</v>
       </c>
       <c r="G85" s="11" t="inlineStr">
         <is>
@@ -4481,10 +4481,10 @@
         <v>915.97</v>
       </c>
       <c r="E86" s="10" t="n">
-        <v>1336.22</v>
+        <v>1325.04</v>
       </c>
       <c r="F86" s="10" t="n">
-        <v>98.38</v>
+        <v>87.2</v>
       </c>
       <c r="G86" s="11" t="inlineStr">
         <is>
@@ -4528,10 +4528,10 @@
         <v>1272.96</v>
       </c>
       <c r="E87" s="10" t="n">
-        <v>1168.32</v>
+        <v>1161.45</v>
       </c>
       <c r="F87" s="10" t="n">
-        <v>-21.65</v>
+        <v>-28.52</v>
       </c>
       <c r="G87" s="11" t="inlineStr">
         <is>
@@ -4575,10 +4575,10 @@
         <v>490.43</v>
       </c>
       <c r="E88" s="10" t="n">
-        <v>905.87</v>
+        <v>894.9400000000001</v>
       </c>
       <c r="F88" s="10" t="n">
-        <v>25.8</v>
+        <v>14.87</v>
       </c>
       <c r="G88" s="11" t="inlineStr">
         <is>
@@ -4622,10 +4622,10 @@
         <v>355.38</v>
       </c>
       <c r="E89" s="10" t="n">
-        <v>762.9299999999999</v>
+        <v>753.6900000000001</v>
       </c>
       <c r="F89" s="10" t="n">
-        <v>10.07</v>
+        <v>0.83</v>
       </c>
       <c r="G89" s="11" t="inlineStr">
         <is>
@@ -4669,10 +4669,10 @@
         <v>319.14</v>
       </c>
       <c r="E90" s="10" t="n">
-        <v>311.51</v>
+        <v>305.03</v>
       </c>
       <c r="F90" s="10" t="n">
-        <v>4.89</v>
+        <v>-1.59</v>
       </c>
       <c r="G90" s="11" t="inlineStr">
         <is>
@@ -4716,10 +4716,10 @@
         <v>227.52</v>
       </c>
       <c r="E91" s="10" t="n">
-        <v>212.09</v>
+        <v>211.84</v>
       </c>
       <c r="F91" s="10" t="n">
-        <v>-11.42</v>
+        <v>-11.67</v>
       </c>
       <c r="G91" s="11" t="inlineStr">
         <is>
@@ -4763,10 +4763,10 @@
         <v>142.1</v>
       </c>
       <c r="E92" s="10" t="n">
-        <v>188.99</v>
+        <v>186.72</v>
       </c>
       <c r="F92" s="10" t="n">
-        <v>6.54</v>
+        <v>4.27</v>
       </c>
       <c r="G92" s="11" t="inlineStr">
         <is>
@@ -4810,10 +4810,10 @@
         <v>212.74</v>
       </c>
       <c r="E93" s="10" t="n">
-        <v>172.87</v>
+        <v>166.15</v>
       </c>
       <c r="F93" s="10" t="n">
-        <v>30.17</v>
+        <v>23.45</v>
       </c>
       <c r="G93" s="11" t="inlineStr">
         <is>
@@ -4857,10 +4857,10 @@
         <v>24.24</v>
       </c>
       <c r="E94" s="10" t="n">
-        <v>34.95</v>
+        <v>34.72</v>
       </c>
       <c r="F94" s="10" t="n">
-        <v>-2.13</v>
+        <v>-2.36</v>
       </c>
       <c r="G94" s="11" t="inlineStr">
         <is>
@@ -4951,10 +4951,10 @@
         <v>9697.57</v>
       </c>
       <c r="E96" s="35" t="n">
-        <v>10544.16</v>
+        <v>10454.95</v>
       </c>
       <c r="F96" s="35" t="n">
-        <v>344.16</v>
+        <v>254.95</v>
       </c>
       <c r="G96" s="36" t="inlineStr">
         <is>
@@ -4998,10 +4998,10 @@
         <v>8677.6</v>
       </c>
       <c r="E97" s="35" t="n">
-        <v>9501.969999999999</v>
+        <v>9449.9</v>
       </c>
       <c r="F97" s="35" t="n">
-        <v>701.97</v>
+        <v>649.9</v>
       </c>
       <c r="G97" s="36" t="inlineStr">
         <is>
@@ -5032,23 +5032,23 @@
     <row r="98">
       <c r="A98" s="32" t="inlineStr">
         <is>
-          <t>广发医药卫生联接A</t>
+          <t>广发养老指数A</t>
         </is>
       </c>
       <c r="B98" s="33" t="n">
-        <v>1180</v>
+        <v>968</v>
       </c>
       <c r="C98" s="34" t="n">
-        <v>0.7111</v>
+        <v>0.853</v>
       </c>
       <c r="D98" s="35" t="n">
-        <v>6750.28</v>
+        <v>6096.21</v>
       </c>
       <c r="E98" s="35" t="n">
-        <v>6008.42</v>
+        <v>5826.75</v>
       </c>
       <c r="F98" s="35" t="n">
-        <v>1208.42</v>
+        <v>626.75</v>
       </c>
       <c r="G98" s="36" t="inlineStr">
         <is>
@@ -5062,12 +5062,12 @@
       </c>
       <c r="I98" s="36" t="inlineStr">
         <is>
-          <t>全指医药</t>
+          <t>养老产业</t>
         </is>
       </c>
       <c r="J98" s="36" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>141</t>
         </is>
       </c>
       <c r="K98" s="36" t="inlineStr">
@@ -5079,23 +5079,23 @@
     <row r="99">
       <c r="A99" s="32" t="inlineStr">
         <is>
-          <t>广发养老指数A</t>
+          <t>广发医药卫生联接A</t>
         </is>
       </c>
       <c r="B99" s="33" t="n">
-        <v>968</v>
+        <v>1180</v>
       </c>
       <c r="C99" s="34" t="n">
-        <v>0.853</v>
+        <v>0.7111</v>
       </c>
       <c r="D99" s="35" t="n">
-        <v>6096.21</v>
+        <v>6750.28</v>
       </c>
       <c r="E99" s="35" t="n">
-        <v>5950.51</v>
+        <v>5768.78</v>
       </c>
       <c r="F99" s="35" t="n">
-        <v>750.51</v>
+        <v>968.78</v>
       </c>
       <c r="G99" s="36" t="inlineStr">
         <is>
@@ -5109,12 +5109,12 @@
       </c>
       <c r="I99" s="36" t="inlineStr">
         <is>
-          <t>养老产业</t>
+          <t>全指医药</t>
         </is>
       </c>
       <c r="J99" s="36" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>142</t>
         </is>
       </c>
       <c r="K99" s="36" t="inlineStr">
@@ -5139,10 +5139,10 @@
         <v>2760.12</v>
       </c>
       <c r="E100" s="35" t="n">
-        <v>4504.51</v>
+        <v>4435.51</v>
       </c>
       <c r="F100" s="35" t="n">
-        <v>904.51</v>
+        <v>835.51</v>
       </c>
       <c r="G100" s="36" t="inlineStr">
         <is>
@@ -5186,10 +5186,10 @@
         <v>4423.48</v>
       </c>
       <c r="E101" s="35" t="n">
-        <v>3418.02</v>
+        <v>3380.86</v>
       </c>
       <c r="F101" s="35" t="n">
-        <v>218.02</v>
+        <v>180.86</v>
       </c>
       <c r="G101" s="36" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>2046.97</v>
       </c>
       <c r="E102" s="35" t="n">
-        <v>3285.38</v>
+        <v>3250.58</v>
       </c>
       <c r="F102" s="35" t="n">
-        <v>573.27</v>
+        <v>538.47</v>
       </c>
       <c r="G102" s="36" t="inlineStr">
         <is>
@@ -5280,10 +5280,10 @@
         <v>5949.77</v>
       </c>
       <c r="E103" s="35" t="n">
-        <v>3206.33</v>
+        <v>3204.54</v>
       </c>
       <c r="F103" s="35" t="n">
-        <v>6.33</v>
+        <v>4.54</v>
       </c>
       <c r="G103" s="36" t="inlineStr">
         <is>
@@ -5327,10 +5327,10 @@
         <v>1743.65</v>
       </c>
       <c r="E104" s="35" t="n">
-        <v>2951.99</v>
+        <v>2931.07</v>
       </c>
       <c r="F104" s="35" t="n">
-        <v>160.99</v>
+        <v>140.07</v>
       </c>
       <c r="G104" s="36" t="inlineStr">
         <is>
@@ -5374,10 +5374,10 @@
         <v>1884.74</v>
       </c>
       <c r="E105" s="35" t="n">
-        <v>2271.11</v>
+        <v>2263.57</v>
       </c>
       <c r="F105" s="35" t="n">
-        <v>271.11</v>
+        <v>263.57</v>
       </c>
       <c r="G105" s="36" t="inlineStr">
         <is>
@@ -5421,10 +5421,10 @@
         <v>1213.09</v>
       </c>
       <c r="E106" s="35" t="n">
-        <v>2157.72</v>
+        <v>2110.41</v>
       </c>
       <c r="F106" s="35" t="n">
-        <v>557.72</v>
+        <v>510.41</v>
       </c>
       <c r="G106" s="36" t="inlineStr">
         <is>
@@ -5468,10 +5468,10 @@
         <v>1630.08</v>
       </c>
       <c r="E107" s="35" t="n">
-        <v>1878.17</v>
+        <v>1865.95</v>
       </c>
       <c r="F107" s="35" t="n">
-        <v>278.17</v>
+        <v>265.95</v>
       </c>
       <c r="G107" s="36" t="inlineStr">
         <is>
@@ -5515,10 +5515,10 @@
         <v>1407.29</v>
       </c>
       <c r="E108" s="35" t="n">
-        <v>1795.7</v>
+        <v>1752.07</v>
       </c>
       <c r="F108" s="35" t="n">
-        <v>195.7</v>
+        <v>152.07</v>
       </c>
       <c r="G108" s="36" t="inlineStr">
         <is>
@@ -5562,10 +5562,10 @@
         <v>1338.46</v>
       </c>
       <c r="E109" s="35" t="n">
-        <v>1359.87</v>
+        <v>1339.79</v>
       </c>
       <c r="F109" s="35" t="n">
-        <v>159.87</v>
+        <v>139.79</v>
       </c>
       <c r="G109" s="36" t="inlineStr">
         <is>
@@ -5609,10 +5609,10 @@
         <v>3350.7</v>
       </c>
       <c r="E110" s="35" t="n">
-        <v>1229.7</v>
+        <v>1253.16</v>
       </c>
       <c r="F110" s="35" t="n">
-        <v>-370.3</v>
+        <v>-346.84</v>
       </c>
       <c r="G110" s="36" t="inlineStr">
         <is>
@@ -5656,10 +5656,10 @@
         <v>1495.03</v>
       </c>
       <c r="E111" s="35" t="n">
-        <v>1206.33</v>
+        <v>1190.19</v>
       </c>
       <c r="F111" s="35" t="n">
-        <v>6.33</v>
+        <v>-9.81</v>
       </c>
       <c r="G111" s="36" t="inlineStr">
         <is>
@@ -5703,10 +5703,10 @@
         <v>900.35</v>
       </c>
       <c r="E112" s="35" t="n">
-        <v>978.14</v>
+        <v>970.39</v>
       </c>
       <c r="F112" s="35" t="n">
-        <v>178.14</v>
+        <v>170.39</v>
       </c>
       <c r="G112" s="36" t="inlineStr">
         <is>
@@ -5750,10 +5750,10 @@
         <v>733.79</v>
       </c>
       <c r="E113" s="35" t="n">
-        <v>895.73</v>
+        <v>896.17</v>
       </c>
       <c r="F113" s="35" t="n">
-        <v>95.73</v>
+        <v>96.17</v>
       </c>
       <c r="G113" s="36" t="inlineStr">
         <is>
@@ -5797,10 +5797,10 @@
         <v>496.13</v>
       </c>
       <c r="E114" s="35" t="n">
-        <v>479.7</v>
+        <v>478.26</v>
       </c>
       <c r="F114" s="35" t="n">
-        <v>79.7</v>
+        <v>78.26000000000001</v>
       </c>
       <c r="G114" s="36" t="inlineStr">
         <is>
@@ -5844,10 +5844,10 @@
         <v>492.57</v>
       </c>
       <c r="E115" s="35" t="n">
-        <v>475.97</v>
+        <v>465.77</v>
       </c>
       <c r="F115" s="35" t="n">
-        <v>75.97</v>
+        <v>65.77</v>
       </c>
       <c r="G115" s="36" t="inlineStr">
         <is>
@@ -5891,10 +5891,10 @@
         <v>333.04</v>
       </c>
       <c r="E116" s="35" t="n">
-        <v>453.5</v>
+        <v>452</v>
       </c>
       <c r="F116" s="35" t="n">
-        <v>53.5</v>
+        <v>52</v>
       </c>
       <c r="G116" s="36" t="inlineStr">
         <is>
@@ -5938,10 +5938,10 @@
         <v>325.61</v>
       </c>
       <c r="E117" s="35" t="n">
-        <v>426.22</v>
+        <v>420.36</v>
       </c>
       <c r="F117" s="35" t="n">
-        <v>26.22</v>
+        <v>20.36</v>
       </c>
       <c r="G117" s="36" t="inlineStr">
         <is>
@@ -5985,10 +5985,10 @@
         <v>275.49</v>
       </c>
       <c r="E118" s="35" t="n">
-        <v>413.62</v>
+        <v>410.81</v>
       </c>
       <c r="F118" s="35" t="n">
-        <v>13.62</v>
+        <v>10.81</v>
       </c>
       <c r="G118" s="36" t="inlineStr">
         <is>
@@ -6032,10 +6032,10 @@
         <v>275.96</v>
       </c>
       <c r="E119" s="35" t="n">
-        <v>239.72</v>
+        <v>237.71</v>
       </c>
       <c r="F119" s="35" t="n">
-        <v>10.96</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="G119" s="36" t="inlineStr">
         <is>
@@ -6064,6 +6064,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Portfolio/scripts/output/201911/全家/全家整体资产配置.xlsx
+++ b/Portfolio/scripts/output/201911/全家/全家整体资产配置.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K119"/>
+  <dimension ref="A1:K118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -530,13 +530,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>148201.27</v>
+        <v>129771.83</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>148201.27</v>
+        <v>129771.83</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>5748.69</v>
+        <v>5795.69</v>
       </c>
       <c r="G2" s="6" t="inlineStr">
         <is>
@@ -621,16 +621,16 @@
         <v>90010</v>
       </c>
       <c r="C4" s="9" t="n">
-        <v>1.6535</v>
+        <v>1.6525</v>
       </c>
       <c r="D4" s="10" t="n">
-        <v>2211.21</v>
+        <v>2280.92</v>
       </c>
       <c r="E4" s="10" t="n">
-        <v>3546.78</v>
+        <v>3667.72</v>
       </c>
       <c r="F4" s="10" t="n">
-        <v>-109.41</v>
+        <v>-101.61</v>
       </c>
       <c r="G4" s="11" t="inlineStr">
         <is>
@@ -668,16 +668,16 @@
         <v>519671</v>
       </c>
       <c r="C5" s="9" t="n">
-        <v>1.4258</v>
+        <v>1.4264</v>
       </c>
       <c r="D5" s="10" t="n">
-        <v>2462.53</v>
+        <v>2540.22</v>
       </c>
       <c r="E5" s="10" t="n">
-        <v>3499.26</v>
+        <v>3632.51</v>
       </c>
       <c r="F5" s="10" t="n">
-        <v>-11.88</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="G5" s="11" t="inlineStr">
         <is>
@@ -721,10 +721,10 @@
         <v>2260.14</v>
       </c>
       <c r="E6" s="10" t="n">
-        <v>3269.52</v>
+        <v>3301.61</v>
       </c>
       <c r="F6" s="10" t="n">
-        <v>222.58</v>
+        <v>254.67</v>
       </c>
       <c r="G6" s="11" t="inlineStr">
         <is>
@@ -762,16 +762,16 @@
         <v>3318</v>
       </c>
       <c r="C7" s="9" t="n">
-        <v>0.9344</v>
+        <v>0.9336</v>
       </c>
       <c r="D7" s="10" t="n">
-        <v>3272.2</v>
+        <v>3390.61</v>
       </c>
       <c r="E7" s="10" t="n">
-        <v>2985.56</v>
+        <v>3082.4</v>
       </c>
       <c r="F7" s="10" t="n">
-        <v>-72</v>
+        <v>-83.01000000000001</v>
       </c>
       <c r="G7" s="11" t="inlineStr">
         <is>
@@ -809,16 +809,16 @@
         <v>70023</v>
       </c>
       <c r="C8" s="9" t="n">
-        <v>1.7941</v>
+        <v>1.7965</v>
       </c>
       <c r="D8" s="10" t="n">
-        <v>1266.95</v>
+        <v>1314.93</v>
       </c>
       <c r="E8" s="10" t="n">
-        <v>2311.93</v>
+        <v>2419.47</v>
       </c>
       <c r="F8" s="10" t="n">
-        <v>38.85</v>
+        <v>57.15</v>
       </c>
       <c r="G8" s="11" t="inlineStr">
         <is>
@@ -856,16 +856,16 @@
         <v>530015</v>
       </c>
       <c r="C9" s="9" t="n">
-        <v>2.1197</v>
+        <v>2.1218</v>
       </c>
       <c r="D9" s="10" t="n">
-        <v>930.7</v>
+        <v>973.88</v>
       </c>
       <c r="E9" s="10" t="n">
-        <v>1973.83</v>
+        <v>2082.64</v>
       </c>
       <c r="F9" s="10" t="n">
-        <v>1.07</v>
+        <v>16.31</v>
       </c>
       <c r="G9" s="11" t="inlineStr">
         <is>
@@ -903,16 +903,16 @@
         <v>968</v>
       </c>
       <c r="C10" s="9" t="n">
-        <v>0.9608</v>
+        <v>0.9605</v>
       </c>
       <c r="D10" s="10" t="n">
-        <v>797.84</v>
+        <v>887.74</v>
       </c>
       <c r="E10" s="10" t="n">
-        <v>762.58</v>
+        <v>840.6</v>
       </c>
       <c r="F10" s="10" t="n">
-        <v>-3.99</v>
+        <v>-12.08</v>
       </c>
       <c r="G10" s="11" t="inlineStr">
         <is>
@@ -956,10 +956,10 @@
         <v>550.4</v>
       </c>
       <c r="E11" s="10" t="n">
-        <v>512.48</v>
+        <v>513.3</v>
       </c>
       <c r="F11" s="10" t="n">
-        <v>-28.41</v>
+        <v>-27.59</v>
       </c>
       <c r="G11" s="11" t="inlineStr">
         <is>
@@ -1003,10 +1003,10 @@
         <v>531.87</v>
       </c>
       <c r="E12" s="10" t="n">
-        <v>415.39</v>
+        <v>410.5</v>
       </c>
       <c r="F12" s="10" t="n">
-        <v>58.61</v>
+        <v>53.72</v>
       </c>
       <c r="G12" s="11" t="inlineStr">
         <is>
@@ -1050,10 +1050,10 @@
         <v>247.91</v>
       </c>
       <c r="E13" s="10" t="n">
-        <v>325.75</v>
+        <v>326.5</v>
       </c>
       <c r="F13" s="10" t="n">
-        <v>12.49</v>
+        <v>13.24</v>
       </c>
       <c r="G13" s="11" t="inlineStr">
         <is>
@@ -1097,10 +1097,10 @@
         <v>60.61</v>
       </c>
       <c r="E14" s="10" t="n">
-        <v>86.81</v>
+        <v>87.28</v>
       </c>
       <c r="F14" s="10" t="n">
-        <v>-5.9</v>
+        <v>-5.43</v>
       </c>
       <c r="G14" s="11" t="inlineStr">
         <is>
@@ -1285,10 +1285,10 @@
         <v>16731.88</v>
       </c>
       <c r="E18" s="20" t="n">
-        <v>9011.790000000001</v>
+        <v>9078.709999999999</v>
       </c>
       <c r="F18" s="20" t="n">
-        <v>-2988.21</v>
+        <v>-2921.28</v>
       </c>
       <c r="G18" s="21" t="inlineStr">
         <is>
@@ -1332,10 +1332,10 @@
         <v>2700</v>
       </c>
       <c r="E19" s="25" t="n">
-        <v>8010.9</v>
+        <v>8040.6</v>
       </c>
       <c r="F19" s="25" t="n">
-        <v>1701</v>
+        <v>1730.7</v>
       </c>
       <c r="G19" s="26" t="inlineStr">
         <is>
@@ -1379,10 +1379,10 @@
         <v>9100</v>
       </c>
       <c r="E20" s="25" t="n">
-        <v>35562.8</v>
+        <v>35763</v>
       </c>
       <c r="F20" s="25" t="n">
-        <v>4195.1</v>
+        <v>4395.3</v>
       </c>
       <c r="G20" s="26" t="inlineStr">
         <is>
@@ -1473,10 +1473,10 @@
         <v>33800</v>
       </c>
       <c r="E22" s="25" t="n">
-        <v>24167</v>
+        <v>24403.6</v>
       </c>
       <c r="F22" s="25" t="n">
-        <v>-5475.6</v>
+        <v>-5239</v>
       </c>
       <c r="G22" s="26" t="inlineStr">
         <is>
@@ -1520,10 +1520,10 @@
         <v>32700</v>
       </c>
       <c r="E23" s="25" t="n">
-        <v>29397.3</v>
+        <v>29266.5</v>
       </c>
       <c r="F23" s="25" t="n">
-        <v>3793.2</v>
+        <v>3662.4</v>
       </c>
       <c r="G23" s="26" t="inlineStr">
         <is>
@@ -1567,10 +1567,10 @@
         <v>34100</v>
       </c>
       <c r="E24" s="25" t="n">
-        <v>26052.4</v>
+        <v>25404.5</v>
       </c>
       <c r="F24" s="25" t="n">
-        <v>-3580.5</v>
+        <v>-4228.4</v>
       </c>
       <c r="G24" s="26" t="inlineStr">
         <is>
@@ -1614,10 +1614,10 @@
         <v>4500</v>
       </c>
       <c r="E25" s="25" t="n">
-        <v>14791.5</v>
+        <v>14674.5</v>
       </c>
       <c r="F25" s="25" t="n">
-        <v>1939.5</v>
+        <v>1822.5</v>
       </c>
       <c r="G25" s="26" t="inlineStr">
         <is>
@@ -1661,10 +1661,10 @@
         <v>9200</v>
       </c>
       <c r="E26" s="25" t="n">
-        <v>14848.8</v>
+        <v>14821.2</v>
       </c>
       <c r="F26" s="25" t="n">
-        <v>1978</v>
+        <v>1950.4</v>
       </c>
       <c r="G26" s="26" t="inlineStr">
         <is>
@@ -1708,10 +1708,10 @@
         <v>14400</v>
       </c>
       <c r="E27" s="25" t="n">
-        <v>19713.6</v>
+        <v>19569.6</v>
       </c>
       <c r="F27" s="25" t="n">
-        <v>1411.2</v>
+        <v>1267.2</v>
       </c>
       <c r="G27" s="26" t="inlineStr">
         <is>
@@ -1755,10 +1755,10 @@
         <v>3813.64</v>
       </c>
       <c r="E28" s="30" t="n">
-        <v>7382.44</v>
+        <v>7368.33</v>
       </c>
       <c r="F28" s="30" t="n">
-        <v>45.44</v>
+        <v>31.33</v>
       </c>
       <c r="G28" s="31" t="inlineStr">
         <is>
@@ -1802,10 +1802,10 @@
         <v>9722</v>
       </c>
       <c r="E29" s="30" t="n">
-        <v>5236.27</v>
+        <v>5275.16</v>
       </c>
       <c r="F29" s="30" t="n">
-        <v>-99.73</v>
+        <v>-60.84</v>
       </c>
       <c r="G29" s="31" t="inlineStr">
         <is>
@@ -1849,10 +1849,10 @@
         <v>4943.96</v>
       </c>
       <c r="E30" s="30" t="n">
-        <v>4725.44</v>
+        <v>4681.44</v>
       </c>
       <c r="F30" s="30" t="n">
-        <v>56.44</v>
+        <v>12.44</v>
       </c>
       <c r="G30" s="31" t="inlineStr">
         <is>
@@ -1896,10 +1896,10 @@
         <v>7379.54</v>
       </c>
       <c r="E31" s="30" t="n">
-        <v>4021.85</v>
+        <v>4014.47</v>
       </c>
       <c r="F31" s="30" t="n">
-        <v>19.85</v>
+        <v>12.47</v>
       </c>
       <c r="G31" s="31" t="inlineStr">
         <is>
@@ -1943,10 +1943,10 @@
         <v>3665.01</v>
       </c>
       <c r="E32" s="30" t="n">
-        <v>3991.2</v>
+        <v>4002.19</v>
       </c>
       <c r="F32" s="30" t="n">
-        <v>-10.8</v>
+        <v>0.19</v>
       </c>
       <c r="G32" s="31" t="inlineStr">
         <is>
@@ -1990,10 +1990,10 @@
         <v>4550.55</v>
       </c>
       <c r="E33" s="30" t="n">
-        <v>3477.99</v>
+        <v>3405.18</v>
       </c>
       <c r="F33" s="30" t="n">
-        <v>142.99</v>
+        <v>70.18000000000001</v>
       </c>
       <c r="G33" s="31" t="inlineStr">
         <is>
@@ -2037,10 +2037,10 @@
         <v>400.63</v>
       </c>
       <c r="E34" s="30" t="n">
-        <v>696.98</v>
+        <v>694.65</v>
       </c>
       <c r="F34" s="30" t="n">
-        <v>29.98</v>
+        <v>27.65</v>
       </c>
       <c r="G34" s="31" t="inlineStr">
         <is>
@@ -2084,10 +2084,10 @@
         <v>736.3</v>
       </c>
       <c r="E35" s="30" t="n">
-        <v>696.25</v>
+        <v>693.37</v>
       </c>
       <c r="F35" s="30" t="n">
-        <v>29.25</v>
+        <v>26.37</v>
       </c>
       <c r="G35" s="31" t="inlineStr">
         <is>
@@ -2131,10 +2131,10 @@
         <v>473.85</v>
       </c>
       <c r="E36" s="30" t="n">
-        <v>456.79</v>
+        <v>455.42</v>
       </c>
       <c r="F36" s="30" t="n">
-        <v>-10.11</v>
+        <v>-11.48</v>
       </c>
       <c r="G36" s="31" t="inlineStr">
         <is>
@@ -2178,10 +2178,10 @@
         <v>5299.96</v>
       </c>
       <c r="E37" s="30" t="n">
-        <v>1982.18</v>
+        <v>1976.89</v>
       </c>
       <c r="F37" s="30" t="n">
-        <v>-18.81</v>
+        <v>-24.11</v>
       </c>
       <c r="G37" s="31" t="inlineStr">
         <is>
@@ -2225,10 +2225,10 @@
         <v>576.8</v>
       </c>
       <c r="E38" s="30" t="n">
-        <v>718.12</v>
+        <v>759.0700000000001</v>
       </c>
       <c r="F38" s="30" t="n">
-        <v>51.12</v>
+        <v>92.06999999999999</v>
       </c>
       <c r="G38" s="31" t="inlineStr">
         <is>
@@ -2272,10 +2272,10 @@
         <v>459.67</v>
       </c>
       <c r="E39" s="30" t="n">
-        <v>685.46</v>
+        <v>691.76</v>
       </c>
       <c r="F39" s="30" t="n">
-        <v>18.46</v>
+        <v>24.76</v>
       </c>
       <c r="G39" s="31" t="inlineStr">
         <is>
@@ -2319,10 +2319,10 @@
         <v>611.75</v>
       </c>
       <c r="E40" s="30" t="n">
-        <v>734.71</v>
+        <v>739.61</v>
       </c>
       <c r="F40" s="30" t="n">
-        <v>67.70999999999999</v>
+        <v>72.61</v>
       </c>
       <c r="G40" s="31" t="inlineStr">
         <is>
@@ -2366,10 +2366,10 @@
         <v>1046.73</v>
       </c>
       <c r="E41" s="30" t="n">
-        <v>2026.26</v>
+        <v>2022.39</v>
       </c>
       <c r="F41" s="30" t="n">
-        <v>26.26</v>
+        <v>22.39</v>
       </c>
       <c r="G41" s="31" t="inlineStr">
         <is>
@@ -2413,10 +2413,10 @@
         <v>1825.9</v>
       </c>
       <c r="E42" s="30" t="n">
-        <v>1988.41</v>
+        <v>1993.88</v>
       </c>
       <c r="F42" s="30" t="n">
-        <v>-11.59</v>
+        <v>-6.12</v>
       </c>
       <c r="G42" s="31" t="inlineStr">
         <is>
@@ -2460,10 +2460,10 @@
         <v>1059.17</v>
       </c>
       <c r="E43" s="30" t="n">
-        <v>1060.23</v>
+        <v>1063.41</v>
       </c>
       <c r="F43" s="30" t="n">
-        <v>60.23</v>
+        <v>63.41</v>
       </c>
       <c r="G43" s="31" t="inlineStr">
         <is>
@@ -2507,10 +2507,10 @@
         <v>1812.7</v>
       </c>
       <c r="E44" s="30" t="n">
-        <v>987.92</v>
+        <v>986.11</v>
       </c>
       <c r="F44" s="30" t="n">
-        <v>-12.08</v>
+        <v>-13.89</v>
       </c>
       <c r="G44" s="31" t="inlineStr">
         <is>
@@ -2554,10 +2554,10 @@
         <v>1227.03</v>
       </c>
       <c r="E45" s="30" t="n">
-        <v>937.8200000000001</v>
+        <v>918.1900000000001</v>
       </c>
       <c r="F45" s="30" t="n">
-        <v>-62.18</v>
+        <v>-81.81</v>
       </c>
       <c r="G45" s="31" t="inlineStr">
         <is>
@@ -2588,42 +2588,42 @@
     <row r="46">
       <c r="A46" s="27" t="inlineStr">
         <is>
-          <t>华安黄金易ETF联接A</t>
+          <t>交银中证海外中国互联网指数</t>
         </is>
       </c>
       <c r="B46" s="28" t="n">
-        <v>216</v>
+        <v>164906</v>
       </c>
       <c r="C46" s="29" t="n">
-        <v>1.0902</v>
+        <v>1.1113</v>
       </c>
       <c r="D46" s="30" t="n">
-        <v>1834.47</v>
+        <v>899.8200000000001</v>
       </c>
       <c r="E46" s="30" t="n">
-        <v>2240.44</v>
+        <v>1184.16</v>
       </c>
       <c r="F46" s="30" t="n">
-        <v>240.44</v>
+        <v>184.16</v>
       </c>
       <c r="G46" s="31" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H46" s="31" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>海外互联</t>
         </is>
       </c>
       <c r="I46" s="31" t="inlineStr">
         <is>
-          <t>黄金</t>
+          <t>海外互联网</t>
         </is>
       </c>
       <c r="J46" s="31" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>213</t>
         </is>
       </c>
       <c r="K46" s="31" t="inlineStr">
@@ -2635,23 +2635,23 @@
     <row r="47">
       <c r="A47" s="27" t="inlineStr">
         <is>
-          <t>交银中证海外中国互联网指数</t>
+          <t>华夏恒生ETF联接A</t>
         </is>
       </c>
       <c r="B47" s="28" t="n">
-        <v>164906</v>
+        <v>71</v>
       </c>
       <c r="C47" s="29" t="n">
-        <v>1.1113</v>
+        <v>1.4513</v>
       </c>
       <c r="D47" s="30" t="n">
-        <v>899.8200000000001</v>
+        <v>689.02</v>
       </c>
       <c r="E47" s="30" t="n">
-        <v>1120.28</v>
+        <v>1036.91</v>
       </c>
       <c r="F47" s="30" t="n">
-        <v>120.28</v>
+        <v>36.91</v>
       </c>
       <c r="G47" s="31" t="inlineStr">
         <is>
@@ -2660,17 +2660,17 @@
       </c>
       <c r="H47" s="31" t="inlineStr">
         <is>
-          <t>海外互联</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="I47" s="31" t="inlineStr">
         <is>
-          <t>海外互联网</t>
+          <t>恒生</t>
         </is>
       </c>
       <c r="J47" s="31" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>211</t>
         </is>
       </c>
       <c r="K47" s="31" t="inlineStr">
@@ -2682,42 +2682,42 @@
     <row r="48">
       <c r="A48" s="27" t="inlineStr">
         <is>
-          <t>华夏恒生ETF联接A</t>
+          <t>华安黄金易ETF联接A</t>
         </is>
       </c>
       <c r="B48" s="28" t="n">
-        <v>71</v>
+        <v>216</v>
       </c>
       <c r="C48" s="29" t="n">
-        <v>1.4513</v>
+        <v>1.0902</v>
       </c>
       <c r="D48" s="30" t="n">
-        <v>689.02</v>
+        <v>1834.47</v>
       </c>
       <c r="E48" s="30" t="n">
-        <v>1027.47</v>
+        <v>2218.42</v>
       </c>
       <c r="F48" s="30" t="n">
-        <v>27.47</v>
+        <v>218.42</v>
       </c>
       <c r="G48" s="31" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="H48" s="31" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="I48" s="31" t="inlineStr">
         <is>
-          <t>恒生</t>
+          <t>黄金</t>
         </is>
       </c>
       <c r="J48" s="31" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>511</t>
         </is>
       </c>
       <c r="K48" s="31" t="inlineStr">
@@ -2742,10 +2742,10 @@
         <v>4757.9</v>
       </c>
       <c r="E49" s="30" t="n">
-        <v>1779.45</v>
+        <v>1774.7</v>
       </c>
       <c r="F49" s="30" t="n">
-        <v>-220.55</v>
+        <v>-225.3</v>
       </c>
       <c r="G49" s="31" t="inlineStr">
         <is>
@@ -2789,10 +2789,10 @@
         <v>953.96</v>
       </c>
       <c r="E50" s="30" t="n">
-        <v>1145.71</v>
+        <v>1153.34</v>
       </c>
       <c r="F50" s="30" t="n">
-        <v>145.71</v>
+        <v>153.34</v>
       </c>
       <c r="G50" s="31" t="inlineStr">
         <is>
@@ -2836,10 +2836,10 @@
         <v>65064.33</v>
       </c>
       <c r="E51" s="35" t="n">
-        <v>70855.05</v>
+        <v>71050.24000000001</v>
       </c>
       <c r="F51" s="35" t="n">
-        <v>4535.05</v>
+        <v>4730.24</v>
       </c>
       <c r="G51" s="36" t="inlineStr">
         <is>
@@ -2883,10 +2883,10 @@
         <v>63490</v>
       </c>
       <c r="E52" s="35" t="n">
-        <v>60683.74</v>
+        <v>60118.68</v>
       </c>
       <c r="F52" s="35" t="n">
-        <v>2483.74</v>
+        <v>1918.68</v>
       </c>
       <c r="G52" s="36" t="inlineStr">
         <is>
@@ -2930,10 +2930,10 @@
         <v>32370.29</v>
       </c>
       <c r="E53" s="35" t="n">
-        <v>37054.27</v>
+        <v>37080.16</v>
       </c>
       <c r="F53" s="35" t="n">
-        <v>5054.27</v>
+        <v>5080.16</v>
       </c>
       <c r="G53" s="36" t="inlineStr">
         <is>
@@ -2977,10 +2977,10 @@
         <v>41014.88</v>
       </c>
       <c r="E54" s="35" t="n">
-        <v>35051.31</v>
+        <v>34760.11</v>
       </c>
       <c r="F54" s="35" t="n">
-        <v>4491.31</v>
+        <v>4200.11</v>
       </c>
       <c r="G54" s="36" t="inlineStr">
         <is>
@@ -3071,10 +3071,10 @@
         <v>20716.63</v>
       </c>
       <c r="E56" s="35" t="n">
-        <v>24880.67</v>
+        <v>25046.4</v>
       </c>
       <c r="F56" s="35" t="n">
-        <v>2280.67</v>
+        <v>2446.4</v>
       </c>
       <c r="G56" s="36" t="inlineStr">
         <is>
@@ -3118,10 +3118,10 @@
         <v>14624.61</v>
       </c>
       <c r="E57" s="35" t="n">
-        <v>23501.74</v>
+        <v>23530.99</v>
       </c>
       <c r="F57" s="35" t="n">
-        <v>4301.74</v>
+        <v>4330.99</v>
       </c>
       <c r="G57" s="36" t="inlineStr">
         <is>
@@ -3165,10 +3165,10 @@
         <v>21163.93</v>
       </c>
       <c r="E58" s="35" t="n">
-        <v>22810.48</v>
+        <v>22840.11</v>
       </c>
       <c r="F58" s="35" t="n">
-        <v>3610.48</v>
+        <v>3640.11</v>
       </c>
       <c r="G58" s="36" t="inlineStr">
         <is>
@@ -3212,10 +3212,10 @@
         <v>16778.47</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>20889.19</v>
+        <v>22080.46</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>1689.19</v>
+        <v>2880.46</v>
       </c>
       <c r="G59" s="36" t="inlineStr">
         <is>
@@ -3259,10 +3259,10 @@
         <v>9529.809999999999</v>
       </c>
       <c r="E60" s="35" t="n">
-        <v>15133.33</v>
+        <v>15114.27</v>
       </c>
       <c r="F60" s="35" t="n">
-        <v>2333.33</v>
+        <v>2314.27</v>
       </c>
       <c r="G60" s="36" t="inlineStr">
         <is>
@@ -3306,10 +3306,10 @@
         <v>37267.45</v>
       </c>
       <c r="E61" s="35" t="n">
-        <v>13938.02</v>
+        <v>13900.75</v>
       </c>
       <c r="F61" s="35" t="n">
-        <v>-5261.98</v>
+        <v>-5299.25</v>
       </c>
       <c r="G61" s="36" t="inlineStr">
         <is>
@@ -3353,10 +3353,10 @@
         <v>6798.52</v>
       </c>
       <c r="E62" s="35" t="n">
-        <v>10137.95</v>
+        <v>10231.09</v>
       </c>
       <c r="F62" s="35" t="n">
-        <v>237.95</v>
+        <v>331.09</v>
       </c>
       <c r="G62" s="36" t="inlineStr">
         <is>
@@ -3400,10 +3400,10 @@
         <v>4791.13</v>
       </c>
       <c r="E63" s="35" t="n">
-        <v>8335.120000000001</v>
+        <v>8307.34</v>
       </c>
       <c r="F63" s="35" t="n">
-        <v>1935.12</v>
+        <v>1907.34</v>
       </c>
       <c r="G63" s="36" t="inlineStr">
         <is>
@@ -3447,10 +3447,10 @@
         <v>5609.79</v>
       </c>
       <c r="E64" s="35" t="n">
-        <v>7533.94</v>
+        <v>7567.6</v>
       </c>
       <c r="F64" s="35" t="n">
-        <v>2388.82</v>
+        <v>2422.48</v>
       </c>
       <c r="G64" s="36" t="inlineStr">
         <is>
@@ -3481,42 +3481,42 @@
     <row r="65">
       <c r="A65" s="32" t="inlineStr">
         <is>
-          <t>长信可转债债券A</t>
+          <t>广发中证环保ETF联接A</t>
         </is>
       </c>
       <c r="B65" s="33" t="n">
-        <v>519977</v>
+        <v>1064</v>
       </c>
       <c r="C65" s="34" t="n">
-        <v>1.2011</v>
+        <v>0.4775</v>
       </c>
       <c r="D65" s="35" t="n">
-        <v>5328.62</v>
+        <v>13403.92</v>
       </c>
       <c r="E65" s="35" t="n">
-        <v>7232</v>
+        <v>7272.96</v>
       </c>
       <c r="F65" s="35" t="n">
-        <v>832</v>
+        <v>872.96</v>
       </c>
       <c r="G65" s="36" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H65" s="36" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I65" s="36" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>中证环保</t>
         </is>
       </c>
       <c r="J65" s="36" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>143</t>
         </is>
       </c>
       <c r="K65" s="36" t="inlineStr">
@@ -3528,42 +3528,42 @@
     <row r="66">
       <c r="A66" s="32" t="inlineStr">
         <is>
-          <t>广发中证环保ETF联接A</t>
+          <t>长信可转债债券A</t>
         </is>
       </c>
       <c r="B66" s="33" t="n">
-        <v>1064</v>
+        <v>519977</v>
       </c>
       <c r="C66" s="34" t="n">
-        <v>0.4775</v>
+        <v>1.2011</v>
       </c>
       <c r="D66" s="35" t="n">
-        <v>13403.92</v>
+        <v>5328.62</v>
       </c>
       <c r="E66" s="35" t="n">
-        <v>7219.35</v>
+        <v>7229.87</v>
       </c>
       <c r="F66" s="35" t="n">
-        <v>819.35</v>
+        <v>829.87</v>
       </c>
       <c r="G66" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="H66" s="36" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="I66" s="36" t="inlineStr">
         <is>
-          <t>中证环保</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="J66" s="36" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>411</t>
         </is>
       </c>
       <c r="K66" s="36" t="inlineStr">
@@ -3588,10 +3588,10 @@
         <v>7778.64</v>
       </c>
       <c r="E67" s="35" t="n">
-        <v>6700.52</v>
+        <v>6679.51</v>
       </c>
       <c r="F67" s="35" t="n">
-        <v>-299.48</v>
+        <v>-320.49</v>
       </c>
       <c r="G67" s="36" t="inlineStr">
         <is>
@@ -3635,10 +3635,10 @@
         <v>7852.99</v>
       </c>
       <c r="E68" s="35" t="n">
-        <v>6002.04</v>
+        <v>5876.39</v>
       </c>
       <c r="F68" s="35" t="n">
-        <v>-397.96</v>
+        <v>-523.61</v>
       </c>
       <c r="G68" s="36" t="inlineStr">
         <is>
@@ -3682,10 +3682,10 @@
         <v>3580.2</v>
       </c>
       <c r="E69" s="35" t="n">
-        <v>3327.79</v>
+        <v>3310.25</v>
       </c>
       <c r="F69" s="35" t="n">
-        <v>-172.21</v>
+        <v>-189.75</v>
       </c>
       <c r="G69" s="36" t="inlineStr">
         <is>
@@ -3726,13 +3726,13 @@
         <v>1</v>
       </c>
       <c r="D70" s="5" t="n">
-        <v>160449.17</v>
+        <v>799679.1800000001</v>
       </c>
       <c r="E70" s="5" t="n">
-        <v>160449.17</v>
+        <v>799679.1800000001</v>
       </c>
       <c r="F70" s="5" t="n">
-        <v>5088.18</v>
+        <v>-320.82</v>
       </c>
       <c r="G70" s="6" t="inlineStr">
         <is>
@@ -3756,77 +3756,77 @@
       </c>
       <c r="K70" s="6" t="inlineStr">
         <is>
-          <t>父现金账户</t>
+          <t>父母现金账户</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="inlineStr">
-        <is>
-          <t>货币基金综合</t>
-        </is>
-      </c>
-      <c r="B71" s="3" t="n">
-        <v>999990</v>
-      </c>
-      <c r="C71" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D71" s="5" t="n">
-        <v>626414.8100000001</v>
-      </c>
-      <c r="E71" s="5" t="n">
-        <v>626414.8100000001</v>
-      </c>
-      <c r="F71" s="5" t="n">
-        <v>29616.07</v>
-      </c>
-      <c r="G71" s="6" t="inlineStr">
-        <is>
-          <t>现金</t>
-        </is>
-      </c>
-      <c r="H71" s="6" t="inlineStr">
-        <is>
-          <t>保本理财</t>
-        </is>
-      </c>
-      <c r="I71" s="6" t="inlineStr">
-        <is>
-          <t>货币基金</t>
-        </is>
-      </c>
-      <c r="J71" s="6" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="K71" s="6" t="inlineStr">
-        <is>
-          <t>母现金账户</t>
+      <c r="A71" s="7" t="inlineStr">
+        <is>
+          <t>银河沪深300价值指数</t>
+        </is>
+      </c>
+      <c r="B71" s="8" t="n">
+        <v>519671</v>
+      </c>
+      <c r="C71" s="9" t="n">
+        <v>1.4262</v>
+      </c>
+      <c r="D71" s="10" t="n">
+        <v>1013.26</v>
+      </c>
+      <c r="E71" s="10" t="n">
+        <v>1448.96</v>
+      </c>
+      <c r="F71" s="10" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="G71" s="11" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H71" s="11" t="inlineStr">
+        <is>
+          <t>大盘股</t>
+        </is>
+      </c>
+      <c r="I71" s="11" t="inlineStr">
+        <is>
+          <t>300价值</t>
+        </is>
+      </c>
+      <c r="J71" s="11" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="K71" s="11" t="inlineStr">
+        <is>
+          <t>父螺丝钉</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="7" t="inlineStr">
         <is>
-          <t>银河沪深300价值指数</t>
+          <t>大成中证红利指数A</t>
         </is>
       </c>
       <c r="B72" s="8" t="n">
-        <v>519671</v>
+        <v>90010</v>
       </c>
       <c r="C72" s="9" t="n">
-        <v>1.4259</v>
+        <v>1.6528</v>
       </c>
       <c r="D72" s="10" t="n">
-        <v>997.72</v>
+        <v>859.89</v>
       </c>
       <c r="E72" s="10" t="n">
-        <v>1417.76</v>
+        <v>1382.7</v>
       </c>
       <c r="F72" s="10" t="n">
-        <v>-4.89</v>
+        <v>-38.53</v>
       </c>
       <c r="G72" s="11" t="inlineStr">
         <is>
@@ -3835,17 +3835,17 @@
       </c>
       <c r="H72" s="11" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="I72" s="11" t="inlineStr">
         <is>
-          <t>300价值</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="J72" s="11" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>131</t>
         </is>
       </c>
       <c r="K72" s="11" t="inlineStr">
@@ -3857,42 +3857,42 @@
     <row r="73">
       <c r="A73" s="7" t="inlineStr">
         <is>
-          <t>大成中证红利指数A</t>
+          <t>华宝香港中小</t>
         </is>
       </c>
       <c r="B73" s="8" t="n">
-        <v>90010</v>
+        <v>501021</v>
       </c>
       <c r="C73" s="9" t="n">
-        <v>1.6533</v>
+        <v>1.3485</v>
       </c>
       <c r="D73" s="10" t="n">
-        <v>845.95</v>
+        <v>898.04</v>
       </c>
       <c r="E73" s="10" t="n">
-        <v>1356.9</v>
+        <v>1311.86</v>
       </c>
       <c r="F73" s="10" t="n">
-        <v>-41.7</v>
+        <v>100.89</v>
       </c>
       <c r="G73" s="11" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H73" s="11" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="I73" s="11" t="inlineStr">
         <is>
-          <t>中证红利</t>
+          <t>香港中小</t>
         </is>
       </c>
       <c r="J73" s="11" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>212</t>
         </is>
       </c>
       <c r="K73" s="11" t="inlineStr">
@@ -3904,42 +3904,42 @@
     <row r="74">
       <c r="A74" s="7" t="inlineStr">
         <is>
-          <t>华宝香港中小</t>
+          <t>景顺长城中证500低波动</t>
         </is>
       </c>
       <c r="B74" s="8" t="n">
-        <v>501021</v>
+        <v>3318</v>
       </c>
       <c r="C74" s="9" t="n">
-        <v>1.3485</v>
+        <v>0.9331</v>
       </c>
       <c r="D74" s="10" t="n">
-        <v>898.04</v>
+        <v>1312.53</v>
       </c>
       <c r="E74" s="10" t="n">
-        <v>1299.1</v>
+        <v>1193.22</v>
       </c>
       <c r="F74" s="10" t="n">
-        <v>88.13</v>
+        <v>-31.49</v>
       </c>
       <c r="G74" s="11" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H74" s="11" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I74" s="11" t="inlineStr">
         <is>
-          <t>香港中小</t>
+          <t>500低波动</t>
         </is>
       </c>
       <c r="J74" s="11" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>122</t>
         </is>
       </c>
       <c r="K74" s="11" t="inlineStr">
@@ -3951,23 +3951,23 @@
     <row r="75">
       <c r="A75" s="7" t="inlineStr">
         <is>
-          <t>景顺长城中证500低波动</t>
+          <t>嘉实深证基本面120联接</t>
         </is>
       </c>
       <c r="B75" s="8" t="n">
-        <v>3318</v>
+        <v>70023</v>
       </c>
       <c r="C75" s="9" t="n">
-        <v>0.9335</v>
+        <v>1.7954</v>
       </c>
       <c r="D75" s="10" t="n">
-        <v>1288.86</v>
+        <v>482.9</v>
       </c>
       <c r="E75" s="10" t="n">
-        <v>1175.96</v>
+        <v>888.54</v>
       </c>
       <c r="F75" s="10" t="n">
-        <v>-27.18</v>
+        <v>21.55</v>
       </c>
       <c r="G75" s="11" t="inlineStr">
         <is>
@@ -3976,17 +3976,17 @@
       </c>
       <c r="H75" s="11" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I75" s="11" t="inlineStr">
         <is>
-          <t>500低波动</t>
+          <t>基本面120</t>
         </is>
       </c>
       <c r="J75" s="11" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>116</t>
         </is>
       </c>
       <c r="K75" s="11" t="inlineStr">
@@ -3998,23 +3998,23 @@
     <row r="76">
       <c r="A76" s="7" t="inlineStr">
         <is>
-          <t>嘉实深证基本面120联接</t>
+          <t>建信深证基本面60ETF联接A</t>
         </is>
       </c>
       <c r="B76" s="8" t="n">
-        <v>70023</v>
+        <v>530015</v>
       </c>
       <c r="C76" s="9" t="n">
-        <v>1.794</v>
+        <v>2.1198</v>
       </c>
       <c r="D76" s="10" t="n">
-        <v>473.31</v>
+        <v>389.84</v>
       </c>
       <c r="E76" s="10" t="n">
-        <v>863.7</v>
+        <v>833.67</v>
       </c>
       <c r="F76" s="10" t="n">
-        <v>14.56</v>
+        <v>7.27</v>
       </c>
       <c r="G76" s="11" t="inlineStr">
         <is>
@@ -4028,12 +4028,12 @@
       </c>
       <c r="I76" s="11" t="inlineStr">
         <is>
-          <t>基本面120</t>
+          <t>基本面60</t>
         </is>
       </c>
       <c r="J76" s="11" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>115</t>
         </is>
       </c>
       <c r="K76" s="11" t="inlineStr">
@@ -4045,23 +4045,23 @@
     <row r="77">
       <c r="A77" s="7" t="inlineStr">
         <is>
-          <t>建信深证基本面60ETF联接A</t>
+          <t>广发中证养老</t>
         </is>
       </c>
       <c r="B77" s="8" t="n">
-        <v>530015</v>
+        <v>968</v>
       </c>
       <c r="C77" s="9" t="n">
-        <v>2.1188</v>
+        <v>0.9608</v>
       </c>
       <c r="D77" s="10" t="n">
-        <v>381.21</v>
+        <v>354.88</v>
       </c>
       <c r="E77" s="10" t="n">
-        <v>808.47</v>
+        <v>336.04</v>
       </c>
       <c r="F77" s="10" t="n">
-        <v>0.78</v>
+        <v>-4.94</v>
       </c>
       <c r="G77" s="11" t="inlineStr">
         <is>
@@ -4070,17 +4070,17 @@
       </c>
       <c r="H77" s="11" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I77" s="11" t="inlineStr">
         <is>
-          <t>基本面60</t>
+          <t>养老产业</t>
         </is>
       </c>
       <c r="J77" s="11" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>141</t>
         </is>
       </c>
       <c r="K77" s="11" t="inlineStr">
@@ -4092,23 +4092,23 @@
     <row r="78">
       <c r="A78" s="7" t="inlineStr">
         <is>
-          <t>广发中证养老</t>
+          <t>华宝红利基金</t>
         </is>
       </c>
       <c r="B78" s="8" t="n">
-        <v>968</v>
+        <v>501029</v>
       </c>
       <c r="C78" s="9" t="n">
-        <v>0.961</v>
+        <v>0.9829</v>
       </c>
       <c r="D78" s="10" t="n">
-        <v>336.9</v>
+        <v>214.89</v>
       </c>
       <c r="E78" s="10" t="n">
-        <v>322.01</v>
+        <v>200.41</v>
       </c>
       <c r="F78" s="10" t="n">
-        <v>-1.75</v>
+        <v>-10.81</v>
       </c>
       <c r="G78" s="11" t="inlineStr">
         <is>
@@ -4117,17 +4117,17 @@
       </c>
       <c r="H78" s="11" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="I78" s="11" t="inlineStr">
         <is>
-          <t>养老产业</t>
+          <t>标普红利</t>
         </is>
       </c>
       <c r="J78" s="11" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>132</t>
         </is>
       </c>
       <c r="K78" s="11" t="inlineStr">
@@ -4139,23 +4139,23 @@
     <row r="79">
       <c r="A79" s="7" t="inlineStr">
         <is>
-          <t>华宝红利基金</t>
+          <t>天弘中证医药100A</t>
         </is>
       </c>
       <c r="B79" s="8" t="n">
-        <v>501029</v>
+        <v>1550</v>
       </c>
       <c r="C79" s="9" t="n">
-        <v>0.9829</v>
+        <v>0.6708</v>
       </c>
       <c r="D79" s="10" t="n">
-        <v>214.89</v>
+        <v>212.74</v>
       </c>
       <c r="E79" s="10" t="n">
-        <v>200.08</v>
+        <v>164.19</v>
       </c>
       <c r="F79" s="10" t="n">
-        <v>-11.14</v>
+        <v>21.49</v>
       </c>
       <c r="G79" s="11" t="inlineStr">
         <is>
@@ -4164,17 +4164,17 @@
       </c>
       <c r="H79" s="11" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I79" s="11" t="inlineStr">
         <is>
-          <t>标普红利</t>
+          <t>全指医药</t>
         </is>
       </c>
       <c r="J79" s="11" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>142</t>
         </is>
       </c>
       <c r="K79" s="11" t="inlineStr">
@@ -4186,23 +4186,23 @@
     <row r="80">
       <c r="A80" s="7" t="inlineStr">
         <is>
-          <t>天弘中证医药100A</t>
+          <t>华夏上证50AH优选指数</t>
         </is>
       </c>
       <c r="B80" s="8" t="n">
-        <v>1550</v>
+        <v>501050</v>
       </c>
       <c r="C80" s="9" t="n">
-        <v>0.6708</v>
+        <v>1.2891</v>
       </c>
       <c r="D80" s="10" t="n">
-        <v>212.74</v>
+        <v>62.09</v>
       </c>
       <c r="E80" s="10" t="n">
-        <v>166.15</v>
+        <v>81.77</v>
       </c>
       <c r="F80" s="10" t="n">
-        <v>23.45</v>
+        <v>1.73</v>
       </c>
       <c r="G80" s="11" t="inlineStr">
         <is>
@@ -4211,17 +4211,17 @@
       </c>
       <c r="H80" s="11" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I80" s="11" t="inlineStr">
         <is>
-          <t>全指医药</t>
+          <t>50AH</t>
         </is>
       </c>
       <c r="J80" s="11" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>112</t>
         </is>
       </c>
       <c r="K80" s="11" t="inlineStr">
@@ -4233,23 +4233,23 @@
     <row r="81">
       <c r="A81" s="7" t="inlineStr">
         <is>
-          <t>华夏上证50AH优选指数</t>
+          <t>申万菱信沪深300价值指数</t>
         </is>
       </c>
       <c r="B81" s="8" t="n">
-        <v>501050</v>
+        <v>310398</v>
       </c>
       <c r="C81" s="9" t="n">
-        <v>1.2891</v>
+        <v>1.5297</v>
       </c>
       <c r="D81" s="10" t="n">
-        <v>62.09</v>
+        <v>24.24</v>
       </c>
       <c r="E81" s="10" t="n">
-        <v>81.59</v>
+        <v>34.91</v>
       </c>
       <c r="F81" s="10" t="n">
-        <v>1.55</v>
+        <v>-2.17</v>
       </c>
       <c r="G81" s="11" t="inlineStr">
         <is>
@@ -4263,12 +4263,12 @@
       </c>
       <c r="I81" s="11" t="inlineStr">
         <is>
-          <t>50AH</t>
+          <t>300价值</t>
         </is>
       </c>
       <c r="J81" s="11" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>114</t>
         </is>
       </c>
       <c r="K81" s="11" t="inlineStr">
@@ -4280,42 +4280,42 @@
     <row r="82">
       <c r="A82" s="7" t="inlineStr">
         <is>
-          <t>申万菱信沪深300价值指数</t>
+          <t>大成景安短融债券E</t>
         </is>
       </c>
       <c r="B82" s="8" t="n">
-        <v>310398</v>
+        <v>2086</v>
       </c>
       <c r="C82" s="9" t="n">
-        <v>1.5297</v>
+        <v>1.2258</v>
       </c>
       <c r="D82" s="10" t="n">
-        <v>24.24</v>
+        <v>0</v>
       </c>
       <c r="E82" s="10" t="n">
-        <v>34.72</v>
+        <v>0</v>
       </c>
       <c r="F82" s="10" t="n">
-        <v>-2.36</v>
+        <v>0.27</v>
       </c>
       <c r="G82" s="11" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>现金</t>
         </is>
       </c>
       <c r="H82" s="11" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>保本理财</t>
         </is>
       </c>
       <c r="I82" s="11" t="inlineStr">
         <is>
-          <t>300价值</t>
+          <t>货币基金</t>
         </is>
       </c>
       <c r="J82" s="11" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>990</t>
         </is>
       </c>
       <c r="K82" s="11" t="inlineStr">
@@ -4327,70 +4327,70 @@
     <row r="83">
       <c r="A83" s="7" t="inlineStr">
         <is>
-          <t>大成景安短融债券E</t>
+          <t>大成中证红利指数A</t>
         </is>
       </c>
       <c r="B83" s="8" t="n">
-        <v>2086</v>
+        <v>90010</v>
       </c>
       <c r="C83" s="9" t="n">
-        <v>1.2258</v>
+        <v>1.6581</v>
       </c>
       <c r="D83" s="10" t="n">
-        <v>0</v>
+        <v>917.91</v>
       </c>
       <c r="E83" s="10" t="n">
-        <v>0</v>
+        <v>1476</v>
       </c>
       <c r="F83" s="10" t="n">
-        <v>0.27</v>
+        <v>-46.03</v>
       </c>
       <c r="G83" s="11" t="inlineStr">
         <is>
-          <t>现金</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H83" s="11" t="inlineStr">
         <is>
-          <t>保本理财</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="I83" s="11" t="inlineStr">
         <is>
-          <t>货币基金</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="J83" s="11" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>131</t>
         </is>
       </c>
       <c r="K83" s="11" t="inlineStr">
         <is>
-          <t>父螺丝钉</t>
+          <t>母螺丝钉</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="7" t="inlineStr">
         <is>
-          <t>大成中证红利指数A</t>
+          <t>银河沪深300价值指数</t>
         </is>
       </c>
       <c r="B84" s="8" t="n">
-        <v>90010</v>
+        <v>519671</v>
       </c>
       <c r="C84" s="9" t="n">
-        <v>1.6593</v>
+        <v>1.4245</v>
       </c>
       <c r="D84" s="10" t="n">
-        <v>890.02</v>
+        <v>993.53</v>
       </c>
       <c r="E84" s="10" t="n">
-        <v>1427.59</v>
+        <v>1420.75</v>
       </c>
       <c r="F84" s="10" t="n">
-        <v>-49.18</v>
+        <v>5.44</v>
       </c>
       <c r="G84" s="11" t="inlineStr">
         <is>
@@ -4399,17 +4399,17 @@
       </c>
       <c r="H84" s="11" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I84" s="11" t="inlineStr">
         <is>
-          <t>中证红利</t>
+          <t>300价值</t>
         </is>
       </c>
       <c r="J84" s="11" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>114</t>
         </is>
       </c>
       <c r="K84" s="11" t="inlineStr">
@@ -4421,42 +4421,42 @@
     <row r="85">
       <c r="A85" s="7" t="inlineStr">
         <is>
-          <t>银河沪深300价值指数</t>
+          <t>华宝香港中小</t>
         </is>
       </c>
       <c r="B85" s="8" t="n">
-        <v>519671</v>
+        <v>501021</v>
       </c>
       <c r="C85" s="9" t="n">
-        <v>1.4239</v>
+        <v>1.3514</v>
       </c>
       <c r="D85" s="10" t="n">
-        <v>962.45</v>
+        <v>915.97</v>
       </c>
       <c r="E85" s="10" t="n">
-        <v>1367.64</v>
+        <v>1338.05</v>
       </c>
       <c r="F85" s="10" t="n">
-        <v>-2.77</v>
+        <v>100.21</v>
       </c>
       <c r="G85" s="11" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H85" s="11" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="I85" s="11" t="inlineStr">
         <is>
-          <t>300价值</t>
+          <t>香港中小</t>
         </is>
       </c>
       <c r="J85" s="11" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>212</t>
         </is>
       </c>
       <c r="K85" s="11" t="inlineStr">
@@ -4468,42 +4468,42 @@
     <row r="86">
       <c r="A86" s="7" t="inlineStr">
         <is>
-          <t>华宝香港中小</t>
+          <t>景顺长城中证500低波动</t>
         </is>
       </c>
       <c r="B86" s="8" t="n">
-        <v>501021</v>
+        <v>3318</v>
       </c>
       <c r="C86" s="9" t="n">
-        <v>1.3514</v>
+        <v>0.9339</v>
       </c>
       <c r="D86" s="10" t="n">
-        <v>915.97</v>
+        <v>1320.32</v>
       </c>
       <c r="E86" s="10" t="n">
-        <v>1325.04</v>
+        <v>1200.3</v>
       </c>
       <c r="F86" s="10" t="n">
-        <v>87.2</v>
+        <v>-32.81</v>
       </c>
       <c r="G86" s="11" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H86" s="11" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I86" s="11" t="inlineStr">
         <is>
-          <t>香港中小</t>
+          <t>500低波动</t>
         </is>
       </c>
       <c r="J86" s="11" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>122</t>
         </is>
       </c>
       <c r="K86" s="11" t="inlineStr">
@@ -4515,23 +4515,23 @@
     <row r="87">
       <c r="A87" s="7" t="inlineStr">
         <is>
-          <t>景顺长城中证500低波动</t>
+          <t>嘉实深证基本面120联接</t>
         </is>
       </c>
       <c r="B87" s="8" t="n">
-        <v>3318</v>
+        <v>70023</v>
       </c>
       <c r="C87" s="9" t="n">
-        <v>0.9348</v>
+        <v>1.7969</v>
       </c>
       <c r="D87" s="10" t="n">
-        <v>1272.96</v>
+        <v>509.62</v>
       </c>
       <c r="E87" s="10" t="n">
-        <v>1161.45</v>
+        <v>937.7</v>
       </c>
       <c r="F87" s="10" t="n">
-        <v>-28.52</v>
+        <v>21.94</v>
       </c>
       <c r="G87" s="11" t="inlineStr">
         <is>
@@ -4540,17 +4540,17 @@
       </c>
       <c r="H87" s="11" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I87" s="11" t="inlineStr">
         <is>
-          <t>500低波动</t>
+          <t>基本面120</t>
         </is>
       </c>
       <c r="J87" s="11" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>116</t>
         </is>
       </c>
       <c r="K87" s="11" t="inlineStr">
@@ -4562,23 +4562,23 @@
     <row r="88">
       <c r="A88" s="7" t="inlineStr">
         <is>
-          <t>嘉实深证基本面120联接</t>
+          <t>建信深证基本面60ETF联接A</t>
         </is>
       </c>
       <c r="B88" s="8" t="n">
-        <v>70023</v>
+        <v>530015</v>
       </c>
       <c r="C88" s="9" t="n">
-        <v>1.7945</v>
+        <v>2.1207</v>
       </c>
       <c r="D88" s="10" t="n">
-        <v>490.43</v>
+        <v>372.65</v>
       </c>
       <c r="E88" s="10" t="n">
-        <v>894.9400000000001</v>
+        <v>796.91</v>
       </c>
       <c r="F88" s="10" t="n">
-        <v>14.87</v>
+        <v>6.62</v>
       </c>
       <c r="G88" s="11" t="inlineStr">
         <is>
@@ -4592,12 +4592,12 @@
       </c>
       <c r="I88" s="11" t="inlineStr">
         <is>
-          <t>基本面120</t>
+          <t>基本面60</t>
         </is>
       </c>
       <c r="J88" s="11" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>115</t>
         </is>
       </c>
       <c r="K88" s="11" t="inlineStr">
@@ -4609,23 +4609,23 @@
     <row r="89">
       <c r="A89" s="7" t="inlineStr">
         <is>
-          <t>建信深证基本面60ETF联接A</t>
+          <t>广发中证养老</t>
         </is>
       </c>
       <c r="B89" s="8" t="n">
-        <v>530015</v>
+        <v>968</v>
       </c>
       <c r="C89" s="9" t="n">
-        <v>2.1185</v>
+        <v>0.9605</v>
       </c>
       <c r="D89" s="10" t="n">
-        <v>355.38</v>
+        <v>355.1</v>
       </c>
       <c r="E89" s="10" t="n">
-        <v>753.6900000000001</v>
+        <v>336.24</v>
       </c>
       <c r="F89" s="10" t="n">
-        <v>0.83</v>
+        <v>-4.82</v>
       </c>
       <c r="G89" s="11" t="inlineStr">
         <is>
@@ -4634,17 +4634,17 @@
       </c>
       <c r="H89" s="11" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I89" s="11" t="inlineStr">
         <is>
-          <t>基本面60</t>
+          <t>养老产业</t>
         </is>
       </c>
       <c r="J89" s="11" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>141</t>
         </is>
       </c>
       <c r="K89" s="11" t="inlineStr">
@@ -4656,23 +4656,23 @@
     <row r="90">
       <c r="A90" s="7" t="inlineStr">
         <is>
-          <t>广发中证养老</t>
+          <t>华宝红利基金</t>
         </is>
       </c>
       <c r="B90" s="8" t="n">
-        <v>968</v>
+        <v>501029</v>
       </c>
       <c r="C90" s="9" t="n">
-        <v>0.9608</v>
+        <v>0.9824000000000001</v>
       </c>
       <c r="D90" s="10" t="n">
-        <v>319.14</v>
+        <v>227.52</v>
       </c>
       <c r="E90" s="10" t="n">
-        <v>305.03</v>
+        <v>212.19</v>
       </c>
       <c r="F90" s="10" t="n">
-        <v>-1.59</v>
+        <v>-11.32</v>
       </c>
       <c r="G90" s="11" t="inlineStr">
         <is>
@@ -4681,17 +4681,17 @@
       </c>
       <c r="H90" s="11" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="I90" s="11" t="inlineStr">
         <is>
-          <t>养老产业</t>
+          <t>标普红利</t>
         </is>
       </c>
       <c r="J90" s="11" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>132</t>
         </is>
       </c>
       <c r="K90" s="11" t="inlineStr">
@@ -4703,23 +4703,23 @@
     <row r="91">
       <c r="A91" s="7" t="inlineStr">
         <is>
-          <t>华宝红利基金</t>
+          <t>华夏上证50AH优选指数</t>
         </is>
       </c>
       <c r="B91" s="8" t="n">
-        <v>501029</v>
+        <v>501050</v>
       </c>
       <c r="C91" s="9" t="n">
-        <v>0.9824000000000001</v>
+        <v>1.284</v>
       </c>
       <c r="D91" s="10" t="n">
-        <v>227.52</v>
+        <v>142.1</v>
       </c>
       <c r="E91" s="10" t="n">
-        <v>211.84</v>
+        <v>187.15</v>
       </c>
       <c r="F91" s="10" t="n">
-        <v>-11.67</v>
+        <v>4.7</v>
       </c>
       <c r="G91" s="11" t="inlineStr">
         <is>
@@ -4728,17 +4728,17 @@
       </c>
       <c r="H91" s="11" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I91" s="11" t="inlineStr">
         <is>
-          <t>标普红利</t>
+          <t>50AH</t>
         </is>
       </c>
       <c r="J91" s="11" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>112</t>
         </is>
       </c>
       <c r="K91" s="11" t="inlineStr">
@@ -4750,23 +4750,23 @@
     <row r="92">
       <c r="A92" s="7" t="inlineStr">
         <is>
-          <t>华夏上证50AH优选指数</t>
+          <t>天弘中证医药100A</t>
         </is>
       </c>
       <c r="B92" s="8" t="n">
-        <v>501050</v>
+        <v>1550</v>
       </c>
       <c r="C92" s="9" t="n">
-        <v>1.284</v>
+        <v>0.6708</v>
       </c>
       <c r="D92" s="10" t="n">
-        <v>142.1</v>
+        <v>212.74</v>
       </c>
       <c r="E92" s="10" t="n">
-        <v>186.72</v>
+        <v>164.19</v>
       </c>
       <c r="F92" s="10" t="n">
-        <v>4.27</v>
+        <v>21.49</v>
       </c>
       <c r="G92" s="11" t="inlineStr">
         <is>
@@ -4775,17 +4775,17 @@
       </c>
       <c r="H92" s="11" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I92" s="11" t="inlineStr">
         <is>
-          <t>50AH</t>
+          <t>全指医药</t>
         </is>
       </c>
       <c r="J92" s="11" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>142</t>
         </is>
       </c>
       <c r="K92" s="11" t="inlineStr">
@@ -4797,23 +4797,23 @@
     <row r="93">
       <c r="A93" s="7" t="inlineStr">
         <is>
-          <t>天弘中证医药100A</t>
+          <t>申万菱信沪深300价值指数</t>
         </is>
       </c>
       <c r="B93" s="8" t="n">
-        <v>1550</v>
+        <v>310398</v>
       </c>
       <c r="C93" s="9" t="n">
-        <v>0.6708</v>
+        <v>1.5297</v>
       </c>
       <c r="D93" s="10" t="n">
-        <v>212.74</v>
+        <v>24.24</v>
       </c>
       <c r="E93" s="10" t="n">
-        <v>166.15</v>
+        <v>34.91</v>
       </c>
       <c r="F93" s="10" t="n">
-        <v>23.45</v>
+        <v>-2.17</v>
       </c>
       <c r="G93" s="11" t="inlineStr">
         <is>
@@ -4822,17 +4822,17 @@
       </c>
       <c r="H93" s="11" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I93" s="11" t="inlineStr">
         <is>
-          <t>全指医药</t>
+          <t>300价值</t>
         </is>
       </c>
       <c r="J93" s="11" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>114</t>
         </is>
       </c>
       <c r="K93" s="11" t="inlineStr">
@@ -4844,42 +4844,42 @@
     <row r="94">
       <c r="A94" s="7" t="inlineStr">
         <is>
-          <t>申万菱信沪深300价值指数</t>
+          <t>大成景安短融债券E</t>
         </is>
       </c>
       <c r="B94" s="8" t="n">
-        <v>310398</v>
+        <v>2086</v>
       </c>
       <c r="C94" s="9" t="n">
-        <v>1.5297</v>
+        <v>1.2257</v>
       </c>
       <c r="D94" s="10" t="n">
-        <v>24.24</v>
+        <v>0</v>
       </c>
       <c r="E94" s="10" t="n">
-        <v>34.72</v>
+        <v>0</v>
       </c>
       <c r="F94" s="10" t="n">
-        <v>-2.36</v>
+        <v>0.44</v>
       </c>
       <c r="G94" s="11" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>现金</t>
         </is>
       </c>
       <c r="H94" s="11" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>保本理财</t>
         </is>
       </c>
       <c r="I94" s="11" t="inlineStr">
         <is>
-          <t>300价值</t>
+          <t>货币基金</t>
         </is>
       </c>
       <c r="J94" s="11" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>990</t>
         </is>
       </c>
       <c r="K94" s="11" t="inlineStr">
@@ -4889,72 +4889,72 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="7" t="inlineStr">
-        <is>
-          <t>大成景安短融债券E</t>
-        </is>
-      </c>
-      <c r="B95" s="8" t="n">
-        <v>2086</v>
-      </c>
-      <c r="C95" s="9" t="n">
-        <v>1.2257</v>
-      </c>
-      <c r="D95" s="10" t="n">
+      <c r="A95" s="32" t="inlineStr">
+        <is>
+          <t>广发中证500ETF联接A</t>
+        </is>
+      </c>
+      <c r="B95" s="33" t="n">
+        <v>162711</v>
+      </c>
+      <c r="C95" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="E95" s="10" t="n">
+      <c r="D95" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="F95" s="10" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="G95" s="11" t="inlineStr">
-        <is>
-          <t>现金</t>
-        </is>
-      </c>
-      <c r="H95" s="11" t="inlineStr">
-        <is>
-          <t>保本理财</t>
-        </is>
-      </c>
-      <c r="I95" s="11" t="inlineStr">
-        <is>
-          <t>货币基金</t>
-        </is>
-      </c>
-      <c r="J95" s="11" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="K95" s="11" t="inlineStr">
-        <is>
-          <t>母螺丝钉</t>
+      <c r="E95" s="35" t="n">
+        <v>10421.97</v>
+      </c>
+      <c r="F95" s="35" t="n">
+        <v>221.97</v>
+      </c>
+      <c r="G95" s="36" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H95" s="36" t="inlineStr">
+        <is>
+          <t>中小盘股</t>
+        </is>
+      </c>
+      <c r="I95" s="36" t="inlineStr">
+        <is>
+          <t>中证500</t>
+        </is>
+      </c>
+      <c r="J95" s="36" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="K95" s="36" t="inlineStr">
+        <is>
+          <t>母天天基金</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="32" t="inlineStr">
         <is>
-          <t>广发中证500ETF联接A</t>
+          <t>富国中证红利指数增强</t>
         </is>
       </c>
       <c r="B96" s="33" t="n">
-        <v>162711</v>
+        <v>100032</v>
       </c>
       <c r="C96" s="34" t="n">
-        <v>1.0519</v>
+        <v>1.0193</v>
       </c>
       <c r="D96" s="35" t="n">
-        <v>9697.57</v>
+        <v>65064.33</v>
       </c>
       <c r="E96" s="35" t="n">
-        <v>10454.95</v>
+        <v>9475.93</v>
       </c>
       <c r="F96" s="35" t="n">
-        <v>254.95</v>
+        <v>675.9299999999999</v>
       </c>
       <c r="G96" s="36" t="inlineStr">
         <is>
@@ -4963,17 +4963,17 @@
       </c>
       <c r="H96" s="36" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="I96" s="36" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="J96" s="36" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>131</t>
         </is>
       </c>
       <c r="K96" s="36" t="inlineStr">
@@ -4985,23 +4985,23 @@
     <row r="97">
       <c r="A97" s="32" t="inlineStr">
         <is>
-          <t>富国中证红利指数增强</t>
+          <t>广发养老指数A</t>
         </is>
       </c>
       <c r="B97" s="33" t="n">
-        <v>100032</v>
+        <v>968</v>
       </c>
       <c r="C97" s="34" t="n">
-        <v>1.0142</v>
+        <v>0.9167</v>
       </c>
       <c r="D97" s="35" t="n">
-        <v>8677.6</v>
+        <v>63490</v>
       </c>
       <c r="E97" s="35" t="n">
-        <v>9449.9</v>
+        <v>5772.5</v>
       </c>
       <c r="F97" s="35" t="n">
-        <v>649.9</v>
+        <v>572.5</v>
       </c>
       <c r="G97" s="36" t="inlineStr">
         <is>
@@ -5010,17 +5010,17 @@
       </c>
       <c r="H97" s="36" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I97" s="36" t="inlineStr">
         <is>
-          <t>中证红利</t>
+          <t>养老产业</t>
         </is>
       </c>
       <c r="J97" s="36" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>141</t>
         </is>
       </c>
       <c r="K97" s="36" t="inlineStr">
@@ -5032,23 +5032,23 @@
     <row r="98">
       <c r="A98" s="32" t="inlineStr">
         <is>
-          <t>广发养老指数A</t>
+          <t>广发医药卫生联接A</t>
         </is>
       </c>
       <c r="B98" s="33" t="n">
-        <v>968</v>
+        <v>1180</v>
       </c>
       <c r="C98" s="34" t="n">
-        <v>0.853</v>
+        <v>0.7451</v>
       </c>
       <c r="D98" s="35" t="n">
-        <v>6096.21</v>
+        <v>41014.88</v>
       </c>
       <c r="E98" s="35" t="n">
-        <v>5826.75</v>
+        <v>5720.86</v>
       </c>
       <c r="F98" s="35" t="n">
-        <v>626.75</v>
+        <v>920.86</v>
       </c>
       <c r="G98" s="36" t="inlineStr">
         <is>
@@ -5062,12 +5062,12 @@
       </c>
       <c r="I98" s="36" t="inlineStr">
         <is>
-          <t>养老产业</t>
+          <t>全指医药</t>
         </is>
       </c>
       <c r="J98" s="36" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>142</t>
         </is>
       </c>
       <c r="K98" s="36" t="inlineStr">
@@ -5079,23 +5079,23 @@
     <row r="99">
       <c r="A99" s="32" t="inlineStr">
         <is>
-          <t>广发医药卫生联接A</t>
+          <t>富国沪深300指数增强</t>
         </is>
       </c>
       <c r="B99" s="33" t="n">
-        <v>1180</v>
+        <v>100038</v>
       </c>
       <c r="C99" s="34" t="n">
-        <v>0.7111</v>
+        <v>1.3129</v>
       </c>
       <c r="D99" s="35" t="n">
-        <v>6750.28</v>
+        <v>14624.61</v>
       </c>
       <c r="E99" s="35" t="n">
-        <v>5768.78</v>
+        <v>4441.03</v>
       </c>
       <c r="F99" s="35" t="n">
-        <v>968.78</v>
+        <v>841.03</v>
       </c>
       <c r="G99" s="36" t="inlineStr">
         <is>
@@ -5104,17 +5104,17 @@
       </c>
       <c r="H99" s="36" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I99" s="36" t="inlineStr">
         <is>
-          <t>全指医药</t>
+          <t>沪深300</t>
         </is>
       </c>
       <c r="J99" s="36" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>113</t>
         </is>
       </c>
       <c r="K99" s="36" t="inlineStr">
@@ -5126,23 +5126,23 @@
     <row r="100">
       <c r="A100" s="32" t="inlineStr">
         <is>
-          <t>富国沪深300指数增强</t>
+          <t>广发中证传媒ETF联接A</t>
         </is>
       </c>
       <c r="B100" s="33" t="n">
-        <v>100038</v>
+        <v>4752</v>
       </c>
       <c r="C100" s="34" t="n">
-        <v>1.3043</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="D100" s="35" t="n">
-        <v>2760.12</v>
+        <v>7852.99</v>
       </c>
       <c r="E100" s="35" t="n">
-        <v>4435.51</v>
+        <v>3310.09</v>
       </c>
       <c r="F100" s="35" t="n">
-        <v>835.51</v>
+        <v>110.09</v>
       </c>
       <c r="G100" s="36" t="inlineStr">
         <is>
@@ -5151,17 +5151,17 @@
       </c>
       <c r="H100" s="36" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I100" s="36" t="inlineStr">
         <is>
-          <t>沪深300</t>
+          <t>中证传媒</t>
         </is>
       </c>
       <c r="J100" s="36" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>144</t>
         </is>
       </c>
       <c r="K100" s="36" t="inlineStr">
@@ -5173,23 +5173,23 @@
     <row r="101">
       <c r="A101" s="32" t="inlineStr">
         <is>
-          <t>广发中证传媒ETF联接A</t>
+          <t>富国中证500指数(LOF)</t>
         </is>
       </c>
       <c r="B101" s="33" t="n">
-        <v>4752</v>
+        <v>161017</v>
       </c>
       <c r="C101" s="34" t="n">
-        <v>0.7235</v>
+        <v>1.3432</v>
       </c>
       <c r="D101" s="35" t="n">
-        <v>4423.48</v>
+        <v>9529.809999999999</v>
       </c>
       <c r="E101" s="35" t="n">
-        <v>3380.86</v>
+        <v>3246.49</v>
       </c>
       <c r="F101" s="35" t="n">
-        <v>180.86</v>
+        <v>534.38</v>
       </c>
       <c r="G101" s="36" t="inlineStr">
         <is>
@@ -5198,17 +5198,17 @@
       </c>
       <c r="H101" s="36" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I101" s="36" t="inlineStr">
         <is>
-          <t>中证传媒</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="J101" s="36" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>121</t>
         </is>
       </c>
       <c r="K101" s="36" t="inlineStr">
@@ -5220,23 +5220,23 @@
     <row r="102">
       <c r="A102" s="32" t="inlineStr">
         <is>
-          <t>富国中证500指数(LOF)</t>
+          <t>广发中证环保ETF联接A</t>
         </is>
       </c>
       <c r="B102" s="33" t="n">
-        <v>161017</v>
+        <v>1064</v>
       </c>
       <c r="C102" s="34" t="n">
-        <v>1.325</v>
+        <v>0.4775</v>
       </c>
       <c r="D102" s="35" t="n">
-        <v>2046.97</v>
+        <v>13403.92</v>
       </c>
       <c r="E102" s="35" t="n">
-        <v>3250.58</v>
+        <v>3228.34</v>
       </c>
       <c r="F102" s="35" t="n">
-        <v>538.47</v>
+        <v>28.34</v>
       </c>
       <c r="G102" s="36" t="inlineStr">
         <is>
@@ -5245,17 +5245,17 @@
       </c>
       <c r="H102" s="36" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I102" s="36" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>中证环保</t>
         </is>
       </c>
       <c r="J102" s="36" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>143</t>
         </is>
       </c>
       <c r="K102" s="36" t="inlineStr">
@@ -5267,42 +5267,42 @@
     <row r="103">
       <c r="A103" s="32" t="inlineStr">
         <is>
-          <t>广发中证环保ETF联接A</t>
+          <t>易方达安心回报债券A</t>
         </is>
       </c>
       <c r="B103" s="33" t="n">
-        <v>1064</v>
+        <v>110027</v>
       </c>
       <c r="C103" s="34" t="n">
-        <v>0.5379</v>
+        <v>1.5931</v>
       </c>
       <c r="D103" s="35" t="n">
-        <v>5949.77</v>
+        <v>20086.63</v>
       </c>
       <c r="E103" s="35" t="n">
-        <v>3204.54</v>
+        <v>2931.07</v>
       </c>
       <c r="F103" s="35" t="n">
-        <v>4.54</v>
+        <v>140.07</v>
       </c>
       <c r="G103" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="H103" s="36" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="I103" s="36" t="inlineStr">
         <is>
-          <t>中证环保</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="J103" s="36" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>411</t>
         </is>
       </c>
       <c r="K103" s="36" t="inlineStr">
@@ -5314,42 +5314,42 @@
     <row r="104">
       <c r="A104" s="32" t="inlineStr">
         <is>
-          <t>易方达安心回报债券A</t>
+          <t>华安德国30(DAX)联接</t>
         </is>
       </c>
       <c r="B104" s="33" t="n">
-        <v>110027</v>
+        <v>614</v>
       </c>
       <c r="C104" s="34" t="n">
-        <v>1.6007</v>
+        <v>1.091</v>
       </c>
       <c r="D104" s="35" t="n">
-        <v>1743.65</v>
+        <v>20716.63</v>
       </c>
       <c r="E104" s="35" t="n">
-        <v>2931.07</v>
+        <v>2278.65</v>
       </c>
       <c r="F104" s="35" t="n">
-        <v>140.07</v>
+        <v>278.65</v>
       </c>
       <c r="G104" s="36" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>海外成熟</t>
         </is>
       </c>
       <c r="H104" s="36" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>海外成熟</t>
         </is>
       </c>
       <c r="I104" s="36" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>德国30</t>
         </is>
       </c>
       <c r="J104" s="36" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>311</t>
         </is>
       </c>
       <c r="K104" s="36" t="inlineStr">
@@ -5361,42 +5361,42 @@
     <row r="105">
       <c r="A105" s="32" t="inlineStr">
         <is>
-          <t>华安德国30(DAX)联接</t>
+          <t>易方达创业板ETF联接A</t>
         </is>
       </c>
       <c r="B105" s="33" t="n">
-        <v>614</v>
+        <v>110026</v>
       </c>
       <c r="C105" s="34" t="n">
-        <v>1.0612</v>
+        <v>1.3359</v>
       </c>
       <c r="D105" s="35" t="n">
-        <v>1884.74</v>
+        <v>4791.13</v>
       </c>
       <c r="E105" s="35" t="n">
-        <v>2263.57</v>
+        <v>2103.37</v>
       </c>
       <c r="F105" s="35" t="n">
-        <v>263.57</v>
+        <v>503.37</v>
       </c>
       <c r="G105" s="36" t="inlineStr">
         <is>
-          <t>海外成熟</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H105" s="36" t="inlineStr">
         <is>
-          <t>海外成熟</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I105" s="36" t="inlineStr">
         <is>
-          <t>德国30</t>
+          <t>创业板</t>
         </is>
       </c>
       <c r="J105" s="36" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>124</t>
         </is>
       </c>
       <c r="K105" s="36" t="inlineStr">
@@ -5408,42 +5408,42 @@
     <row r="106">
       <c r="A106" s="32" t="inlineStr">
         <is>
-          <t>易方达创业板ETF联接A</t>
+          <t>兴全可转债混合</t>
         </is>
       </c>
       <c r="B106" s="33" t="n">
-        <v>110026</v>
+        <v>340001</v>
       </c>
       <c r="C106" s="34" t="n">
-        <v>1.319</v>
+        <v>0.9886</v>
       </c>
       <c r="D106" s="35" t="n">
-        <v>1213.09</v>
+        <v>32370.29</v>
       </c>
       <c r="E106" s="35" t="n">
-        <v>2110.41</v>
+        <v>1867.25</v>
       </c>
       <c r="F106" s="35" t="n">
-        <v>510.41</v>
+        <v>267.25</v>
       </c>
       <c r="G106" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="H106" s="36" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="I106" s="36" t="inlineStr">
         <is>
-          <t>创业板</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="J106" s="36" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>411</t>
         </is>
       </c>
       <c r="K106" s="36" t="inlineStr">
@@ -5455,42 +5455,42 @@
     <row r="107">
       <c r="A107" s="32" t="inlineStr">
         <is>
-          <t>兴全可转债混合</t>
+          <t>交银中证海外中国互联网指数</t>
         </is>
       </c>
       <c r="B107" s="33" t="n">
-        <v>340001</v>
+        <v>164906</v>
       </c>
       <c r="C107" s="34" t="n">
-        <v>0.9816</v>
+        <v>1.1444</v>
       </c>
       <c r="D107" s="35" t="n">
-        <v>1630.08</v>
+        <v>16778.47</v>
       </c>
       <c r="E107" s="35" t="n">
-        <v>1865.95</v>
+        <v>1851.99</v>
       </c>
       <c r="F107" s="35" t="n">
-        <v>265.95</v>
+        <v>251.99</v>
       </c>
       <c r="G107" s="36" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H107" s="36" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>海外互联</t>
         </is>
       </c>
       <c r="I107" s="36" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>海外互联网</t>
         </is>
       </c>
       <c r="J107" s="36" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>213</t>
         </is>
       </c>
       <c r="K107" s="36" t="inlineStr">
@@ -5502,42 +5502,42 @@
     <row r="108">
       <c r="A108" s="32" t="inlineStr">
         <is>
-          <t>交银中证海外中国互联网指数</t>
+          <t>华夏上证50ETF联接A</t>
         </is>
       </c>
       <c r="B108" s="33" t="n">
-        <v>164906</v>
+        <v>1051</v>
       </c>
       <c r="C108" s="34" t="n">
-        <v>1.137</v>
+        <v>0</v>
       </c>
       <c r="D108" s="35" t="n">
-        <v>1407.29</v>
+        <v>0</v>
       </c>
       <c r="E108" s="35" t="n">
-        <v>1752.07</v>
+        <v>1343.81</v>
       </c>
       <c r="F108" s="35" t="n">
-        <v>152.07</v>
+        <v>143.81</v>
       </c>
       <c r="G108" s="36" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H108" s="36" t="inlineStr">
         <is>
-          <t>海外互联</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I108" s="36" t="inlineStr">
         <is>
-          <t>海外互联网</t>
+          <t>上证50</t>
         </is>
       </c>
       <c r="J108" s="36" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>111</t>
         </is>
       </c>
       <c r="K108" s="36" t="inlineStr">
@@ -5549,42 +5549,42 @@
     <row r="109">
       <c r="A109" s="32" t="inlineStr">
         <is>
-          <t>华夏上证50ETF联接A</t>
+          <t>华宝标普油气上游股票</t>
         </is>
       </c>
       <c r="B109" s="33" t="n">
-        <v>1051</v>
+        <v>162411</v>
       </c>
       <c r="C109" s="34" t="n">
-        <v>0.8966</v>
+        <v>0.5152</v>
       </c>
       <c r="D109" s="35" t="n">
-        <v>1338.46</v>
+        <v>37267.45</v>
       </c>
       <c r="E109" s="35" t="n">
-        <v>1339.79</v>
+        <v>1249.81</v>
       </c>
       <c r="F109" s="35" t="n">
-        <v>139.79</v>
+        <v>-350.19</v>
       </c>
       <c r="G109" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="H109" s="36" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="I109" s="36" t="inlineStr">
         <is>
-          <t>上证50</t>
+          <t>原油</t>
         </is>
       </c>
       <c r="J109" s="36" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>512</t>
         </is>
       </c>
       <c r="K109" s="36" t="inlineStr">
@@ -5596,42 +5596,42 @@
     <row r="110">
       <c r="A110" s="32" t="inlineStr">
         <is>
-          <t>华宝标普油气上游股票</t>
+          <t>华宝中证1000指数分级</t>
         </is>
       </c>
       <c r="B110" s="33" t="n">
-        <v>162411</v>
+        <v>162413</v>
       </c>
       <c r="C110" s="34" t="n">
-        <v>0.4776</v>
+        <v>0</v>
       </c>
       <c r="D110" s="35" t="n">
-        <v>3350.7</v>
+        <v>0</v>
       </c>
       <c r="E110" s="35" t="n">
-        <v>1253.16</v>
+        <v>1180.02</v>
       </c>
       <c r="F110" s="35" t="n">
-        <v>-346.84</v>
+        <v>-19.98</v>
       </c>
       <c r="G110" s="36" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H110" s="36" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I110" s="36" t="inlineStr">
         <is>
-          <t>原油</t>
+          <t>中证1000</t>
         </is>
       </c>
       <c r="J110" s="36" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>123</t>
         </is>
       </c>
       <c r="K110" s="36" t="inlineStr">
@@ -5643,23 +5643,23 @@
     <row r="111">
       <c r="A111" s="32" t="inlineStr">
         <is>
-          <t>华宝中证1000指数分级</t>
+          <t>广发中证全指金融地产联接A</t>
         </is>
       </c>
       <c r="B111" s="33" t="n">
-        <v>162413</v>
+        <v>1469</v>
       </c>
       <c r="C111" s="34" t="n">
-        <v>0.8027</v>
+        <v>0.9073</v>
       </c>
       <c r="D111" s="35" t="n">
-        <v>1495.03</v>
+        <v>21163.93</v>
       </c>
       <c r="E111" s="35" t="n">
-        <v>1190.19</v>
+        <v>971.65</v>
       </c>
       <c r="F111" s="35" t="n">
-        <v>-9.81</v>
+        <v>171.65</v>
       </c>
       <c r="G111" s="36" t="inlineStr">
         <is>
@@ -5668,17 +5668,17 @@
       </c>
       <c r="H111" s="36" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I111" s="36" t="inlineStr">
         <is>
-          <t>中证1000</t>
+          <t>金融地产</t>
         </is>
       </c>
       <c r="J111" s="36" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>146</t>
         </is>
       </c>
       <c r="K111" s="36" t="inlineStr">
@@ -5690,42 +5690,42 @@
     <row r="112">
       <c r="A112" s="32" t="inlineStr">
         <is>
-          <t>广发中证全指金融地产联接A</t>
+          <t>华安黄金易ETF联接A</t>
         </is>
       </c>
       <c r="B112" s="33" t="n">
-        <v>1469</v>
+        <v>216</v>
       </c>
       <c r="C112" s="34" t="n">
-        <v>0.8885999999999999</v>
+        <v>0</v>
       </c>
       <c r="D112" s="35" t="n">
-        <v>900.35</v>
+        <v>0</v>
       </c>
       <c r="E112" s="35" t="n">
-        <v>970.39</v>
+        <v>887.37</v>
       </c>
       <c r="F112" s="35" t="n">
-        <v>170.39</v>
+        <v>87.37</v>
       </c>
       <c r="G112" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="H112" s="36" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="I112" s="36" t="inlineStr">
         <is>
-          <t>金融地产</t>
+          <t>黄金</t>
         </is>
       </c>
       <c r="J112" s="36" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>511</t>
         </is>
       </c>
       <c r="K112" s="36" t="inlineStr">
@@ -5737,42 +5737,42 @@
     <row r="113">
       <c r="A113" s="32" t="inlineStr">
         <is>
-          <t>华安黄金易ETF联接A</t>
+          <t>易方达证券公司分级</t>
         </is>
       </c>
       <c r="B113" s="33" t="n">
-        <v>216</v>
+        <v>502010</v>
       </c>
       <c r="C113" s="34" t="n">
-        <v>1.0903</v>
+        <v>0</v>
       </c>
       <c r="D113" s="35" t="n">
-        <v>733.79</v>
+        <v>0</v>
       </c>
       <c r="E113" s="35" t="n">
-        <v>896.17</v>
+        <v>476.83</v>
       </c>
       <c r="F113" s="35" t="n">
-        <v>96.17</v>
+        <v>76.83</v>
       </c>
       <c r="G113" s="36" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H113" s="36" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I113" s="36" t="inlineStr">
         <is>
-          <t>黄金</t>
+          <t>证券公司</t>
         </is>
       </c>
       <c r="J113" s="36" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>145</t>
         </is>
       </c>
       <c r="K113" s="36" t="inlineStr">
@@ -5784,23 +5784,23 @@
     <row r="114">
       <c r="A114" s="32" t="inlineStr">
         <is>
-          <t>易方达证券公司分级</t>
+          <t>广发创业板ETF联接A</t>
         </is>
       </c>
       <c r="B114" s="33" t="n">
-        <v>502010</v>
+        <v>3765</v>
       </c>
       <c r="C114" s="34" t="n">
-        <v>0.8063</v>
+        <v>0</v>
       </c>
       <c r="D114" s="35" t="n">
-        <v>496.13</v>
+        <v>0</v>
       </c>
       <c r="E114" s="35" t="n">
-        <v>478.26</v>
+        <v>463.85</v>
       </c>
       <c r="F114" s="35" t="n">
-        <v>78.26000000000001</v>
+        <v>63.85</v>
       </c>
       <c r="G114" s="36" t="inlineStr">
         <is>
@@ -5809,17 +5809,17 @@
       </c>
       <c r="H114" s="36" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I114" s="36" t="inlineStr">
         <is>
-          <t>证券公司</t>
+          <t>创业板</t>
         </is>
       </c>
       <c r="J114" s="36" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>124</t>
         </is>
       </c>
       <c r="K114" s="36" t="inlineStr">
@@ -5831,42 +5831,42 @@
     <row r="115">
       <c r="A115" s="32" t="inlineStr">
         <is>
-          <t>广发创业板ETF联接A</t>
+          <t>长信可转债债券A</t>
         </is>
       </c>
       <c r="B115" s="33" t="n">
-        <v>3765</v>
+        <v>519977</v>
       </c>
       <c r="C115" s="34" t="n">
-        <v>0.8121</v>
+        <v>1.2011</v>
       </c>
       <c r="D115" s="35" t="n">
-        <v>492.57</v>
+        <v>5328.62</v>
       </c>
       <c r="E115" s="35" t="n">
-        <v>465.77</v>
+        <v>451.86</v>
       </c>
       <c r="F115" s="35" t="n">
-        <v>65.77</v>
+        <v>51.86</v>
       </c>
       <c r="G115" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="H115" s="36" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="I115" s="36" t="inlineStr">
         <is>
-          <t>创业板</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="J115" s="36" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>411</t>
         </is>
       </c>
       <c r="K115" s="36" t="inlineStr">
@@ -5878,42 +5878,42 @@
     <row r="116">
       <c r="A116" s="32" t="inlineStr">
         <is>
-          <t>长信可转债债券A</t>
+          <t>华夏沪深300ETF联接A</t>
         </is>
       </c>
       <c r="B116" s="33" t="n">
-        <v>519977</v>
+        <v>51</v>
       </c>
       <c r="C116" s="34" t="n">
-        <v>1.2011</v>
+        <v>0</v>
       </c>
       <c r="D116" s="35" t="n">
-        <v>333.04</v>
+        <v>0</v>
       </c>
       <c r="E116" s="35" t="n">
-        <v>452</v>
+        <v>421.66</v>
       </c>
       <c r="F116" s="35" t="n">
-        <v>52</v>
+        <v>21.66</v>
       </c>
       <c r="G116" s="36" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H116" s="36" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I116" s="36" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>沪深300</t>
         </is>
       </c>
       <c r="J116" s="36" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>113</t>
         </is>
       </c>
       <c r="K116" s="36" t="inlineStr">
@@ -5925,42 +5925,42 @@
     <row r="117">
       <c r="A117" s="32" t="inlineStr">
         <is>
-          <t>华夏沪深300ETF联接A</t>
+          <t>华夏恒生ETF联接A</t>
         </is>
       </c>
       <c r="B117" s="33" t="n">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="C117" s="34" t="n">
-        <v>1.2285</v>
+        <v>1.4562</v>
       </c>
       <c r="D117" s="35" t="n">
-        <v>325.61</v>
+        <v>6798.52</v>
       </c>
       <c r="E117" s="35" t="n">
-        <v>420.36</v>
+        <v>414.58</v>
       </c>
       <c r="F117" s="35" t="n">
-        <v>20.36</v>
+        <v>14.58</v>
       </c>
       <c r="G117" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H117" s="36" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="I117" s="36" t="inlineStr">
         <is>
-          <t>沪深300</t>
+          <t>恒生</t>
         </is>
       </c>
       <c r="J117" s="36" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>211</t>
         </is>
       </c>
       <c r="K117" s="36" t="inlineStr">
@@ -5972,92 +5972,45 @@
     <row r="118">
       <c r="A118" s="32" t="inlineStr">
         <is>
-          <t>华夏恒生ETF联接A</t>
+          <t>广发中证500ETF联接C</t>
         </is>
       </c>
       <c r="B118" s="33" t="n">
-        <v>71</v>
+        <v>2903</v>
       </c>
       <c r="C118" s="34" t="n">
-        <v>1.452</v>
+        <v>0.9</v>
       </c>
       <c r="D118" s="35" t="n">
-        <v>275.49</v>
+        <v>7778.64</v>
       </c>
       <c r="E118" s="35" t="n">
-        <v>410.81</v>
+        <v>236.96</v>
       </c>
       <c r="F118" s="35" t="n">
-        <v>10.81</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G118" s="36" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H118" s="36" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I118" s="36" t="inlineStr">
         <is>
-          <t>恒生</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="J118" s="36" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>121</t>
         </is>
       </c>
       <c r="K118" s="36" t="inlineStr">
-        <is>
-          <t>母天天基金</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="32" t="inlineStr">
-        <is>
-          <t>广发中证500ETF联接C</t>
-        </is>
-      </c>
-      <c r="B119" s="33" t="n">
-        <v>2903</v>
-      </c>
-      <c r="C119" s="34" t="n">
-        <v>0.829</v>
-      </c>
-      <c r="D119" s="35" t="n">
-        <v>275.96</v>
-      </c>
-      <c r="E119" s="35" t="n">
-        <v>237.71</v>
-      </c>
-      <c r="F119" s="35" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="G119" s="36" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H119" s="36" t="inlineStr">
-        <is>
-          <t>中小盘股</t>
-        </is>
-      </c>
-      <c r="I119" s="36" t="inlineStr">
-        <is>
-          <t>中证500</t>
-        </is>
-      </c>
-      <c r="J119" s="36" t="inlineStr">
-        <is>
-          <t>121</t>
-        </is>
-      </c>
-      <c r="K119" s="36" t="inlineStr">
         <is>
           <t>母天天基金</t>
         </is>

--- a/Portfolio/scripts/output/201911/全家/全家整体资产配置.xlsx
+++ b/Portfolio/scripts/output/201911/全家/全家整体资产配置.xlsx
@@ -530,13 +530,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>129771.83</v>
+        <v>129774.17</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>129771.83</v>
+        <v>129774.17</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>5795.69</v>
+        <v>5802.88</v>
       </c>
       <c r="G2" s="6" t="inlineStr">
         <is>
@@ -627,10 +627,10 @@
         <v>2280.92</v>
       </c>
       <c r="E4" s="10" t="n">
-        <v>3667.72</v>
+        <v>3660.88</v>
       </c>
       <c r="F4" s="10" t="n">
-        <v>-101.61</v>
+        <v>-108.45</v>
       </c>
       <c r="G4" s="11" t="inlineStr">
         <is>
@@ -674,10 +674,10 @@
         <v>2540.22</v>
       </c>
       <c r="E5" s="10" t="n">
-        <v>3632.51</v>
+        <v>3614.73</v>
       </c>
       <c r="F5" s="10" t="n">
-        <v>9.130000000000001</v>
+        <v>-8.65</v>
       </c>
       <c r="G5" s="11" t="inlineStr">
         <is>
@@ -721,10 +721,10 @@
         <v>2260.14</v>
       </c>
       <c r="E6" s="10" t="n">
-        <v>3301.61</v>
+        <v>3235.62</v>
       </c>
       <c r="F6" s="10" t="n">
-        <v>254.67</v>
+        <v>188.68</v>
       </c>
       <c r="G6" s="11" t="inlineStr">
         <is>
@@ -768,10 +768,10 @@
         <v>3390.61</v>
       </c>
       <c r="E7" s="10" t="n">
-        <v>3082.4</v>
+        <v>3092.91</v>
       </c>
       <c r="F7" s="10" t="n">
-        <v>-83.01000000000001</v>
+        <v>-72.5</v>
       </c>
       <c r="G7" s="11" t="inlineStr">
         <is>
@@ -815,10 +815,10 @@
         <v>1314.93</v>
       </c>
       <c r="E8" s="10" t="n">
-        <v>2419.47</v>
+        <v>2411.58</v>
       </c>
       <c r="F8" s="10" t="n">
-        <v>57.15</v>
+        <v>49.26</v>
       </c>
       <c r="G8" s="11" t="inlineStr">
         <is>
@@ -862,10 +862,10 @@
         <v>973.88</v>
       </c>
       <c r="E9" s="10" t="n">
-        <v>2082.64</v>
+        <v>2075.44</v>
       </c>
       <c r="F9" s="10" t="n">
-        <v>16.31</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="G9" s="11" t="inlineStr">
         <is>
@@ -909,10 +909,10 @@
         <v>887.74</v>
       </c>
       <c r="E10" s="10" t="n">
-        <v>840.6</v>
+        <v>835.9</v>
       </c>
       <c r="F10" s="10" t="n">
-        <v>-12.08</v>
+        <v>-16.78</v>
       </c>
       <c r="G10" s="11" t="inlineStr">
         <is>
@@ -956,10 +956,10 @@
         <v>550.4</v>
       </c>
       <c r="E11" s="10" t="n">
-        <v>513.3</v>
+        <v>512.59</v>
       </c>
       <c r="F11" s="10" t="n">
-        <v>-27.59</v>
+        <v>-28.3</v>
       </c>
       <c r="G11" s="11" t="inlineStr">
         <is>
@@ -1003,10 +1003,10 @@
         <v>531.87</v>
       </c>
       <c r="E12" s="10" t="n">
-        <v>410.5</v>
+        <v>405.18</v>
       </c>
       <c r="F12" s="10" t="n">
-        <v>53.72</v>
+        <v>48.4</v>
       </c>
       <c r="G12" s="11" t="inlineStr">
         <is>
@@ -1050,10 +1050,10 @@
         <v>247.91</v>
       </c>
       <c r="E13" s="10" t="n">
-        <v>326.5</v>
+        <v>320.3</v>
       </c>
       <c r="F13" s="10" t="n">
-        <v>13.24</v>
+        <v>7.04</v>
       </c>
       <c r="G13" s="11" t="inlineStr">
         <is>
@@ -1097,10 +1097,10 @@
         <v>60.61</v>
       </c>
       <c r="E14" s="10" t="n">
-        <v>87.28</v>
+        <v>86.86</v>
       </c>
       <c r="F14" s="10" t="n">
-        <v>-5.43</v>
+        <v>-5.85</v>
       </c>
       <c r="G14" s="11" t="inlineStr">
         <is>
@@ -1285,10 +1285,10 @@
         <v>16731.88</v>
       </c>
       <c r="E18" s="20" t="n">
-        <v>9078.709999999999</v>
+        <v>9097.120000000001</v>
       </c>
       <c r="F18" s="20" t="n">
-        <v>-2921.28</v>
+        <v>-2902.88</v>
       </c>
       <c r="G18" s="21" t="inlineStr">
         <is>
@@ -1332,10 +1332,10 @@
         <v>2700</v>
       </c>
       <c r="E19" s="25" t="n">
-        <v>8040.6</v>
+        <v>7932.6</v>
       </c>
       <c r="F19" s="25" t="n">
-        <v>1730.7</v>
+        <v>1622.7</v>
       </c>
       <c r="G19" s="26" t="inlineStr">
         <is>
@@ -1379,10 +1379,10 @@
         <v>9100</v>
       </c>
       <c r="E20" s="25" t="n">
-        <v>35763</v>
+        <v>35371.7</v>
       </c>
       <c r="F20" s="25" t="n">
-        <v>4395.3</v>
+        <v>4004</v>
       </c>
       <c r="G20" s="26" t="inlineStr">
         <is>
@@ -1473,10 +1473,10 @@
         <v>33800</v>
       </c>
       <c r="E22" s="25" t="n">
-        <v>24403.6</v>
+        <v>24505</v>
       </c>
       <c r="F22" s="25" t="n">
-        <v>-5239</v>
+        <v>-5137.6</v>
       </c>
       <c r="G22" s="26" t="inlineStr">
         <is>
@@ -1520,10 +1520,10 @@
         <v>32700</v>
       </c>
       <c r="E23" s="25" t="n">
-        <v>29266.5</v>
+        <v>29364.6</v>
       </c>
       <c r="F23" s="25" t="n">
-        <v>3662.4</v>
+        <v>3760.5</v>
       </c>
       <c r="G23" s="26" t="inlineStr">
         <is>
@@ -1567,10 +1567,10 @@
         <v>34100</v>
       </c>
       <c r="E24" s="25" t="n">
-        <v>25404.5</v>
+        <v>25472.7</v>
       </c>
       <c r="F24" s="25" t="n">
-        <v>-4228.4</v>
+        <v>-4160.2</v>
       </c>
       <c r="G24" s="26" t="inlineStr">
         <is>
@@ -1614,10 +1614,10 @@
         <v>4500</v>
       </c>
       <c r="E25" s="25" t="n">
-        <v>14674.5</v>
+        <v>14692.5</v>
       </c>
       <c r="F25" s="25" t="n">
-        <v>1822.5</v>
+        <v>1840.5</v>
       </c>
       <c r="G25" s="26" t="inlineStr">
         <is>
@@ -1661,10 +1661,10 @@
         <v>9200</v>
       </c>
       <c r="E26" s="25" t="n">
-        <v>14821.2</v>
+        <v>14720</v>
       </c>
       <c r="F26" s="25" t="n">
-        <v>1950.4</v>
+        <v>1849.2</v>
       </c>
       <c r="G26" s="26" t="inlineStr">
         <is>
@@ -1708,10 +1708,10 @@
         <v>14400</v>
       </c>
       <c r="E27" s="25" t="n">
-        <v>19569.6</v>
+        <v>19209.6</v>
       </c>
       <c r="F27" s="25" t="n">
-        <v>1267.2</v>
+        <v>907.2</v>
       </c>
       <c r="G27" s="26" t="inlineStr">
         <is>
@@ -1755,10 +1755,10 @@
         <v>3813.64</v>
       </c>
       <c r="E28" s="30" t="n">
-        <v>7368.33</v>
+        <v>7369.86</v>
       </c>
       <c r="F28" s="30" t="n">
-        <v>31.33</v>
+        <v>32.86</v>
       </c>
       <c r="G28" s="31" t="inlineStr">
         <is>
@@ -1802,10 +1802,10 @@
         <v>9722</v>
       </c>
       <c r="E29" s="30" t="n">
-        <v>5275.16</v>
+        <v>5285.85</v>
       </c>
       <c r="F29" s="30" t="n">
-        <v>-60.84</v>
+        <v>-50.15</v>
       </c>
       <c r="G29" s="31" t="inlineStr">
         <is>
@@ -1849,10 +1849,10 @@
         <v>4943.96</v>
       </c>
       <c r="E30" s="30" t="n">
-        <v>4681.44</v>
+        <v>4655.23</v>
       </c>
       <c r="F30" s="30" t="n">
-        <v>12.44</v>
+        <v>-13.77</v>
       </c>
       <c r="G30" s="31" t="inlineStr">
         <is>
@@ -1943,10 +1943,10 @@
         <v>3665.01</v>
       </c>
       <c r="E32" s="30" t="n">
-        <v>4002.19</v>
+        <v>3991.2</v>
       </c>
       <c r="F32" s="30" t="n">
-        <v>0.19</v>
+        <v>-10.8</v>
       </c>
       <c r="G32" s="31" t="inlineStr">
         <is>
@@ -1990,10 +1990,10 @@
         <v>4550.55</v>
       </c>
       <c r="E33" s="30" t="n">
-        <v>3405.18</v>
+        <v>3420.19</v>
       </c>
       <c r="F33" s="30" t="n">
-        <v>70.18000000000001</v>
+        <v>85.19</v>
       </c>
       <c r="G33" s="31" t="inlineStr">
         <is>
@@ -2037,10 +2037,10 @@
         <v>400.63</v>
       </c>
       <c r="E34" s="30" t="n">
-        <v>694.65</v>
+        <v>691.17</v>
       </c>
       <c r="F34" s="30" t="n">
-        <v>27.65</v>
+        <v>24.17</v>
       </c>
       <c r="G34" s="31" t="inlineStr">
         <is>
@@ -2084,10 +2084,10 @@
         <v>736.3</v>
       </c>
       <c r="E35" s="30" t="n">
-        <v>693.37</v>
+        <v>690.0599999999999</v>
       </c>
       <c r="F35" s="30" t="n">
-        <v>26.37</v>
+        <v>23.06</v>
       </c>
       <c r="G35" s="31" t="inlineStr">
         <is>
@@ -2131,10 +2131,10 @@
         <v>473.85</v>
       </c>
       <c r="E36" s="30" t="n">
-        <v>455.42</v>
+        <v>457.17</v>
       </c>
       <c r="F36" s="30" t="n">
-        <v>-11.48</v>
+        <v>-9.73</v>
       </c>
       <c r="G36" s="31" t="inlineStr">
         <is>
@@ -2225,10 +2225,10 @@
         <v>576.8</v>
       </c>
       <c r="E38" s="30" t="n">
-        <v>759.0700000000001</v>
+        <v>760.22</v>
       </c>
       <c r="F38" s="30" t="n">
-        <v>92.06999999999999</v>
+        <v>93.22</v>
       </c>
       <c r="G38" s="31" t="inlineStr">
         <is>
@@ -2272,10 +2272,10 @@
         <v>459.67</v>
       </c>
       <c r="E39" s="30" t="n">
-        <v>691.76</v>
+        <v>678.79</v>
       </c>
       <c r="F39" s="30" t="n">
-        <v>24.76</v>
+        <v>11.79</v>
       </c>
       <c r="G39" s="31" t="inlineStr">
         <is>
@@ -2319,10 +2319,10 @@
         <v>611.75</v>
       </c>
       <c r="E40" s="30" t="n">
-        <v>739.61</v>
+        <v>735.9400000000001</v>
       </c>
       <c r="F40" s="30" t="n">
-        <v>72.61</v>
+        <v>68.94</v>
       </c>
       <c r="G40" s="31" t="inlineStr">
         <is>
@@ -2366,10 +2366,10 @@
         <v>1046.73</v>
       </c>
       <c r="E41" s="30" t="n">
-        <v>2022.39</v>
+        <v>2022.81</v>
       </c>
       <c r="F41" s="30" t="n">
-        <v>22.39</v>
+        <v>22.81</v>
       </c>
       <c r="G41" s="31" t="inlineStr">
         <is>
@@ -2413,10 +2413,10 @@
         <v>1825.9</v>
       </c>
       <c r="E42" s="30" t="n">
-        <v>1993.88</v>
+        <v>1988.41</v>
       </c>
       <c r="F42" s="30" t="n">
-        <v>-6.12</v>
+        <v>-11.59</v>
       </c>
       <c r="G42" s="31" t="inlineStr">
         <is>
@@ -2460,10 +2460,10 @@
         <v>1059.17</v>
       </c>
       <c r="E43" s="30" t="n">
-        <v>1063.41</v>
+        <v>1050.7</v>
       </c>
       <c r="F43" s="30" t="n">
-        <v>63.41</v>
+        <v>50.7</v>
       </c>
       <c r="G43" s="31" t="inlineStr">
         <is>
@@ -2554,10 +2554,10 @@
         <v>1227.03</v>
       </c>
       <c r="E45" s="30" t="n">
-        <v>918.1900000000001</v>
+        <v>922.24</v>
       </c>
       <c r="F45" s="30" t="n">
-        <v>-81.81</v>
+        <v>-77.76000000000001</v>
       </c>
       <c r="G45" s="31" t="inlineStr">
         <is>
@@ -2588,42 +2588,42 @@
     <row r="46">
       <c r="A46" s="27" t="inlineStr">
         <is>
-          <t>交银中证海外中国互联网指数</t>
+          <t>华安黄金易ETF联接A</t>
         </is>
       </c>
       <c r="B46" s="28" t="n">
-        <v>164906</v>
+        <v>216</v>
       </c>
       <c r="C46" s="29" t="n">
-        <v>1.1113</v>
+        <v>1.0902</v>
       </c>
       <c r="D46" s="30" t="n">
-        <v>899.8200000000001</v>
+        <v>1834.47</v>
       </c>
       <c r="E46" s="30" t="n">
-        <v>1184.16</v>
+        <v>2225.4</v>
       </c>
       <c r="F46" s="30" t="n">
-        <v>184.16</v>
+        <v>225.4</v>
       </c>
       <c r="G46" s="31" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="H46" s="31" t="inlineStr">
         <is>
-          <t>海外互联</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="I46" s="31" t="inlineStr">
         <is>
-          <t>海外互联网</t>
+          <t>黄金</t>
         </is>
       </c>
       <c r="J46" s="31" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>511</t>
         </is>
       </c>
       <c r="K46" s="31" t="inlineStr">
@@ -2635,23 +2635,23 @@
     <row r="47">
       <c r="A47" s="27" t="inlineStr">
         <is>
-          <t>华夏恒生ETF联接A</t>
+          <t>交银中证海外中国互联网指数</t>
         </is>
       </c>
       <c r="B47" s="28" t="n">
-        <v>71</v>
+        <v>164906</v>
       </c>
       <c r="C47" s="29" t="n">
-        <v>1.4513</v>
+        <v>1.1113</v>
       </c>
       <c r="D47" s="30" t="n">
-        <v>689.02</v>
+        <v>899.8200000000001</v>
       </c>
       <c r="E47" s="30" t="n">
-        <v>1036.91</v>
+        <v>1185.96</v>
       </c>
       <c r="F47" s="30" t="n">
-        <v>36.91</v>
+        <v>185.96</v>
       </c>
       <c r="G47" s="31" t="inlineStr">
         <is>
@@ -2660,17 +2660,17 @@
       </c>
       <c r="H47" s="31" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>海外互联</t>
         </is>
       </c>
       <c r="I47" s="31" t="inlineStr">
         <is>
-          <t>恒生</t>
+          <t>海外互联网</t>
         </is>
       </c>
       <c r="J47" s="31" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>213</t>
         </is>
       </c>
       <c r="K47" s="31" t="inlineStr">
@@ -2682,42 +2682,42 @@
     <row r="48">
       <c r="A48" s="27" t="inlineStr">
         <is>
-          <t>华安黄金易ETF联接A</t>
+          <t>华夏恒生ETF联接A</t>
         </is>
       </c>
       <c r="B48" s="28" t="n">
-        <v>216</v>
+        <v>71</v>
       </c>
       <c r="C48" s="29" t="n">
-        <v>1.0902</v>
+        <v>1.4513</v>
       </c>
       <c r="D48" s="30" t="n">
-        <v>1834.47</v>
+        <v>689.02</v>
       </c>
       <c r="E48" s="30" t="n">
-        <v>2218.42</v>
+        <v>1017.48</v>
       </c>
       <c r="F48" s="30" t="n">
-        <v>218.42</v>
+        <v>17.48</v>
       </c>
       <c r="G48" s="31" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H48" s="31" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="I48" s="31" t="inlineStr">
         <is>
-          <t>黄金</t>
+          <t>恒生</t>
         </is>
       </c>
       <c r="J48" s="31" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>211</t>
         </is>
       </c>
       <c r="K48" s="31" t="inlineStr">
@@ -2789,10 +2789,10 @@
         <v>953.96</v>
       </c>
       <c r="E50" s="30" t="n">
-        <v>1153.34</v>
+        <v>1147.61</v>
       </c>
       <c r="F50" s="30" t="n">
-        <v>153.34</v>
+        <v>147.61</v>
       </c>
       <c r="G50" s="31" t="inlineStr">
         <is>
@@ -2836,10 +2836,10 @@
         <v>65064.33</v>
       </c>
       <c r="E51" s="35" t="n">
-        <v>71050.24000000001</v>
+        <v>70855.05</v>
       </c>
       <c r="F51" s="35" t="n">
-        <v>4730.24</v>
+        <v>4535.05</v>
       </c>
       <c r="G51" s="36" t="inlineStr">
         <is>
@@ -2883,10 +2883,10 @@
         <v>63490</v>
       </c>
       <c r="E52" s="35" t="n">
-        <v>60118.68</v>
+        <v>59782.18</v>
       </c>
       <c r="F52" s="35" t="n">
-        <v>1918.68</v>
+        <v>1582.18</v>
       </c>
       <c r="G52" s="36" t="inlineStr">
         <is>
@@ -2930,10 +2930,10 @@
         <v>32370.29</v>
       </c>
       <c r="E53" s="35" t="n">
-        <v>37080.16</v>
+        <v>37018.66</v>
       </c>
       <c r="F53" s="35" t="n">
-        <v>5080.16</v>
+        <v>5018.66</v>
       </c>
       <c r="G53" s="36" t="inlineStr">
         <is>
@@ -2977,10 +2977,10 @@
         <v>41014.88</v>
       </c>
       <c r="E54" s="35" t="n">
-        <v>34760.11</v>
+        <v>34148.98</v>
       </c>
       <c r="F54" s="35" t="n">
-        <v>4200.11</v>
+        <v>3588.98</v>
       </c>
       <c r="G54" s="36" t="inlineStr">
         <is>
@@ -3024,10 +3024,10 @@
         <v>20086.63</v>
       </c>
       <c r="E55" s="35" t="n">
-        <v>33765.62</v>
+        <v>33685.27</v>
       </c>
       <c r="F55" s="35" t="n">
-        <v>1765.62</v>
+        <v>1685.27</v>
       </c>
       <c r="G55" s="36" t="inlineStr">
         <is>
@@ -3118,10 +3118,10 @@
         <v>14624.61</v>
       </c>
       <c r="E57" s="35" t="n">
-        <v>23530.99</v>
+        <v>23340.87</v>
       </c>
       <c r="F57" s="35" t="n">
-        <v>4330.99</v>
+        <v>4140.87</v>
       </c>
       <c r="G57" s="36" t="inlineStr">
         <is>
@@ -3165,10 +3165,10 @@
         <v>21163.93</v>
       </c>
       <c r="E58" s="35" t="n">
-        <v>22840.11</v>
+        <v>22763.92</v>
       </c>
       <c r="F58" s="35" t="n">
-        <v>3640.11</v>
+        <v>3563.92</v>
       </c>
       <c r="G58" s="36" t="inlineStr">
         <is>
@@ -3212,10 +3212,10 @@
         <v>16778.47</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>22080.46</v>
+        <v>22114.02</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>2880.46</v>
+        <v>2914.02</v>
       </c>
       <c r="G59" s="36" t="inlineStr">
         <is>
@@ -3259,10 +3259,10 @@
         <v>9529.809999999999</v>
       </c>
       <c r="E60" s="35" t="n">
-        <v>15114.27</v>
+        <v>15152.39</v>
       </c>
       <c r="F60" s="35" t="n">
-        <v>2314.27</v>
+        <v>2352.39</v>
       </c>
       <c r="G60" s="36" t="inlineStr">
         <is>
@@ -3353,10 +3353,10 @@
         <v>6798.52</v>
       </c>
       <c r="E62" s="35" t="n">
-        <v>10231.09</v>
+        <v>10039.37</v>
       </c>
       <c r="F62" s="35" t="n">
-        <v>331.09</v>
+        <v>139.37</v>
       </c>
       <c r="G62" s="36" t="inlineStr">
         <is>
@@ -3400,10 +3400,10 @@
         <v>4791.13</v>
       </c>
       <c r="E63" s="35" t="n">
-        <v>8307.34</v>
+        <v>8265.65</v>
       </c>
       <c r="F63" s="35" t="n">
-        <v>1907.34</v>
+        <v>1865.65</v>
       </c>
       <c r="G63" s="36" t="inlineStr">
         <is>
@@ -3494,10 +3494,10 @@
         <v>13403.92</v>
       </c>
       <c r="E65" s="35" t="n">
-        <v>7272.96</v>
+        <v>7287.71</v>
       </c>
       <c r="F65" s="35" t="n">
-        <v>872.96</v>
+        <v>887.71</v>
       </c>
       <c r="G65" s="36" t="inlineStr">
         <is>
@@ -3541,10 +3541,10 @@
         <v>5328.62</v>
       </c>
       <c r="E66" s="35" t="n">
-        <v>7229.87</v>
+        <v>7225.07</v>
       </c>
       <c r="F66" s="35" t="n">
-        <v>829.87</v>
+        <v>825.0700000000001</v>
       </c>
       <c r="G66" s="36" t="inlineStr">
         <is>
@@ -3588,10 +3588,10 @@
         <v>7778.64</v>
       </c>
       <c r="E67" s="35" t="n">
-        <v>6679.51</v>
+        <v>6686.51</v>
       </c>
       <c r="F67" s="35" t="n">
-        <v>-320.49</v>
+        <v>-313.49</v>
       </c>
       <c r="G67" s="36" t="inlineStr">
         <is>
@@ -3635,10 +3635,10 @@
         <v>7852.99</v>
       </c>
       <c r="E68" s="35" t="n">
-        <v>5876.39</v>
+        <v>5902.3</v>
       </c>
       <c r="F68" s="35" t="n">
-        <v>-523.61</v>
+        <v>-497.7</v>
       </c>
       <c r="G68" s="36" t="inlineStr">
         <is>
@@ -3726,13 +3726,13 @@
         <v>1</v>
       </c>
       <c r="D70" s="5" t="n">
-        <v>799679.1800000001</v>
+        <v>799094.96</v>
       </c>
       <c r="E70" s="5" t="n">
         <v>799679.1800000001</v>
       </c>
       <c r="F70" s="5" t="n">
-        <v>-320.82</v>
+        <v>-905.04</v>
       </c>
       <c r="G70" s="6" t="inlineStr">
         <is>
@@ -3776,10 +3776,10 @@
         <v>1013.26</v>
       </c>
       <c r="E71" s="10" t="n">
-        <v>1448.96</v>
+        <v>1441.87</v>
       </c>
       <c r="F71" s="10" t="n">
-        <v>3.86</v>
+        <v>-3.23</v>
       </c>
       <c r="G71" s="11" t="inlineStr">
         <is>
@@ -3823,10 +3823,10 @@
         <v>859.89</v>
       </c>
       <c r="E72" s="10" t="n">
-        <v>1382.7</v>
+        <v>1380.12</v>
       </c>
       <c r="F72" s="10" t="n">
-        <v>-38.53</v>
+        <v>-41.11</v>
       </c>
       <c r="G72" s="11" t="inlineStr">
         <is>
@@ -3870,10 +3870,10 @@
         <v>898.04</v>
       </c>
       <c r="E73" s="10" t="n">
-        <v>1311.86</v>
+        <v>1285.63</v>
       </c>
       <c r="F73" s="10" t="n">
-        <v>100.89</v>
+        <v>74.66</v>
       </c>
       <c r="G73" s="11" t="inlineStr">
         <is>
@@ -3917,10 +3917,10 @@
         <v>1312.53</v>
       </c>
       <c r="E74" s="10" t="n">
-        <v>1193.22</v>
+        <v>1197.29</v>
       </c>
       <c r="F74" s="10" t="n">
-        <v>-31.49</v>
+        <v>-27.42</v>
       </c>
       <c r="G74" s="11" t="inlineStr">
         <is>
@@ -3964,10 +3964,10 @@
         <v>482.9</v>
       </c>
       <c r="E75" s="10" t="n">
-        <v>888.54</v>
+        <v>885.64</v>
       </c>
       <c r="F75" s="10" t="n">
-        <v>21.55</v>
+        <v>18.65</v>
       </c>
       <c r="G75" s="11" t="inlineStr">
         <is>
@@ -4011,10 +4011,10 @@
         <v>389.84</v>
       </c>
       <c r="E76" s="10" t="n">
-        <v>833.67</v>
+        <v>830.79</v>
       </c>
       <c r="F76" s="10" t="n">
-        <v>7.27</v>
+        <v>4.39</v>
       </c>
       <c r="G76" s="11" t="inlineStr">
         <is>
@@ -4058,10 +4058,10 @@
         <v>354.88</v>
       </c>
       <c r="E77" s="10" t="n">
-        <v>336.04</v>
+        <v>334.16</v>
       </c>
       <c r="F77" s="10" t="n">
-        <v>-4.94</v>
+        <v>-6.83</v>
       </c>
       <c r="G77" s="11" t="inlineStr">
         <is>
@@ -4105,10 +4105,10 @@
         <v>214.89</v>
       </c>
       <c r="E78" s="10" t="n">
-        <v>200.41</v>
+        <v>200.13</v>
       </c>
       <c r="F78" s="10" t="n">
-        <v>-10.81</v>
+        <v>-11.09</v>
       </c>
       <c r="G78" s="11" t="inlineStr">
         <is>
@@ -4152,10 +4152,10 @@
         <v>212.74</v>
       </c>
       <c r="E79" s="10" t="n">
-        <v>164.19</v>
+        <v>162.07</v>
       </c>
       <c r="F79" s="10" t="n">
-        <v>21.49</v>
+        <v>19.37</v>
       </c>
       <c r="G79" s="11" t="inlineStr">
         <is>
@@ -4199,10 +4199,10 @@
         <v>62.09</v>
       </c>
       <c r="E80" s="10" t="n">
-        <v>81.77</v>
+        <v>80.22</v>
       </c>
       <c r="F80" s="10" t="n">
-        <v>1.73</v>
+        <v>0.18</v>
       </c>
       <c r="G80" s="11" t="inlineStr">
         <is>
@@ -4246,10 +4246,10 @@
         <v>24.24</v>
       </c>
       <c r="E81" s="10" t="n">
-        <v>34.91</v>
+        <v>34.74</v>
       </c>
       <c r="F81" s="10" t="n">
-        <v>-2.17</v>
+        <v>-2.34</v>
       </c>
       <c r="G81" s="11" t="inlineStr">
         <is>
@@ -4340,10 +4340,10 @@
         <v>917.91</v>
       </c>
       <c r="E83" s="10" t="n">
-        <v>1476</v>
+        <v>1473.25</v>
       </c>
       <c r="F83" s="10" t="n">
-        <v>-46.03</v>
+        <v>-48.78</v>
       </c>
       <c r="G83" s="11" t="inlineStr">
         <is>
@@ -4387,10 +4387,10 @@
         <v>993.53</v>
       </c>
       <c r="E84" s="10" t="n">
-        <v>1420.75</v>
+        <v>1413.79</v>
       </c>
       <c r="F84" s="10" t="n">
-        <v>5.44</v>
+        <v>-1.52</v>
       </c>
       <c r="G84" s="11" t="inlineStr">
         <is>
@@ -4434,10 +4434,10 @@
         <v>915.97</v>
       </c>
       <c r="E85" s="10" t="n">
-        <v>1338.05</v>
+        <v>1311.3</v>
       </c>
       <c r="F85" s="10" t="n">
-        <v>100.21</v>
+        <v>73.45999999999999</v>
       </c>
       <c r="G85" s="11" t="inlineStr">
         <is>
@@ -4481,10 +4481,10 @@
         <v>1320.32</v>
       </c>
       <c r="E86" s="10" t="n">
-        <v>1200.3</v>
+        <v>1204.4</v>
       </c>
       <c r="F86" s="10" t="n">
-        <v>-32.81</v>
+        <v>-28.71</v>
       </c>
       <c r="G86" s="11" t="inlineStr">
         <is>
@@ -4528,10 +4528,10 @@
         <v>509.62</v>
       </c>
       <c r="E87" s="10" t="n">
-        <v>937.7</v>
+        <v>934.64</v>
       </c>
       <c r="F87" s="10" t="n">
-        <v>21.94</v>
+        <v>18.88</v>
       </c>
       <c r="G87" s="11" t="inlineStr">
         <is>
@@ -4575,10 +4575,10 @@
         <v>372.65</v>
       </c>
       <c r="E88" s="10" t="n">
-        <v>796.91</v>
+        <v>794.15</v>
       </c>
       <c r="F88" s="10" t="n">
-        <v>6.62</v>
+        <v>3.86</v>
       </c>
       <c r="G88" s="11" t="inlineStr">
         <is>
@@ -4622,10 +4622,10 @@
         <v>355.1</v>
       </c>
       <c r="E89" s="10" t="n">
-        <v>336.24</v>
+        <v>334.36</v>
       </c>
       <c r="F89" s="10" t="n">
-        <v>-4.82</v>
+        <v>-6.7</v>
       </c>
       <c r="G89" s="11" t="inlineStr">
         <is>
@@ -4669,10 +4669,10 @@
         <v>227.52</v>
       </c>
       <c r="E90" s="10" t="n">
-        <v>212.19</v>
+        <v>211.89</v>
       </c>
       <c r="F90" s="10" t="n">
-        <v>-11.32</v>
+        <v>-11.62</v>
       </c>
       <c r="G90" s="11" t="inlineStr">
         <is>
@@ -4716,10 +4716,10 @@
         <v>142.1</v>
       </c>
       <c r="E91" s="10" t="n">
-        <v>187.15</v>
+        <v>183.59</v>
       </c>
       <c r="F91" s="10" t="n">
-        <v>4.7</v>
+        <v>1.14</v>
       </c>
       <c r="G91" s="11" t="inlineStr">
         <is>
@@ -4763,10 +4763,10 @@
         <v>212.74</v>
       </c>
       <c r="E92" s="10" t="n">
-        <v>164.19</v>
+        <v>162.07</v>
       </c>
       <c r="F92" s="10" t="n">
-        <v>21.49</v>
+        <v>19.37</v>
       </c>
       <c r="G92" s="11" t="inlineStr">
         <is>
@@ -4810,10 +4810,10 @@
         <v>24.24</v>
       </c>
       <c r="E93" s="10" t="n">
-        <v>34.91</v>
+        <v>34.74</v>
       </c>
       <c r="F93" s="10" t="n">
-        <v>-2.17</v>
+        <v>-2.34</v>
       </c>
       <c r="G93" s="11" t="inlineStr">
         <is>
@@ -4898,16 +4898,16 @@
         <v>162711</v>
       </c>
       <c r="C95" s="34" t="n">
-        <v>0</v>
+        <v>1.0519</v>
       </c>
       <c r="D95" s="35" t="n">
-        <v>0</v>
+        <v>9697.57</v>
       </c>
       <c r="E95" s="35" t="n">
-        <v>10421.97</v>
+        <v>10433.61</v>
       </c>
       <c r="F95" s="35" t="n">
-        <v>221.97</v>
+        <v>233.61</v>
       </c>
       <c r="G95" s="36" t="inlineStr">
         <is>
@@ -4945,16 +4945,16 @@
         <v>100032</v>
       </c>
       <c r="C96" s="34" t="n">
-        <v>1.0193</v>
+        <v>1.0142</v>
       </c>
       <c r="D96" s="35" t="n">
-        <v>65064.33</v>
+        <v>8677.6</v>
       </c>
       <c r="E96" s="35" t="n">
-        <v>9475.93</v>
+        <v>9449.9</v>
       </c>
       <c r="F96" s="35" t="n">
-        <v>675.9299999999999</v>
+        <v>649.9</v>
       </c>
       <c r="G96" s="36" t="inlineStr">
         <is>
@@ -4992,16 +4992,16 @@
         <v>968</v>
       </c>
       <c r="C97" s="34" t="n">
-        <v>0.9167</v>
+        <v>0.853</v>
       </c>
       <c r="D97" s="35" t="n">
-        <v>63490</v>
+        <v>6096.21</v>
       </c>
       <c r="E97" s="35" t="n">
-        <v>5772.5</v>
+        <v>5740.19</v>
       </c>
       <c r="F97" s="35" t="n">
-        <v>572.5</v>
+        <v>540.1900000000001</v>
       </c>
       <c r="G97" s="36" t="inlineStr">
         <is>
@@ -5039,16 +5039,16 @@
         <v>1180</v>
       </c>
       <c r="C98" s="34" t="n">
-        <v>0.7451</v>
+        <v>0.7111</v>
       </c>
       <c r="D98" s="35" t="n">
-        <v>41014.88</v>
+        <v>6750.28</v>
       </c>
       <c r="E98" s="35" t="n">
-        <v>5720.86</v>
+        <v>5620.28</v>
       </c>
       <c r="F98" s="35" t="n">
-        <v>920.86</v>
+        <v>820.28</v>
       </c>
       <c r="G98" s="36" t="inlineStr">
         <is>
@@ -5086,16 +5086,16 @@
         <v>100038</v>
       </c>
       <c r="C99" s="34" t="n">
-        <v>1.3129</v>
+        <v>1.3043</v>
       </c>
       <c r="D99" s="35" t="n">
-        <v>14624.61</v>
+        <v>2760.12</v>
       </c>
       <c r="E99" s="35" t="n">
-        <v>4441.03</v>
+        <v>4405.15</v>
       </c>
       <c r="F99" s="35" t="n">
-        <v>841.03</v>
+        <v>805.15</v>
       </c>
       <c r="G99" s="36" t="inlineStr">
         <is>
@@ -5133,16 +5133,16 @@
         <v>4752</v>
       </c>
       <c r="C100" s="34" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.7235</v>
       </c>
       <c r="D100" s="35" t="n">
-        <v>7852.99</v>
+        <v>4423.48</v>
       </c>
       <c r="E100" s="35" t="n">
-        <v>3310.09</v>
+        <v>3324.68</v>
       </c>
       <c r="F100" s="35" t="n">
-        <v>110.09</v>
+        <v>124.68</v>
       </c>
       <c r="G100" s="36" t="inlineStr">
         <is>
@@ -5180,16 +5180,16 @@
         <v>161017</v>
       </c>
       <c r="C101" s="34" t="n">
-        <v>1.3432</v>
+        <v>1.325</v>
       </c>
       <c r="D101" s="35" t="n">
-        <v>9529.809999999999</v>
+        <v>2046.97</v>
       </c>
       <c r="E101" s="35" t="n">
-        <v>3246.49</v>
+        <v>3254.68</v>
       </c>
       <c r="F101" s="35" t="n">
-        <v>534.38</v>
+        <v>542.5700000000001</v>
       </c>
       <c r="G101" s="36" t="inlineStr">
         <is>
@@ -5227,16 +5227,16 @@
         <v>1064</v>
       </c>
       <c r="C102" s="34" t="n">
-        <v>0.4775</v>
+        <v>0.5379</v>
       </c>
       <c r="D102" s="35" t="n">
-        <v>13403.92</v>
+        <v>5949.77</v>
       </c>
       <c r="E102" s="35" t="n">
-        <v>3228.34</v>
+        <v>3234.88</v>
       </c>
       <c r="F102" s="35" t="n">
-        <v>28.34</v>
+        <v>34.88</v>
       </c>
       <c r="G102" s="36" t="inlineStr">
         <is>
@@ -5274,16 +5274,16 @@
         <v>110027</v>
       </c>
       <c r="C103" s="34" t="n">
-        <v>1.5931</v>
+        <v>1.6007</v>
       </c>
       <c r="D103" s="35" t="n">
-        <v>20086.63</v>
+        <v>1743.65</v>
       </c>
       <c r="E103" s="35" t="n">
-        <v>2931.07</v>
+        <v>2924.1</v>
       </c>
       <c r="F103" s="35" t="n">
-        <v>140.07</v>
+        <v>133.1</v>
       </c>
       <c r="G103" s="36" t="inlineStr">
         <is>
@@ -5321,10 +5321,10 @@
         <v>614</v>
       </c>
       <c r="C104" s="34" t="n">
-        <v>1.091</v>
+        <v>1.0612</v>
       </c>
       <c r="D104" s="35" t="n">
-        <v>20716.63</v>
+        <v>1884.74</v>
       </c>
       <c r="E104" s="35" t="n">
         <v>2278.65</v>
@@ -5368,16 +5368,16 @@
         <v>110026</v>
       </c>
       <c r="C105" s="34" t="n">
-        <v>1.3359</v>
+        <v>1.319</v>
       </c>
       <c r="D105" s="35" t="n">
-        <v>4791.13</v>
+        <v>1213.09</v>
       </c>
       <c r="E105" s="35" t="n">
-        <v>2103.37</v>
+        <v>2092.82</v>
       </c>
       <c r="F105" s="35" t="n">
-        <v>503.37</v>
+        <v>492.82</v>
       </c>
       <c r="G105" s="36" t="inlineStr">
         <is>
@@ -5415,16 +5415,16 @@
         <v>340001</v>
       </c>
       <c r="C106" s="34" t="n">
-        <v>0.9886</v>
+        <v>0.9816</v>
       </c>
       <c r="D106" s="35" t="n">
-        <v>32370.29</v>
+        <v>1630.08</v>
       </c>
       <c r="E106" s="35" t="n">
-        <v>1867.25</v>
+        <v>1864.15</v>
       </c>
       <c r="F106" s="35" t="n">
-        <v>267.25</v>
+        <v>264.15</v>
       </c>
       <c r="G106" s="36" t="inlineStr">
         <is>
@@ -5462,16 +5462,16 @@
         <v>164906</v>
       </c>
       <c r="C107" s="34" t="n">
-        <v>1.1444</v>
+        <v>1.137</v>
       </c>
       <c r="D107" s="35" t="n">
-        <v>16778.47</v>
+        <v>1407.29</v>
       </c>
       <c r="E107" s="35" t="n">
-        <v>1851.99</v>
+        <v>1854.8</v>
       </c>
       <c r="F107" s="35" t="n">
-        <v>251.99</v>
+        <v>254.8</v>
       </c>
       <c r="G107" s="36" t="inlineStr">
         <is>
@@ -5509,16 +5509,16 @@
         <v>1051</v>
       </c>
       <c r="C108" s="34" t="n">
-        <v>0</v>
+        <v>0.8966</v>
       </c>
       <c r="D108" s="35" t="n">
-        <v>0</v>
+        <v>1338.46</v>
       </c>
       <c r="E108" s="35" t="n">
-        <v>1343.81</v>
+        <v>1327.75</v>
       </c>
       <c r="F108" s="35" t="n">
-        <v>143.81</v>
+        <v>127.75</v>
       </c>
       <c r="G108" s="36" t="inlineStr">
         <is>
@@ -5556,10 +5556,10 @@
         <v>162411</v>
       </c>
       <c r="C109" s="34" t="n">
-        <v>0.5152</v>
+        <v>0.4776</v>
       </c>
       <c r="D109" s="35" t="n">
-        <v>37267.45</v>
+        <v>3350.7</v>
       </c>
       <c r="E109" s="35" t="n">
         <v>1249.81</v>
@@ -5603,16 +5603,16 @@
         <v>162413</v>
       </c>
       <c r="C110" s="34" t="n">
-        <v>0</v>
+        <v>0.8027</v>
       </c>
       <c r="D110" s="35" t="n">
-        <v>0</v>
+        <v>1495.03</v>
       </c>
       <c r="E110" s="35" t="n">
-        <v>1180.02</v>
+        <v>1179.27</v>
       </c>
       <c r="F110" s="35" t="n">
-        <v>-19.98</v>
+        <v>-20.73</v>
       </c>
       <c r="G110" s="36" t="inlineStr">
         <is>
@@ -5650,16 +5650,16 @@
         <v>1469</v>
       </c>
       <c r="C111" s="34" t="n">
-        <v>0.9073</v>
+        <v>0.8885999999999999</v>
       </c>
       <c r="D111" s="35" t="n">
-        <v>21163.93</v>
+        <v>900.35</v>
       </c>
       <c r="E111" s="35" t="n">
-        <v>971.65</v>
+        <v>968.41</v>
       </c>
       <c r="F111" s="35" t="n">
-        <v>171.65</v>
+        <v>168.41</v>
       </c>
       <c r="G111" s="36" t="inlineStr">
         <is>
@@ -5697,16 +5697,16 @@
         <v>216</v>
       </c>
       <c r="C112" s="34" t="n">
-        <v>0</v>
+        <v>1.0903</v>
       </c>
       <c r="D112" s="35" t="n">
-        <v>0</v>
+        <v>733.79</v>
       </c>
       <c r="E112" s="35" t="n">
-        <v>887.37</v>
+        <v>890.16</v>
       </c>
       <c r="F112" s="35" t="n">
-        <v>87.37</v>
+        <v>90.16</v>
       </c>
       <c r="G112" s="36" t="inlineStr">
         <is>
@@ -5744,16 +5744,16 @@
         <v>502010</v>
       </c>
       <c r="C113" s="34" t="n">
-        <v>0</v>
+        <v>0.8063</v>
       </c>
       <c r="D113" s="35" t="n">
-        <v>0</v>
+        <v>496.13</v>
       </c>
       <c r="E113" s="35" t="n">
-        <v>476.83</v>
+        <v>478.66</v>
       </c>
       <c r="F113" s="35" t="n">
-        <v>76.83</v>
+        <v>78.66</v>
       </c>
       <c r="G113" s="36" t="inlineStr">
         <is>
@@ -5791,16 +5791,16 @@
         <v>3765</v>
       </c>
       <c r="C114" s="34" t="n">
-        <v>0</v>
+        <v>0.8121</v>
       </c>
       <c r="D114" s="35" t="n">
-        <v>0</v>
+        <v>492.57</v>
       </c>
       <c r="E114" s="35" t="n">
-        <v>463.85</v>
+        <v>461.63</v>
       </c>
       <c r="F114" s="35" t="n">
-        <v>63.85</v>
+        <v>61.63</v>
       </c>
       <c r="G114" s="36" t="inlineStr">
         <is>
@@ -5841,13 +5841,13 @@
         <v>1.2011</v>
       </c>
       <c r="D115" s="35" t="n">
-        <v>5328.62</v>
+        <v>333.04</v>
       </c>
       <c r="E115" s="35" t="n">
-        <v>451.86</v>
+        <v>451.56</v>
       </c>
       <c r="F115" s="35" t="n">
-        <v>51.86</v>
+        <v>51.56</v>
       </c>
       <c r="G115" s="36" t="inlineStr">
         <is>
@@ -5885,16 +5885,16 @@
         <v>51</v>
       </c>
       <c r="C116" s="34" t="n">
-        <v>0</v>
+        <v>1.2285</v>
       </c>
       <c r="D116" s="35" t="n">
-        <v>0</v>
+        <v>325.61</v>
       </c>
       <c r="E116" s="35" t="n">
-        <v>421.66</v>
+        <v>418.08</v>
       </c>
       <c r="F116" s="35" t="n">
-        <v>21.66</v>
+        <v>18.08</v>
       </c>
       <c r="G116" s="36" t="inlineStr">
         <is>
@@ -5932,16 +5932,16 @@
         <v>71</v>
       </c>
       <c r="C117" s="34" t="n">
-        <v>1.4562</v>
+        <v>1.452</v>
       </c>
       <c r="D117" s="35" t="n">
-        <v>6798.52</v>
+        <v>275.49</v>
       </c>
       <c r="E117" s="35" t="n">
-        <v>414.58</v>
+        <v>406.81</v>
       </c>
       <c r="F117" s="35" t="n">
-        <v>14.58</v>
+        <v>6.81</v>
       </c>
       <c r="G117" s="36" t="inlineStr">
         <is>
@@ -5979,16 +5979,16 @@
         <v>2903</v>
       </c>
       <c r="C118" s="34" t="n">
-        <v>0.9</v>
+        <v>0.829</v>
       </c>
       <c r="D118" s="35" t="n">
-        <v>7778.64</v>
+        <v>275.96</v>
       </c>
       <c r="E118" s="35" t="n">
-        <v>236.96</v>
+        <v>237.21</v>
       </c>
       <c r="F118" s="35" t="n">
-        <v>8.199999999999999</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="G118" s="36" t="inlineStr">
         <is>
